--- a/Area de proceso PPQA/HGQAPROD_V0.1_2015.xlsx
+++ b/Area de proceso PPQA/HGQAPROD_V0.1_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="642" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="642" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="208">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -630,9 +630,6 @@
   </si>
   <si>
     <t>No se encontraron No Conformidades</t>
-  </si>
-  <si>
-    <t>PROY</t>
   </si>
   <si>
     <t>DDIS_Documento de Diseño</t>
@@ -1878,7 +1875,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2282,9 +2279,6 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2308,9 +2302,6 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -2442,111 +2433,148 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2556,42 +2584,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2604,22 +2596,73 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="55" fillId="30" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="31" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="31" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2632,60 +2675,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="55" fillId="30" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -4468,12 +4469,12 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:shape val="box"/>
-        <c:axId val="64276832"/>
-        <c:axId val="367777552"/>
+        <c:axId val="192032784"/>
+        <c:axId val="192033344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="64276832"/>
+        <c:axId val="192032784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4572,7 +4573,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367777552"/>
+        <c:crossAx val="192033344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4582,7 +4583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="367777552"/>
+        <c:axId val="192033344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4696,7 +4697,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64276832"/>
+        <c:crossAx val="192032784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7639,15 +7640,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="60"/>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
       <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -7707,7 +7708,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I5" s="60"/>
     </row>
@@ -7798,22 +7799,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206"/>
+      <c r="C2" s="194" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="195"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
-      <c r="B3" s="182" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="212" t="s">
+      <c r="B3" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="213"/>
-      <c r="E3" s="214"/>
+      <c r="C3" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="203"/>
+      <c r="E3" s="204"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7825,12 +7826,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="209"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="199"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7853,10 +7854,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="85"/>
-      <c r="D8" s="210" t="s">
+      <c r="D8" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="211"/>
+      <c r="E8" s="201"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7871,10 +7872,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="215" t="s">
+      <c r="D10" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="215"/>
+      <c r="E10" s="208"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7889,10 +7890,10 @@
         <v>93</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="215" t="s">
+      <c r="D12" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="215"/>
+      <c r="E12" s="208"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7907,10 +7908,10 @@
         <v>93</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="215" t="s">
+      <c r="D14" s="208" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="215"/>
+      <c r="E14" s="208"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7925,10 +7926,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="215" t="s">
+      <c r="D16" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="215"/>
+      <c r="E16" s="208"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7942,62 +7943,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="200"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="190"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="201" t="s">
+      <c r="C20" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="202"/>
-      <c r="E20" s="203"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="193"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="189" t="s">
+      <c r="C21" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="190"/>
-      <c r="E21" s="191"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="207"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="189" t="s">
+      <c r="C22" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="190"/>
-      <c r="E22" s="191"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="207"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="189" t="s">
+      <c r="C23" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="190"/>
-      <c r="E23" s="191"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="207"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="189" t="s">
+      <c r="C24" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="190"/>
-      <c r="E24" s="191"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="207"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -8010,57 +8011,57 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="198" t="s">
+      <c r="B27" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="199"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="200"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="190"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="201" t="s">
+      <c r="C28" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="202"/>
-      <c r="E28" s="203"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="193"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="195" t="s">
+      <c r="B29" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="197"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="211"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="32"/>
-      <c r="B30" s="159" t="s">
+      <c r="B30" s="157" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="185" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="186"/>
-      <c r="E30" s="187"/>
+      <c r="C30" s="182" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="183"/>
+      <c r="E30" s="184"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="32"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="158" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="185" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="186"/>
-      <c r="E31" s="187"/>
+      <c r="C31" s="182" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="183"/>
+      <c r="E31" s="184"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -8069,11 +8070,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="185" t="s">
+      <c r="C32" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="187"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="184"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -8082,11 +8083,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="185" t="s">
+      <c r="C33" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="186"/>
-      <c r="E33" s="187"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="184"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -8095,174 +8096,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="185" t="s">
+      <c r="C34" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="185" t="s">
+      <c r="C35" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="186"/>
-      <c r="E35" s="187"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="184"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="195" t="s">
+      <c r="B36" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="197"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="211"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="185" t="s">
+      <c r="C37" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="186"/>
-      <c r="E37" s="187"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="184"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="185" t="s">
+      <c r="C38" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="187"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="184"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="185" t="s">
+      <c r="C39" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="186"/>
-      <c r="E39" s="187"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="184"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="185" t="s">
+      <c r="C40" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="187"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="184"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="185" t="s">
+      <c r="C41" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="186"/>
-      <c r="E41" s="187"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="184"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="185" t="s">
+      <c r="C42" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="184"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="186"/>
-      <c r="E43" s="187"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="184"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="185" t="s">
+      <c r="C44" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="186"/>
-      <c r="E44" s="187"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="184"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="186"/>
-      <c r="E45" s="187"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="184"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="185" t="s">
+      <c r="C46" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="186"/>
-      <c r="E46" s="187"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="184"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="185" t="s">
+      <c r="C47" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="186"/>
-      <c r="E47" s="187"/>
+      <c r="D47" s="183"/>
+      <c r="E47" s="184"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="185" t="s">
+      <c r="C48" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="186"/>
-      <c r="E48" s="187"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="184"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="185" t="s">
+      <c r="C49" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="186"/>
-      <c r="E49" s="187"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="184"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8295,23 +8296,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="198" t="s">
+      <c r="B52" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="199"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="200"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="190"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="201" t="s">
+      <c r="C53" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="202"/>
-      <c r="E53" s="203"/>
+      <c r="D53" s="192"/>
+      <c r="E53" s="193"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8326,132 +8327,132 @@
       <c r="B54" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="185" t="s">
+      <c r="C54" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="186"/>
-      <c r="E54" s="187"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="184"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="185" t="s">
+      <c r="C55" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="186"/>
-      <c r="E55" s="187"/>
+      <c r="D55" s="183"/>
+      <c r="E55" s="184"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="185" t="s">
+      <c r="C56" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="186"/>
-      <c r="E56" s="187"/>
+      <c r="D56" s="183"/>
+      <c r="E56" s="184"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="185" t="s">
+      <c r="C57" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="192"/>
-      <c r="E57" s="193"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="187"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="185" t="s">
+      <c r="C58" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="192"/>
-      <c r="E58" s="193"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="187"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="185" t="s">
+      <c r="C59" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="192"/>
-      <c r="E59" s="193"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="187"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="185" t="s">
+      <c r="C60" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="D60" s="192"/>
-      <c r="E60" s="193"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="187"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="194" t="s">
+      <c r="C61" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="192"/>
-      <c r="E61" s="193"/>
+      <c r="D61" s="186"/>
+      <c r="E61" s="187"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="185" t="s">
+      <c r="C62" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="192"/>
-      <c r="E62" s="193"/>
+      <c r="D62" s="186"/>
+      <c r="E62" s="187"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="194" t="s">
+      <c r="C63" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="192"/>
-      <c r="E63" s="193"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="187"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="194" t="s">
+      <c r="C64" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="192"/>
-      <c r="E64" s="193"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="187"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="185" t="s">
+      <c r="C65" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="186"/>
-      <c r="E65" s="187"/>
+      <c r="D65" s="183"/>
+      <c r="E65" s="184"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8462,200 +8463,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="188"/>
-      <c r="C67" s="188"/>
-      <c r="D67" s="188"/>
-      <c r="E67" s="188"/>
+      <c r="B67" s="213"/>
+      <c r="C67" s="213"/>
+      <c r="D67" s="213"/>
+      <c r="E67" s="213"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="184"/>
-      <c r="C68" s="184"/>
-      <c r="D68" s="184"/>
-      <c r="E68" s="184"/>
+      <c r="B68" s="212"/>
+      <c r="C68" s="212"/>
+      <c r="D68" s="212"/>
+      <c r="E68" s="212"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="184"/>
-      <c r="C69" s="184"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="184"/>
+      <c r="B69" s="212"/>
+      <c r="C69" s="212"/>
+      <c r="D69" s="212"/>
+      <c r="E69" s="212"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="184"/>
-      <c r="C70" s="184"/>
-      <c r="D70" s="184"/>
-      <c r="E70" s="184"/>
+      <c r="B70" s="212"/>
+      <c r="C70" s="212"/>
+      <c r="D70" s="212"/>
+      <c r="E70" s="212"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="184"/>
-      <c r="C71" s="184"/>
-      <c r="D71" s="184"/>
-      <c r="E71" s="184"/>
+      <c r="B71" s="212"/>
+      <c r="C71" s="212"/>
+      <c r="D71" s="212"/>
+      <c r="E71" s="212"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="184"/>
-      <c r="C72" s="184"/>
-      <c r="D72" s="184"/>
-      <c r="E72" s="184"/>
+      <c r="B72" s="212"/>
+      <c r="C72" s="212"/>
+      <c r="D72" s="212"/>
+      <c r="E72" s="212"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="184"/>
-      <c r="C73" s="184"/>
-      <c r="D73" s="184"/>
-      <c r="E73" s="184"/>
+      <c r="B73" s="212"/>
+      <c r="C73" s="212"/>
+      <c r="D73" s="212"/>
+      <c r="E73" s="212"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="184"/>
-      <c r="D74" s="184"/>
-      <c r="E74" s="184"/>
+      <c r="B74" s="212"/>
+      <c r="C74" s="212"/>
+      <c r="D74" s="212"/>
+      <c r="E74" s="212"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="184"/>
-      <c r="C75" s="184"/>
-      <c r="D75" s="184"/>
-      <c r="E75" s="184"/>
+      <c r="B75" s="212"/>
+      <c r="C75" s="212"/>
+      <c r="D75" s="212"/>
+      <c r="E75" s="212"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="184"/>
-      <c r="C76" s="184"/>
-      <c r="D76" s="184"/>
-      <c r="E76" s="184"/>
+      <c r="B76" s="212"/>
+      <c r="C76" s="212"/>
+      <c r="D76" s="212"/>
+      <c r="E76" s="212"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="184"/>
-      <c r="C77" s="184"/>
-      <c r="D77" s="184"/>
-      <c r="E77" s="184"/>
+      <c r="B77" s="212"/>
+      <c r="C77" s="212"/>
+      <c r="D77" s="212"/>
+      <c r="E77" s="212"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="184"/>
-      <c r="C78" s="184"/>
-      <c r="D78" s="184"/>
-      <c r="E78" s="184"/>
+      <c r="B78" s="212"/>
+      <c r="C78" s="212"/>
+      <c r="D78" s="212"/>
+      <c r="E78" s="212"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="184"/>
-      <c r="C79" s="184"/>
-      <c r="D79" s="184"/>
-      <c r="E79" s="184"/>
+      <c r="B79" s="212"/>
+      <c r="C79" s="212"/>
+      <c r="D79" s="212"/>
+      <c r="E79" s="212"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="184"/>
-      <c r="C80" s="184"/>
-      <c r="D80" s="184"/>
-      <c r="E80" s="184"/>
+      <c r="B80" s="212"/>
+      <c r="C80" s="212"/>
+      <c r="D80" s="212"/>
+      <c r="E80" s="212"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="184"/>
-      <c r="C81" s="184"/>
-      <c r="D81" s="184"/>
-      <c r="E81" s="184"/>
+      <c r="B81" s="212"/>
+      <c r="C81" s="212"/>
+      <c r="D81" s="212"/>
+      <c r="E81" s="212"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="184"/>
-      <c r="C82" s="184"/>
-      <c r="D82" s="184"/>
-      <c r="E82" s="184"/>
+      <c r="B82" s="212"/>
+      <c r="C82" s="212"/>
+      <c r="D82" s="212"/>
+      <c r="E82" s="212"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="184"/>
-      <c r="C83" s="184"/>
-      <c r="D83" s="184"/>
-      <c r="E83" s="184"/>
+      <c r="B83" s="212"/>
+      <c r="C83" s="212"/>
+      <c r="D83" s="212"/>
+      <c r="E83" s="212"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="184"/>
-      <c r="C84" s="184"/>
-      <c r="D84" s="184"/>
-      <c r="E84" s="184"/>
+      <c r="B84" s="212"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="212"/>
+      <c r="E84" s="212"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="184"/>
-      <c r="C85" s="184"/>
-      <c r="D85" s="184"/>
-      <c r="E85" s="184"/>
+      <c r="B85" s="212"/>
+      <c r="C85" s="212"/>
+      <c r="D85" s="212"/>
+      <c r="E85" s="212"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="184"/>
-      <c r="C86" s="184"/>
-      <c r="D86" s="184"/>
-      <c r="E86" s="184"/>
+      <c r="B86" s="212"/>
+      <c r="C86" s="212"/>
+      <c r="D86" s="212"/>
+      <c r="E86" s="212"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8668,40 +8669,27 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8718,27 +8706,40 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8754,8 +8755,8 @@
   </sheetPr>
   <dimension ref="A3:Y53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8763,7 +8764,7 @@
     <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="22.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="170" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="168" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="3" customWidth="1"/>
@@ -8776,162 +8777,162 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="216" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="216"/>
+      <c r="B3" s="223" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="223"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="215" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="220" t="s">
+      <c r="C6" s="216"/>
+      <c r="D6" s="217" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="218"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="N6" s="133"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="215" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="216"/>
+      <c r="D7" s="217" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="221"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="N6" s="134"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="218" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="220" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="222"/>
-      <c r="I7" s="223" t="s">
-        <v>201</v>
-      </c>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="158">
+      <c r="E7" s="218"/>
+      <c r="F7" s="219"/>
+      <c r="I7" s="214" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="156">
         <f>SUM(J13:J48)</f>
         <v>82.5</v>
       </c>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="219"/>
-      <c r="D8" s="220" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="221"/>
-      <c r="F8" s="222"/>
-      <c r="I8" s="223" t="s">
-        <v>202</v>
-      </c>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="158">
+      <c r="C8" s="216"/>
+      <c r="D8" s="217" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="I8" s="214" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="156">
         <f>SUM(M13:M48)</f>
         <v>41.5</v>
       </c>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="218" t="s">
+      <c r="B9" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="219"/>
+      <c r="C9" s="216"/>
       <c r="D9" s="123">
         <v>42276</v>
       </c>
-      <c r="E9" s="166" t="s">
+      <c r="E9" s="164" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="119">
         <v>42327</v>
       </c>
       <c r="H9" s="110"/>
-      <c r="N9" s="134"/>
+      <c r="N9" s="133"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="218" t="s">
+      <c r="B10" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="219"/>
-      <c r="D10" s="224" t="s">
+      <c r="C10" s="216"/>
+      <c r="D10" s="220" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="225"/>
-      <c r="F10" s="226"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="171"/>
+      <c r="D11" s="169"/>
       <c r="E11" s="19"/>
       <c r="Y11" s="20"/>
     </row>
     <row r="12" spans="2:25" s="118" customFormat="1" ht="38.25">
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="164" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="163" t="s">
+      <c r="D12" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="164" t="s">
+      <c r="F12" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="164" t="s">
-        <v>186</v>
-      </c>
-      <c r="H12" s="165" t="s">
+      <c r="G12" s="162" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="165" t="s">
+      <c r="I12" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="165" t="s">
+      <c r="J12" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="165" t="s">
+      <c r="K12" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="165" t="s">
+      <c r="L12" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="165" t="s">
+      <c r="M12" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="165" t="s">
+      <c r="N12" s="163" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8939,34 +8940,34 @@
       <c r="B13" s="84">
         <v>1</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="169" t="s">
+      <c r="D13" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="153" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="157" t="s">
+      <c r="E13" s="151" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="250">
+      <c r="F13" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="180">
         <v>42248</v>
       </c>
-      <c r="I13" s="250">
+      <c r="I13" s="180">
         <v>42273</v>
       </c>
       <c r="J13" s="121">
         <v>3</v>
       </c>
-      <c r="K13" s="250">
+      <c r="K13" s="180">
         <v>42254</v>
       </c>
-      <c r="L13" s="250">
+      <c r="L13" s="180">
         <v>42271</v>
       </c>
       <c r="M13" s="121">
@@ -8979,34 +8980,34 @@
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="169" t="s">
+      <c r="D14" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="153" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="250">
+      <c r="E14" s="151" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="180">
         <v>42248</v>
       </c>
-      <c r="I14" s="250">
+      <c r="I14" s="180">
         <v>42273</v>
       </c>
       <c r="J14" s="121">
         <v>3</v>
       </c>
-      <c r="K14" s="250">
+      <c r="K14" s="180">
         <v>42254</v>
       </c>
-      <c r="L14" s="250">
+      <c r="L14" s="180">
         <v>42271</v>
       </c>
       <c r="M14" s="121">
@@ -9019,34 +9020,34 @@
         <f>B14+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="169" t="s">
+      <c r="D15" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="153" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="157" t="s">
+      <c r="E15" s="151" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="250">
+      <c r="G15" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="180">
         <v>42248</v>
       </c>
-      <c r="I15" s="250">
+      <c r="I15" s="180">
         <v>42273</v>
       </c>
       <c r="J15" s="121">
         <v>3</v>
       </c>
-      <c r="K15" s="250">
+      <c r="K15" s="180">
         <v>42254</v>
       </c>
-      <c r="L15" s="250">
+      <c r="L15" s="180">
         <v>42271</v>
       </c>
       <c r="M15" s="121">
@@ -9059,35 +9060,35 @@
         <f t="shared" ref="B16:B48" si="0">B15+1</f>
         <v>4</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="169" t="s">
+      <c r="D16" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="153" t="s">
+      <c r="E16" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="157" t="s">
+      <c r="F16" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="250">
+      <c r="G16" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="180">
         <v>42248</v>
       </c>
-      <c r="I16" s="250">
+      <c r="I16" s="180">
         <v>42273</v>
       </c>
       <c r="J16" s="121">
         <f>1.5+1</f>
         <v>2.5</v>
       </c>
-      <c r="K16" s="250">
+      <c r="K16" s="180">
         <v>42254</v>
       </c>
-      <c r="L16" s="250">
+      <c r="L16" s="180">
         <v>42271</v>
       </c>
       <c r="M16" s="121">
@@ -9100,34 +9101,34 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C17" s="152" t="s">
+      <c r="C17" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="169" t="s">
+      <c r="D17" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="153" t="s">
+      <c r="E17" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="250">
+      <c r="F17" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="180">
         <v>42248</v>
       </c>
-      <c r="I17" s="250">
+      <c r="I17" s="180">
         <v>42273</v>
       </c>
       <c r="J17" s="121">
         <v>3</v>
       </c>
-      <c r="K17" s="250">
+      <c r="K17" s="180">
         <v>42254</v>
       </c>
-      <c r="L17" s="250">
+      <c r="L17" s="180">
         <v>42271</v>
       </c>
       <c r="M17" s="121">
@@ -9140,34 +9141,34 @@
         <f>B17+1</f>
         <v>6</v>
       </c>
-      <c r="C18" s="152" t="s">
+      <c r="C18" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="169" t="s">
+      <c r="D18" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="153" t="s">
+      <c r="E18" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="250">
+      <c r="F18" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="180">
         <v>42285</v>
       </c>
-      <c r="I18" s="250">
+      <c r="I18" s="180">
         <v>42298</v>
       </c>
       <c r="J18" s="121">
         <v>2</v>
       </c>
-      <c r="K18" s="250">
+      <c r="K18" s="180">
         <v>42286</v>
       </c>
-      <c r="L18" s="250">
+      <c r="L18" s="180">
         <v>42297</v>
       </c>
       <c r="M18" s="121">
@@ -9180,34 +9181,34 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="169" t="s">
+      <c r="D19" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="153" t="s">
+      <c r="E19" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="157" t="s">
+      <c r="F19" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="250">
+      <c r="G19" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="180">
         <v>42285</v>
       </c>
-      <c r="I19" s="250">
+      <c r="I19" s="180">
         <v>42298</v>
       </c>
       <c r="J19" s="121">
         <v>1.5</v>
       </c>
-      <c r="K19" s="250">
+      <c r="K19" s="180">
         <v>42286</v>
       </c>
-      <c r="L19" s="250">
+      <c r="L19" s="180">
         <v>42297</v>
       </c>
       <c r="M19" s="121">
@@ -9220,34 +9221,34 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="169" t="s">
+      <c r="D20" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="154" t="s">
+      <c r="E20" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="157" t="s">
+      <c r="F20" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="250">
+      <c r="G20" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="180">
         <v>42285</v>
       </c>
-      <c r="I20" s="250">
+      <c r="I20" s="180">
         <v>42298</v>
       </c>
       <c r="J20" s="121">
         <v>2.5</v>
       </c>
-      <c r="K20" s="250">
+      <c r="K20" s="180">
         <v>42286</v>
       </c>
-      <c r="L20" s="250">
+      <c r="L20" s="180">
         <v>42297</v>
       </c>
       <c r="M20" s="121">
@@ -9260,34 +9261,34 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="155" t="s">
+      <c r="C21" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="169" t="s">
+      <c r="D21" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="154" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" s="250">
+      <c r="E21" s="152" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="180">
         <v>42285</v>
       </c>
-      <c r="I21" s="250">
+      <c r="I21" s="180">
         <v>42298</v>
       </c>
       <c r="J21" s="121">
         <v>3</v>
       </c>
-      <c r="K21" s="250">
+      <c r="K21" s="180">
         <v>42286</v>
       </c>
-      <c r="L21" s="250">
+      <c r="L21" s="180">
         <v>42297</v>
       </c>
       <c r="M21" s="121">
@@ -9300,34 +9301,34 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="169" t="s">
+      <c r="D22" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="154" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="157" t="s">
+      <c r="E22" s="152" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="250">
+      <c r="G22" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="180">
         <v>42285</v>
       </c>
-      <c r="I22" s="250">
+      <c r="I22" s="180">
         <v>42298</v>
       </c>
       <c r="J22" s="121">
         <v>3</v>
       </c>
-      <c r="K22" s="250">
+      <c r="K22" s="180">
         <v>42286</v>
       </c>
-      <c r="L22" s="250">
+      <c r="L22" s="180">
         <v>42297</v>
       </c>
       <c r="M22" s="121">
@@ -9340,34 +9341,34 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="169" t="s">
+      <c r="D23" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="154" t="s">
+      <c r="E23" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="157" t="s">
+      <c r="F23" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="250">
+      <c r="G23" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="180">
         <v>42285</v>
       </c>
-      <c r="I23" s="250">
+      <c r="I23" s="180">
         <v>42298</v>
       </c>
       <c r="J23" s="121">
         <v>3</v>
       </c>
-      <c r="K23" s="250">
+      <c r="K23" s="180">
         <v>42286</v>
       </c>
-      <c r="L23" s="250">
+      <c r="L23" s="180">
         <v>42297</v>
       </c>
       <c r="M23" s="121">
@@ -9380,34 +9381,34 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C24" s="152" t="s">
+      <c r="C24" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="169" t="s">
+      <c r="D24" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="154" t="s">
+      <c r="E24" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="157" t="s">
+      <c r="F24" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="H24" s="250">
+      <c r="H24" s="180">
         <v>42285</v>
       </c>
-      <c r="I24" s="250">
+      <c r="I24" s="180">
         <v>42298</v>
       </c>
       <c r="J24" s="121">
         <v>3</v>
       </c>
-      <c r="K24" s="250">
+      <c r="K24" s="180">
         <v>42286</v>
       </c>
-      <c r="L24" s="250">
+      <c r="L24" s="180">
         <v>42297</v>
       </c>
       <c r="M24" s="121">
@@ -9420,34 +9421,34 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C25" s="152" t="s">
+      <c r="C25" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="169" t="s">
+      <c r="D25" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="250">
+      <c r="E25" s="152" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="180">
         <v>42285</v>
       </c>
-      <c r="I25" s="250">
+      <c r="I25" s="180">
         <v>42298</v>
       </c>
       <c r="J25" s="121">
         <v>2</v>
       </c>
-      <c r="K25" s="250">
+      <c r="K25" s="180">
         <v>42286</v>
       </c>
-      <c r="L25" s="250">
+      <c r="L25" s="180">
         <v>42297</v>
       </c>
       <c r="M25" s="121">
@@ -9460,34 +9461,34 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="169" t="s">
+      <c r="D26" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="154" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" s="250">
+      <c r="E26" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="180">
         <v>42285</v>
       </c>
-      <c r="I26" s="250">
+      <c r="I26" s="180">
         <v>42298</v>
       </c>
       <c r="J26" s="121">
         <v>2.5</v>
       </c>
-      <c r="K26" s="250">
+      <c r="K26" s="180">
         <v>42286</v>
       </c>
-      <c r="L26" s="250">
+      <c r="L26" s="180">
         <v>42297</v>
       </c>
       <c r="M26" s="121">
@@ -9501,34 +9502,34 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="169" t="s">
+      <c r="D27" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="156" t="s">
+      <c r="E27" s="154" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" s="250">
+      <c r="F27" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="180">
         <v>42285</v>
       </c>
-      <c r="I27" s="250">
+      <c r="I27" s="180">
         <v>42298</v>
       </c>
       <c r="J27" s="121">
         <v>2</v>
       </c>
-      <c r="K27" s="250">
+      <c r="K27" s="180">
         <v>42286</v>
       </c>
-      <c r="L27" s="250">
+      <c r="L27" s="180">
         <v>42297</v>
       </c>
       <c r="M27" s="121">
@@ -9542,34 +9543,34 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C28" s="152" t="s">
+      <c r="C28" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="169" t="s">
+      <c r="D28" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="154" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="157" t="s">
+      <c r="E28" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="250">
+      <c r="G28" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="180">
         <v>42285</v>
       </c>
-      <c r="I28" s="250">
+      <c r="I28" s="180">
         <v>42298</v>
       </c>
       <c r="J28" s="121">
         <v>1.5</v>
       </c>
-      <c r="K28" s="250">
+      <c r="K28" s="180">
         <v>42286</v>
       </c>
-      <c r="L28" s="250">
+      <c r="L28" s="180">
         <v>42297</v>
       </c>
       <c r="M28" s="121">
@@ -9583,34 +9584,34 @@
         <f>B28+1</f>
         <v>17</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="172" t="s">
+      <c r="D29" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="250">
+      <c r="E29" s="152" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="180">
         <v>42276</v>
       </c>
-      <c r="I29" s="250">
+      <c r="I29" s="180">
         <v>42296</v>
       </c>
       <c r="J29" s="121">
         <v>3</v>
       </c>
-      <c r="K29" s="250">
+      <c r="K29" s="180">
         <v>42286</v>
       </c>
-      <c r="L29" s="250">
+      <c r="L29" s="180">
         <v>42299</v>
       </c>
       <c r="M29" s="121">
@@ -9624,34 +9625,34 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="172" t="s">
+      <c r="D30" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="250">
+      <c r="E30" s="152" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="180">
         <v>42276</v>
       </c>
-      <c r="I30" s="250">
+      <c r="I30" s="180">
         <v>42296</v>
       </c>
       <c r="J30" s="121">
         <v>3</v>
       </c>
-      <c r="K30" s="250">
+      <c r="K30" s="180">
         <v>42286</v>
       </c>
-      <c r="L30" s="250">
+      <c r="L30" s="180">
         <v>42299</v>
       </c>
       <c r="M30" s="121">
@@ -9665,34 +9666,34 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C31" s="155" t="s">
+      <c r="C31" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="172" t="s">
+      <c r="D31" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="154" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="250">
+      <c r="E31" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="180">
         <v>42276</v>
       </c>
-      <c r="I31" s="250">
+      <c r="I31" s="180">
         <v>42296</v>
       </c>
       <c r="J31" s="121">
         <v>2</v>
       </c>
-      <c r="K31" s="250">
+      <c r="K31" s="180">
         <v>42286</v>
       </c>
-      <c r="L31" s="250">
+      <c r="L31" s="180">
         <v>42299</v>
       </c>
       <c r="M31" s="121">
@@ -9706,34 +9707,34 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C32" s="152" t="s">
+      <c r="C32" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="172" t="s">
+      <c r="D32" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="154" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="250">
+      <c r="E32" s="152" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="180">
         <v>42276</v>
       </c>
-      <c r="I32" s="250">
+      <c r="I32" s="180">
         <v>42296</v>
       </c>
       <c r="J32" s="121">
         <v>1.5</v>
       </c>
-      <c r="K32" s="250">
+      <c r="K32" s="180">
         <v>42286</v>
       </c>
-      <c r="L32" s="250">
+      <c r="L32" s="180">
         <v>42299</v>
       </c>
       <c r="M32" s="121">
@@ -9747,34 +9748,34 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C33" s="155" t="s">
+      <c r="C33" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="172" t="s">
+      <c r="D33" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="154" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H33" s="250">
+      <c r="E33" s="152" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" s="180">
         <v>42276</v>
       </c>
-      <c r="I33" s="250">
+      <c r="I33" s="180">
         <v>42296</v>
       </c>
       <c r="J33" s="121">
         <v>2.5</v>
       </c>
-      <c r="K33" s="250">
+      <c r="K33" s="180">
         <v>42286</v>
       </c>
-      <c r="L33" s="250">
+      <c r="L33" s="180">
         <v>42299</v>
       </c>
       <c r="M33" s="121">
@@ -9788,34 +9789,34 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C34" s="155" t="s">
+      <c r="C34" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="169" t="s">
+      <c r="D34" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="154" t="s">
+      <c r="E34" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G34" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="250">
+      <c r="F34" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="180">
         <v>42276</v>
       </c>
-      <c r="I34" s="250">
+      <c r="I34" s="180">
         <v>42296</v>
       </c>
       <c r="J34" s="121">
         <v>2.5</v>
       </c>
-      <c r="K34" s="250">
+      <c r="K34" s="180">
         <v>42286</v>
       </c>
-      <c r="L34" s="250">
+      <c r="L34" s="180">
         <v>42299</v>
       </c>
       <c r="M34" s="121">
@@ -9829,34 +9830,34 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C35" s="155" t="s">
+      <c r="C35" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="169" t="s">
+      <c r="D35" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="154" t="s">
-        <v>184</v>
-      </c>
-      <c r="F35" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H35" s="250">
+      <c r="E35" s="152" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="180">
         <v>42276</v>
       </c>
-      <c r="I35" s="250">
+      <c r="I35" s="180">
         <v>42296</v>
       </c>
       <c r="J35" s="121">
         <v>2</v>
       </c>
-      <c r="K35" s="250">
+      <c r="K35" s="180">
         <v>42286</v>
       </c>
-      <c r="L35" s="250">
+      <c r="L35" s="180">
         <v>42299</v>
       </c>
       <c r="M35" s="121">
@@ -9870,34 +9871,34 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="169" t="s">
+      <c r="D36" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="154" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="250">
+      <c r="E36" s="152" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="180">
         <v>42276</v>
       </c>
-      <c r="I36" s="250">
+      <c r="I36" s="180">
         <v>42296</v>
       </c>
       <c r="J36" s="121">
         <v>3</v>
       </c>
-      <c r="K36" s="250">
+      <c r="K36" s="180">
         <v>42286</v>
       </c>
-      <c r="L36" s="250">
+      <c r="L36" s="180">
         <v>42299</v>
       </c>
       <c r="M36" s="121">
@@ -9911,34 +9912,34 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C37" s="155" t="s">
+      <c r="C37" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="169" t="s">
+      <c r="D37" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="154" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="250">
+      <c r="E37" s="152" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="180">
         <v>42276</v>
       </c>
-      <c r="I37" s="250">
+      <c r="I37" s="180">
         <v>42296</v>
       </c>
       <c r="J37" s="121">
         <v>3</v>
       </c>
-      <c r="K37" s="250">
+      <c r="K37" s="180">
         <v>42286</v>
       </c>
-      <c r="L37" s="250">
+      <c r="L37" s="180">
         <v>42299</v>
       </c>
       <c r="M37" s="121">
@@ -9952,34 +9953,34 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C38" s="155" t="s">
+      <c r="C38" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="169" t="s">
+      <c r="D38" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="154" t="s">
+      <c r="E38" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" s="250">
+      <c r="F38" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="180">
         <v>42276</v>
       </c>
-      <c r="I38" s="250">
+      <c r="I38" s="180">
         <v>42296</v>
       </c>
       <c r="J38" s="121">
         <v>2</v>
       </c>
-      <c r="K38" s="250">
+      <c r="K38" s="180">
         <v>42286</v>
       </c>
-      <c r="L38" s="250">
+      <c r="L38" s="180">
         <v>42299</v>
       </c>
       <c r="M38" s="121">
@@ -9993,34 +9994,34 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C39" s="155" t="s">
+      <c r="C39" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="169" t="s">
+      <c r="D39" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="154" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="157" t="s">
+      <c r="E39" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H39" s="250">
+      <c r="G39" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" s="180">
         <v>42276</v>
       </c>
-      <c r="I39" s="250">
+      <c r="I39" s="180">
         <v>42296</v>
       </c>
       <c r="J39" s="121">
         <v>2</v>
       </c>
-      <c r="K39" s="250">
+      <c r="K39" s="180">
         <v>42286</v>
       </c>
-      <c r="L39" s="250">
+      <c r="L39" s="180">
         <v>42299</v>
       </c>
       <c r="M39" s="121">
@@ -10034,34 +10035,34 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C40" s="155" t="s">
+      <c r="C40" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="169" t="s">
+      <c r="D40" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="154" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="157" t="s">
+      <c r="E40" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H40" s="250">
+      <c r="G40" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="180">
         <v>42276</v>
       </c>
-      <c r="I40" s="250">
+      <c r="I40" s="180">
         <v>42296</v>
       </c>
       <c r="J40" s="121">
         <v>1.5</v>
       </c>
-      <c r="K40" s="250">
+      <c r="K40" s="180">
         <v>42286</v>
       </c>
-      <c r="L40" s="250">
+      <c r="L40" s="180">
         <v>42299</v>
       </c>
       <c r="M40" s="121">
@@ -10075,34 +10076,34 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C41" s="155" t="s">
+      <c r="C41" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="169" t="s">
+      <c r="D41" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H41" s="250">
+      <c r="E41" s="152" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G41" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" s="180">
         <v>42276</v>
       </c>
-      <c r="I41" s="250">
+      <c r="I41" s="180">
         <v>42296</v>
       </c>
       <c r="J41" s="121">
         <v>3</v>
       </c>
-      <c r="K41" s="250">
+      <c r="K41" s="180">
         <v>42286</v>
       </c>
-      <c r="L41" s="250">
+      <c r="L41" s="180">
         <v>42299</v>
       </c>
       <c r="M41" s="121">
@@ -10116,34 +10117,34 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C42" s="155" t="s">
+      <c r="C42" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="169" t="s">
+      <c r="D42" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="154" t="s">
-        <v>176</v>
-      </c>
-      <c r="F42" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="G42" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="H42" s="250">
+      <c r="E42" s="152" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" s="180">
         <v>42276</v>
       </c>
-      <c r="I42" s="250">
+      <c r="I42" s="180">
         <v>42296</v>
       </c>
       <c r="J42" s="121">
         <v>2</v>
       </c>
-      <c r="K42" s="250">
+      <c r="K42" s="180">
         <v>42286</v>
       </c>
-      <c r="L42" s="250">
+      <c r="L42" s="180">
         <v>42299</v>
       </c>
       <c r="M42" s="121">
@@ -10157,34 +10158,34 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C43" s="155" t="s">
+      <c r="C43" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="169" t="s">
+      <c r="D43" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="154" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" s="157" t="s">
+      <c r="E43" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="250">
+      <c r="G43" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" s="180">
         <v>42276</v>
       </c>
-      <c r="I43" s="250">
+      <c r="I43" s="180">
         <v>42296</v>
       </c>
       <c r="J43" s="121">
         <v>1.5</v>
       </c>
-      <c r="K43" s="250">
+      <c r="K43" s="180">
         <v>42286</v>
       </c>
-      <c r="L43" s="250">
+      <c r="L43" s="180">
         <v>42299</v>
       </c>
       <c r="M43" s="121">
@@ -10198,34 +10199,34 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C44" s="155" t="s">
+      <c r="C44" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="169" t="s">
+      <c r="D44" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="153" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="H44" s="250">
+      <c r="E44" s="151" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" s="180">
         <v>42276</v>
       </c>
-      <c r="I44" s="250">
+      <c r="I44" s="180">
         <v>42296</v>
       </c>
       <c r="J44" s="121">
         <v>2</v>
       </c>
-      <c r="K44" s="250">
+      <c r="K44" s="180">
         <v>42286</v>
       </c>
-      <c r="L44" s="250">
+      <c r="L44" s="180">
         <v>42299</v>
       </c>
       <c r="M44" s="121">
@@ -10239,34 +10240,32 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C45" s="155" t="s">
+      <c r="C45" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="169" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G45" s="157" t="s">
+      <c r="D45" s="167"/>
+      <c r="E45" s="151" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H45" s="250">
+      <c r="G45" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="180">
         <v>42276</v>
       </c>
-      <c r="I45" s="250">
+      <c r="I45" s="180">
         <v>42296</v>
       </c>
       <c r="J45" s="121">
         <v>1</v>
       </c>
-      <c r="K45" s="250">
+      <c r="K45" s="180">
         <v>42286</v>
       </c>
-      <c r="L45" s="250">
+      <c r="L45" s="180">
         <v>42299</v>
       </c>
       <c r="M45" s="121">
@@ -10280,34 +10279,32 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C46" s="155" t="s">
+      <c r="C46" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="169" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" s="153" t="s">
+      <c r="D46" s="167"/>
+      <c r="E46" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" s="157" t="s">
+      <c r="F46" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H46" s="250">
+      <c r="G46" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" s="180">
         <v>42276</v>
       </c>
-      <c r="I46" s="250">
+      <c r="I46" s="180">
         <v>42296</v>
       </c>
       <c r="J46" s="121">
         <v>1</v>
       </c>
-      <c r="K46" s="250">
+      <c r="K46" s="180">
         <v>42286</v>
       </c>
-      <c r="L46" s="250">
+      <c r="L46" s="180">
         <v>42299</v>
       </c>
       <c r="M46" s="121">
@@ -10321,34 +10318,32 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C47" s="155" t="s">
+      <c r="C47" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="169" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="153" t="s">
-        <v>191</v>
-      </c>
-      <c r="F47" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G47" s="157" t="s">
+      <c r="D47" s="167"/>
+      <c r="E47" s="151" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H47" s="250">
+      <c r="G47" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H47" s="180">
         <v>42276</v>
       </c>
-      <c r="I47" s="250">
+      <c r="I47" s="180">
         <v>42296</v>
       </c>
       <c r="J47" s="121">
         <v>2</v>
       </c>
-      <c r="K47" s="250">
+      <c r="K47" s="180">
         <v>42286</v>
       </c>
-      <c r="L47" s="250">
+      <c r="L47" s="180">
         <v>42299</v>
       </c>
       <c r="M47" s="121">
@@ -10362,34 +10357,32 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C48" s="155" t="s">
+      <c r="C48" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="169" t="s">
-        <v>150</v>
-      </c>
-      <c r="E48" s="153" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="157" t="s">
+      <c r="D48" s="167"/>
+      <c r="E48" s="151" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="250">
+      <c r="G48" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" s="180">
         <v>42276</v>
       </c>
-      <c r="I48" s="250">
+      <c r="I48" s="180">
         <v>42296</v>
       </c>
       <c r="J48" s="121">
         <v>1.5</v>
       </c>
-      <c r="K48" s="250">
+      <c r="K48" s="180">
         <v>42286</v>
       </c>
-      <c r="L48" s="250">
+      <c r="L48" s="180">
         <v>42299</v>
       </c>
       <c r="M48" s="121">
@@ -10407,7 +10400,7 @@
     <row r="50" spans="1:13">
       <c r="A50" s="8"/>
       <c r="B50" s="6"/>
-      <c r="D50" s="173"/>
+      <c r="D50" s="171"/>
       <c r="E50" s="7"/>
       <c r="J50" s="125"/>
       <c r="K50" s="125"/>
@@ -10423,12 +10416,6 @@
     <row r="53" spans="1:13" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
@@ -10436,6 +10423,12 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10450,7 +10443,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tablas!$A$3</xm:f>
@@ -10461,7 +10454,7 @@
           <x14:formula1>
             <xm:f>Tablas!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D13:D48</xm:sqref>
+          <xm:sqref>D14:D44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -10475,6 +10468,12 @@
           </x14:formula1>
           <xm:sqref>F13:G48</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Tablas!$B$3:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D13 D45 D46 D47 D48</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -10486,11 +10485,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -10512,22 +10511,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="229"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="227"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -10551,54 +10550,54 @@
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="163" t="s">
+      <c r="D4" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="163" t="s">
+      <c r="H4" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="167" t="s">
+      <c r="I4" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="167" t="s">
+      <c r="J4" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="167" t="s">
+      <c r="K4" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="167" t="s">
+      <c r="L4" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="167" t="s">
+      <c r="M4" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="167" t="s">
+      <c r="N4" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="167" t="s">
+      <c r="O4" s="165" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1">
-      <c r="A5" s="168">
+      <c r="A5" s="166">
         <v>1</v>
       </c>
       <c r="B5" s="94">
@@ -10608,7 +10607,7 @@
         <f>VLOOKUP(B5,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="146" t="str">
+      <c r="D5" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A5,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A5,Planificación!B$13:G$22,3,FALSE))</f>
         <v>PGPRO_Proceso de Gestión / PP_PMC</v>
       </c>
@@ -10621,32 +10620,32 @@
         <v>Quimper</v>
       </c>
       <c r="G5" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="147" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="147" t="s">
+      <c r="I5" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="147" t="str">
+      <c r="J5" s="145" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K5" s="149"/>
-      <c r="L5" s="150">
+      <c r="K5" s="147"/>
+      <c r="L5" s="148">
         <f>VLOOKUP(A5,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M5" s="150">
+      <c r="M5" s="148">
         <f>VLOOKUP(A5,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
       <c r="N5" s="97"/>
-      <c r="O5" s="136"/>
+      <c r="O5" s="135"/>
     </row>
     <row r="6" spans="1:15" ht="42" customHeight="1">
-      <c r="A6" s="168">
+      <c r="A6" s="166">
         <f>A5+1</f>
         <v>2</v>
       </c>
@@ -10657,7 +10656,7 @@
         <f>VLOOKUP(B6,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="146" t="str">
+      <c r="D6" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A6,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A6,Planificación!B$13:G$22,3,FALSE))</f>
         <v>PPRO_Plan de Proyecto / PP_PMC</v>
       </c>
@@ -10669,33 +10668,33 @@
         <f>VLOOKUP(A6,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="G6" s="180" t="s">
+      <c r="G6" s="178" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="147" t="s">
+      <c r="H6" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="147" t="s">
+      <c r="I6" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="147" t="str">
+      <c r="J6" s="145" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K6" s="149"/>
-      <c r="L6" s="150">
+      <c r="K6" s="147"/>
+      <c r="L6" s="148">
         <f>VLOOKUP(A6,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M6" s="150">
+      <c r="M6" s="148">
         <f>VLOOKUP(A6,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
       <c r="N6" s="97"/>
-      <c r="O6" s="135"/>
+      <c r="O6" s="134"/>
     </row>
     <row r="7" spans="1:15" ht="42" customHeight="1">
-      <c r="A7" s="168">
+      <c r="A7" s="166">
         <f t="shared" ref="A7:A40" si="0">A6+1</f>
         <v>3</v>
       </c>
@@ -10706,7 +10705,7 @@
         <f>VLOOKUP(B7,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="146" t="str">
+      <c r="D7" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A7,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A7,Planificación!B$13:G$22,3,FALSE))</f>
         <v>CPRO_Cronograma de Proyecto / PP_PMC</v>
       </c>
@@ -10721,22 +10720,22 @@
       <c r="G7" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="147" t="s">
+      <c r="H7" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="147" t="s">
+      <c r="I7" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="147" t="str">
+      <c r="J7" s="145" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K7" s="149"/>
-      <c r="L7" s="150">
+      <c r="K7" s="147"/>
+      <c r="L7" s="148">
         <f>VLOOKUP(A7,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M7" s="150">
+      <c r="M7" s="148">
         <f>VLOOKUP(A7,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
@@ -10744,7 +10743,7 @@
       <c r="O7" s="104"/>
     </row>
     <row r="8" spans="1:15" ht="42" customHeight="1">
-      <c r="A8" s="168">
+      <c r="A8" s="166">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -10755,7 +10754,7 @@
         <f>VLOOKUP(B8,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="146" t="str">
+      <c r="D8" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A8,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A8,Planificación!B$13:G$22,3,FALSE))</f>
         <v>REGRI_Registro de Riesgos / PP_PMC</v>
       </c>
@@ -10768,24 +10767,24 @@
         <v>Quimper</v>
       </c>
       <c r="G8" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="148" t="s">
+      <c r="I8" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="147" t="str">
+      <c r="J8" s="145" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K8" s="151"/>
-      <c r="L8" s="150">
+      <c r="K8" s="149"/>
+      <c r="L8" s="148">
         <f>VLOOKUP(A8,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M8" s="150">
+      <c r="M8" s="148">
         <f>VLOOKUP(A8,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
@@ -10793,7 +10792,7 @@
       <c r="O8" s="114"/>
     </row>
     <row r="9" spans="1:15" ht="42" customHeight="1">
-      <c r="A9" s="168">
+      <c r="A9" s="166">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10804,7 +10803,7 @@
         <f>VLOOKUP(B9,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="146" t="str">
+      <c r="D9" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A9,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A9,Planificación!B$13:G$22,3,FALSE))</f>
         <v>ACCPRO_Acta de Cierre de Proyecto / PP_PMC</v>
       </c>
@@ -10819,22 +10818,22 @@
       <c r="G9" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="148" t="s">
+      <c r="H9" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="148" t="s">
+      <c r="I9" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="147" t="str">
+      <c r="J9" s="145" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K9" s="151"/>
-      <c r="L9" s="150">
+      <c r="K9" s="149"/>
+      <c r="L9" s="148">
         <f>VLOOKUP(A9,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M9" s="150">
+      <c r="M9" s="148">
         <f>VLOOKUP(A9,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
@@ -10842,7 +10841,7 @@
       <c r="O9" s="114"/>
     </row>
     <row r="10" spans="1:15" ht="42" customHeight="1">
-      <c r="A10" s="168">
+      <c r="A10" s="166">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -10853,7 +10852,7 @@
         <f>VLOOKUP(B10,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="146" t="str">
+      <c r="D10" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A10,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A10,Planificación!B$13:G$22,3,FALSE))</f>
         <v>PGREQM_Proceso de Gestion de Requerimientos / REQM</v>
       </c>
@@ -10868,22 +10867,22 @@
       <c r="G10" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="147" t="s">
+      <c r="H10" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="147" t="s">
+      <c r="I10" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="147" t="str">
+      <c r="J10" s="145" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K10" s="149"/>
-      <c r="L10" s="150">
+      <c r="K10" s="147"/>
+      <c r="L10" s="148">
         <f>VLOOKUP(A10,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M10" s="150">
+      <c r="M10" s="148">
         <f>VLOOKUP(A10,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -10891,7 +10890,7 @@
       <c r="O10" s="104"/>
     </row>
     <row r="11" spans="1:15" ht="42" customHeight="1">
-      <c r="A11" s="168">
+      <c r="A11" s="166">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -10901,7 +10900,7 @@
       <c r="C11" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="146" t="str">
+      <c r="D11" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A11,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A11,Planificación!B$13:G$22,3,FALSE))</f>
         <v>LMREQM_Lista Maestra de Requerimientos / REQM</v>
       </c>
@@ -10914,24 +10913,24 @@
         <v>Quimper</v>
       </c>
       <c r="G11" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="147" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="147" t="s">
+      <c r="I11" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="147" t="str">
+      <c r="J11" s="145" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K11" s="149"/>
-      <c r="L11" s="150">
+      <c r="K11" s="147"/>
+      <c r="L11" s="148">
         <f>VLOOKUP(A11,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M11" s="150">
+      <c r="M11" s="148">
         <f>VLOOKUP(A11,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -10939,7 +10938,7 @@
       <c r="O11" s="104"/>
     </row>
     <row r="12" spans="1:15" ht="42" customHeight="1">
-      <c r="A12" s="168">
+      <c r="A12" s="166">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -10949,7 +10948,7 @@
       <c r="C12" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="146" t="str">
+      <c r="D12" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A12,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A12,Planificación!B$13:G$22,3,FALSE))</f>
         <v>MTREQM_Matriz Trazabilidad de Requerimientos / REQM</v>
       </c>
@@ -10964,30 +10963,30 @@
       <c r="G12" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="147" t="s">
+      <c r="I12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="147" t="str">
+      <c r="J12" s="145" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K12" s="149"/>
-      <c r="L12" s="150">
+      <c r="K12" s="147"/>
+      <c r="L12" s="148">
         <f>VLOOKUP(A12,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M12" s="150">
+      <c r="M12" s="148">
         <f>VLOOKUP(A12,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
       <c r="N12" s="97"/>
-      <c r="O12" s="135"/>
+      <c r="O12" s="134"/>
     </row>
     <row r="13" spans="1:15" ht="42" customHeight="1">
-      <c r="A13" s="168">
+      <c r="A13" s="166">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -10998,7 +10997,7 @@
         <f>VLOOKUP(B13,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="146" t="str">
+      <c r="D13" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A13,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A13,Planificación!B$13:G$22,3,FALSE))</f>
         <v>SOLCREQM_Solicitud de Cambios  de Requerimientos / REQM</v>
       </c>
@@ -11013,30 +11012,30 @@
       <c r="G13" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="147" t="s">
+      <c r="H13" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="147" t="s">
+      <c r="I13" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="147" t="str">
+      <c r="J13" s="145" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K13" s="149"/>
-      <c r="L13" s="150">
+      <c r="K13" s="147"/>
+      <c r="L13" s="148">
         <f>VLOOKUP(A13,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M13" s="150">
+      <c r="M13" s="148">
         <f>VLOOKUP(A13,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
       <c r="N13" s="97"/>
-      <c r="O13" s="135"/>
+      <c r="O13" s="134"/>
     </row>
     <row r="14" spans="1:15" s="115" customFormat="1" ht="42" customHeight="1">
-      <c r="A14" s="168">
+      <c r="A14" s="166">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -11047,7 +11046,7 @@
         <f>VLOOKUP(B14,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="146" t="str">
+      <c r="D14" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A14,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A14,Planificación!B$13:G$22,3,FALSE))</f>
         <v>ASCREQM_Acta de Solicitud de Cambios de Requerimientos / REQM</v>
       </c>
@@ -11060,32 +11059,32 @@
         <v>Quimper</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="148" t="s">
+      <c r="I14" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="147" t="str">
+      <c r="J14" s="145" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K14" s="151"/>
-      <c r="L14" s="150">
+      <c r="K14" s="149"/>
+      <c r="L14" s="148">
         <f>VLOOKUP(A14,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M14" s="150">
+      <c r="M14" s="148">
         <f>VLOOKUP(A14,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
       <c r="N14" s="113"/>
-      <c r="O14" s="137"/>
+      <c r="O14" s="136"/>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1">
-      <c r="A15" s="168">
+      <c r="A15" s="166">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -11096,7 +11095,7 @@
         <f>VLOOKUP(B15,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="146" t="str">
+      <c r="D15" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A15,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A15,Planificación!B$13:G$48,3,FALSE))</f>
         <v>RCREQM_Registro de Cambios a Requerimientos / REQM</v>
       </c>
@@ -11109,24 +11108,24 @@
         <v>Quimper</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>205</v>
-      </c>
-      <c r="H15" s="147" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="147" t="s">
+      <c r="I15" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="147" t="str">
+      <c r="J15" s="145" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K15" s="149"/>
-      <c r="L15" s="150">
+      <c r="K15" s="147"/>
+      <c r="L15" s="148">
         <f>VLOOKUP(A15,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M15" s="150">
+      <c r="M15" s="148">
         <f>VLOOKUP(A15,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11134,7 +11133,7 @@
       <c r="O15" s="104"/>
     </row>
     <row r="16" spans="1:15" ht="42" customHeight="1">
-      <c r="A16" s="168">
+      <c r="A16" s="166">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -11145,7 +11144,7 @@
         <f>VLOOKUP(B16,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D16" s="146" t="str">
+      <c r="D16" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A16,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A16,Planificación!B$13:G$48,3,FALSE))</f>
         <v>DANA_Documento de Analisis / REQM</v>
       </c>
@@ -11160,22 +11159,22 @@
       <c r="G16" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="147" t="s">
+      <c r="H16" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="147" t="s">
+      <c r="I16" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="147" t="str">
+      <c r="J16" s="145" t="str">
         <f>VLOOKUP(A16,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="K16" s="149"/>
-      <c r="L16" s="150">
+      <c r="K16" s="147"/>
+      <c r="L16" s="148">
         <f>VLOOKUP(A16,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M16" s="150">
+      <c r="M16" s="148">
         <f>VLOOKUP(A16,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11183,7 +11182,7 @@
       <c r="O16" s="104"/>
     </row>
     <row r="17" spans="1:15" ht="42" customHeight="1">
-      <c r="A17" s="168">
+      <c r="A17" s="166">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -11194,7 +11193,7 @@
         <f>VLOOKUP(B17,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D17" s="146" t="str">
+      <c r="D17" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A17,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A17,Planificación!B$13:G$48,3,FALSE))</f>
         <v>DDIS_Documento de Diseño / REQM</v>
       </c>
@@ -11209,22 +11208,22 @@
       <c r="G17" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="147" t="s">
+      <c r="H17" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="147" t="s">
+      <c r="I17" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="147" t="str">
+      <c r="J17" s="145" t="str">
         <f>VLOOKUP(A17,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K17" s="149"/>
-      <c r="L17" s="150">
+      <c r="K17" s="147"/>
+      <c r="L17" s="148">
         <f>VLOOKUP(A17,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M17" s="150">
+      <c r="M17" s="148">
         <f>VLOOKUP(A17,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11232,7 +11231,7 @@
       <c r="O17" s="104"/>
     </row>
     <row r="18" spans="1:15" ht="42" customHeight="1">
-      <c r="A18" s="168">
+      <c r="A18" s="166">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -11243,7 +11242,7 @@
         <f>VLOOKUP(B18,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D18" s="146" t="str">
+      <c r="D18" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A18,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A18,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MTOPBODY_Manual de Usuario / REQM</v>
       </c>
@@ -11258,22 +11257,22 @@
       <c r="G18" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="147" t="s">
+      <c r="H18" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="147" t="s">
+      <c r="I18" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="147" t="str">
+      <c r="J18" s="145" t="str">
         <f>VLOOKUP(A18,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K18" s="149"/>
-      <c r="L18" s="150">
+      <c r="K18" s="147"/>
+      <c r="L18" s="148">
         <f>VLOOKUP(A18,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M18" s="150">
+      <c r="M18" s="148">
         <f>VLOOKUP(A18,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11281,7 +11280,7 @@
       <c r="O18" s="104"/>
     </row>
     <row r="19" spans="1:15" ht="42" customHeight="1">
-      <c r="A19" s="168">
+      <c r="A19" s="166">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -11292,7 +11291,7 @@
         <f>VLOOKUP(B19,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D19" s="146" t="str">
+      <c r="D19" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A19,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A19,Planificación!B$13:G$48,3,FALSE))</f>
         <v>INPRUIN_Informe de Pruebas Internas / REQM</v>
       </c>
@@ -11307,22 +11306,22 @@
       <c r="G19" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="147" t="s">
+      <c r="H19" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="147" t="s">
+      <c r="I19" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="147" t="str">
+      <c r="J19" s="145" t="str">
         <f>VLOOKUP(A19,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K19" s="149"/>
-      <c r="L19" s="150">
+      <c r="K19" s="147"/>
+      <c r="L19" s="148">
         <f>VLOOKUP(A19,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M19" s="150">
+      <c r="M19" s="148">
         <f>VLOOKUP(A19,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11330,7 +11329,7 @@
       <c r="O19" s="104"/>
     </row>
     <row r="20" spans="1:15" ht="42" customHeight="1">
-      <c r="A20" s="168">
+      <c r="A20" s="166">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -11341,7 +11340,7 @@
         <f>VLOOKUP(B20,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D20" s="146" t="str">
+      <c r="D20" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A20,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A20,Planificación!B$13:G$48,3,FALSE))</f>
         <v>INPRUEX_Informe de Pruebas Externas / REQM</v>
       </c>
@@ -11356,22 +11355,22 @@
       <c r="G20" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="147" t="s">
+      <c r="H20" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="147" t="s">
+      <c r="I20" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="147" t="str">
+      <c r="J20" s="145" t="str">
         <f>VLOOKUP(A20,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K20" s="149"/>
-      <c r="L20" s="150">
+      <c r="K20" s="147"/>
+      <c r="L20" s="148">
         <f>VLOOKUP(A20,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M20" s="150">
+      <c r="M20" s="148">
         <f>VLOOKUP(A20,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11379,7 +11378,7 @@
       <c r="O20" s="104"/>
     </row>
     <row r="21" spans="1:15" ht="42" customHeight="1">
-      <c r="A21" s="168">
+      <c r="A21" s="166">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -11390,7 +11389,7 @@
         <f>VLOOKUP(B21,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D21" s="146" t="str">
+      <c r="D21" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A21,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A21,Planificación!B$13:G$48,3,FALSE))</f>
         <v>CHKQA_CheckList de Aseguramiento de Calidad / PPQA</v>
       </c>
@@ -11405,22 +11404,22 @@
       <c r="G21" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="147" t="s">
+      <c r="H21" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="147" t="s">
+      <c r="I21" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="147" t="str">
+      <c r="J21" s="145" t="str">
         <f>VLOOKUP(A21,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K21" s="149"/>
-      <c r="L21" s="150">
+      <c r="K21" s="147"/>
+      <c r="L21" s="148">
         <f>VLOOKUP(A21,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M21" s="150">
+      <c r="M21" s="148">
         <f>VLOOKUP(A21,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11428,7 +11427,7 @@
       <c r="O21" s="104"/>
     </row>
     <row r="22" spans="1:15" ht="42" customHeight="1">
-      <c r="A22" s="168">
+      <c r="A22" s="166">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -11439,7 +11438,7 @@
         <f>VLOOKUP(B22,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D22" s="146" t="str">
+      <c r="D22" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A22,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A22,Planificación!B$13:G$48,3,FALSE))</f>
         <v>HGQA_Herramienta Gestion de Aseguramiento de Calidad / PPQA</v>
       </c>
@@ -11454,22 +11453,22 @@
       <c r="G22" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="147" t="s">
+      <c r="H22" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="147" t="s">
+      <c r="I22" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="147" t="str">
+      <c r="J22" s="145" t="str">
         <f>VLOOKUP(A22,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K22" s="149"/>
-      <c r="L22" s="150">
+      <c r="K22" s="147"/>
+      <c r="L22" s="148">
         <f>VLOOKUP(A22,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M22" s="150">
+      <c r="M22" s="148">
         <f>VLOOKUP(A22,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11477,7 +11476,7 @@
       <c r="O22" s="104"/>
     </row>
     <row r="23" spans="1:15" ht="42" customHeight="1">
-      <c r="A23" s="168">
+      <c r="A23" s="166">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -11488,7 +11487,7 @@
         <f>VLOOKUP(B23,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D23" s="146" t="str">
+      <c r="D23" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A23,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A23,Planificación!B$13:G$48,3,FALSE))</f>
         <v>PQA_Proceso de Aseguramiento de Calidad / PPQA</v>
       </c>
@@ -11503,22 +11502,22 @@
       <c r="G23" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="147" t="s">
+      <c r="H23" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I23" s="147" t="s">
+      <c r="I23" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="147" t="str">
+      <c r="J23" s="145" t="str">
         <f>VLOOKUP(A23,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K23" s="149"/>
-      <c r="L23" s="150">
+      <c r="K23" s="147"/>
+      <c r="L23" s="148">
         <f>VLOOKUP(A23,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M23" s="150">
+      <c r="M23" s="148">
         <f>VLOOKUP(A23,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11526,7 +11525,7 @@
       <c r="O23" s="104"/>
     </row>
     <row r="24" spans="1:15" ht="42" customHeight="1">
-      <c r="A24" s="168">
+      <c r="A24" s="166">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -11537,7 +11536,7 @@
         <f>VLOOKUP(B24,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D24" s="146" t="str">
+      <c r="D24" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A24,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A24,Planificación!B$13:G$48,3,FALSE))</f>
         <v>SASQA_Solicitud de Aseguramiento de Calidad / PPQA</v>
       </c>
@@ -11552,22 +11551,22 @@
       <c r="G24" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H24" s="147" t="s">
+      <c r="H24" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="147" t="s">
+      <c r="I24" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J24" s="147" t="str">
+      <c r="J24" s="145" t="str">
         <f>VLOOKUP(A24,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K24" s="149"/>
-      <c r="L24" s="150">
+      <c r="K24" s="147"/>
+      <c r="L24" s="148">
         <f>VLOOKUP(A24,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M24" s="150">
+      <c r="M24" s="148">
         <f>VLOOKUP(A24,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11575,7 +11574,7 @@
       <c r="O24" s="104"/>
     </row>
     <row r="25" spans="1:15" ht="42" customHeight="1">
-      <c r="A25" s="168">
+      <c r="A25" s="166">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -11586,7 +11585,7 @@
         <f>VLOOKUP(B25,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D25" s="146" t="str">
+      <c r="D25" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A25,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A25,Planificación!B$13:G$48,3,FALSE))</f>
         <v>INREQA_Informe de Aseguramiento de Calidad / PPQA</v>
       </c>
@@ -11601,22 +11600,22 @@
       <c r="G25" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="147" t="s">
+      <c r="H25" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="147" t="s">
+      <c r="I25" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="147" t="str">
+      <c r="J25" s="145" t="str">
         <f>VLOOKUP(A25,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K25" s="149"/>
-      <c r="L25" s="150">
+      <c r="K25" s="147"/>
+      <c r="L25" s="148">
         <f>VLOOKUP(A25,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M25" s="150">
+      <c r="M25" s="148">
         <f>VLOOKUP(A25,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11624,7 +11623,7 @@
       <c r="O25" s="104"/>
     </row>
     <row r="26" spans="1:15" ht="42" customHeight="1">
-      <c r="A26" s="168">
+      <c r="A26" s="166">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -11635,7 +11634,7 @@
         <f>VLOOKUP(B26,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D26" s="146" t="str">
+      <c r="D26" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A26,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A26,Planificación!B$13:G$48,3,FALSE))</f>
         <v>PGC_Proceso de Gestion de Configuracion / CM</v>
       </c>
@@ -11650,22 +11649,22 @@
       <c r="G26" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H26" s="147" t="s">
+      <c r="H26" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="147" t="s">
+      <c r="I26" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="147" t="str">
+      <c r="J26" s="145" t="str">
         <f>VLOOKUP(A26,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K26" s="149"/>
-      <c r="L26" s="150">
+      <c r="K26" s="147"/>
+      <c r="L26" s="148">
         <f>VLOOKUP(A26,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M26" s="150">
+      <c r="M26" s="148">
         <f>VLOOKUP(A26,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11673,7 +11672,7 @@
       <c r="O26" s="104"/>
     </row>
     <row r="27" spans="1:15" ht="42" customHeight="1">
-      <c r="A27" s="168">
+      <c r="A27" s="166">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -11684,7 +11683,7 @@
         <f>VLOOKUP(B27,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D27" s="146" t="str">
+      <c r="D27" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A27,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A27,Planificación!B$13:G$48,3,FALSE))</f>
         <v>SOLAC_Solicitud de Accesos / CM</v>
       </c>
@@ -11697,24 +11696,24 @@
         <v>Quimper</v>
       </c>
       <c r="G27" s="96" t="s">
-        <v>208</v>
-      </c>
-      <c r="H27" s="147" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="147" t="s">
+      <c r="I27" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="147" t="str">
+      <c r="J27" s="145" t="str">
         <f>VLOOKUP(A27,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K27" s="149"/>
-      <c r="L27" s="150">
+      <c r="K27" s="147"/>
+      <c r="L27" s="148">
         <f>VLOOKUP(A27,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M27" s="150">
+      <c r="M27" s="148">
         <f>VLOOKUP(A27,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11722,7 +11721,7 @@
       <c r="O27" s="104"/>
     </row>
     <row r="28" spans="1:15" ht="42" customHeight="1">
-      <c r="A28" s="168">
+      <c r="A28" s="166">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -11733,7 +11732,7 @@
         <f>VLOOKUP(B28,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D28" s="146" t="str">
+      <c r="D28" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A28,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A28,Planificación!B$13:G$48,3,FALSE))</f>
         <v>REGITCONFIG_Registro de Items de Configuracion / CM</v>
       </c>
@@ -11748,22 +11747,22 @@
       <c r="G28" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="147" t="s">
+      <c r="I28" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="147" t="str">
+      <c r="J28" s="145" t="str">
         <f>VLOOKUP(A28,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K28" s="149"/>
-      <c r="L28" s="150">
+      <c r="K28" s="147"/>
+      <c r="L28" s="148">
         <f>VLOOKUP(A28,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M28" s="150">
+      <c r="M28" s="148">
         <f>VLOOKUP(A28,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11771,7 +11770,7 @@
       <c r="O28" s="104"/>
     </row>
     <row r="29" spans="1:15" ht="42" customHeight="1">
-      <c r="A29" s="168">
+      <c r="A29" s="166">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -11782,7 +11781,7 @@
         <f>VLOOKUP(B29,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D29" s="146" t="str">
+      <c r="D29" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A29,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A29,Planificación!B$13:G$48,3,FALSE))</f>
         <v>ICIC_Indice Cambios Items de Configuracion / CM</v>
       </c>
@@ -11797,22 +11796,22 @@
       <c r="G29" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="147" t="s">
+      <c r="H29" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="I29" s="147" t="s">
+      <c r="I29" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="147" t="str">
+      <c r="J29" s="145" t="str">
         <f>VLOOKUP(A29,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K29" s="149"/>
-      <c r="L29" s="150">
+      <c r="K29" s="147"/>
+      <c r="L29" s="148">
         <f>VLOOKUP(A29,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M29" s="150">
+      <c r="M29" s="148">
         <f>VLOOKUP(A29,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11820,7 +11819,7 @@
       <c r="O29" s="104"/>
     </row>
     <row r="30" spans="1:15" ht="42" customHeight="1">
-      <c r="A30" s="168">
+      <c r="A30" s="166">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -11831,7 +11830,7 @@
         <f>VLOOKUP(B30,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D30" s="146" t="str">
+      <c r="D30" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A30,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A30,Planificación!B$13:G$48,3,FALSE))</f>
         <v>IAUDICM_Informe de Auditoria de CM / CM</v>
       </c>
@@ -11846,22 +11845,22 @@
       <c r="G30" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="147" t="s">
+      <c r="H30" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="147" t="s">
+      <c r="I30" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="147" t="str">
+      <c r="J30" s="145" t="str">
         <f>VLOOKUP(A30,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K30" s="149"/>
-      <c r="L30" s="150">
+      <c r="K30" s="147"/>
+      <c r="L30" s="148">
         <f>VLOOKUP(A30,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M30" s="150">
+      <c r="M30" s="148">
         <f>VLOOKUP(A30,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11869,7 +11868,7 @@
       <c r="O30" s="104"/>
     </row>
     <row r="31" spans="1:15" ht="42" customHeight="1">
-      <c r="A31" s="168">
+      <c r="A31" s="166">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -11880,7 +11879,7 @@
         <f>VLOOKUP(B31,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D31" s="146" t="str">
+      <c r="D31" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A31,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A31,Planificación!B$13:G$48,3,FALSE))</f>
         <v>PROMM_Proceso de Medicion de Metrica / MA</v>
       </c>
@@ -11895,30 +11894,30 @@
       <c r="G31" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="147" t="s">
+      <c r="H31" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="147" t="s">
+      <c r="I31" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="147" t="str">
+      <c r="J31" s="145" t="str">
         <f>VLOOKUP(A31,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K31" s="149"/>
-      <c r="L31" s="150">
+      <c r="K31" s="147"/>
+      <c r="L31" s="148">
         <f>VLOOKUP(A31,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M31" s="150">
+      <c r="M31" s="148">
         <f>VLOOKUP(A31,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
       <c r="N31" s="97"/>
-      <c r="O31" s="135"/>
+      <c r="O31" s="134"/>
     </row>
     <row r="32" spans="1:15" ht="42" customHeight="1">
-      <c r="A32" s="168">
+      <c r="A32" s="166">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -11929,7 +11928,7 @@
         <f>VLOOKUP(B32,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D32" s="146" t="str">
+      <c r="D32" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A32,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A32,Planificación!B$13:G$48,3,FALSE))</f>
         <v>TABM_Tablero de Metricas / MA</v>
       </c>
@@ -11944,30 +11943,30 @@
       <c r="G32" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="147" t="s">
+      <c r="H32" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="147" t="s">
+      <c r="I32" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J32" s="147" t="str">
+      <c r="J32" s="145" t="str">
         <f>VLOOKUP(A32,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K32" s="149"/>
-      <c r="L32" s="150">
+      <c r="K32" s="147"/>
+      <c r="L32" s="148">
         <f>VLOOKUP(A32,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M32" s="150">
+      <c r="M32" s="148">
         <f>VLOOKUP(A32,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
       <c r="N32" s="97"/>
-      <c r="O32" s="135"/>
+      <c r="O32" s="134"/>
     </row>
     <row r="33" spans="1:15" ht="42" customHeight="1">
-      <c r="A33" s="168">
+      <c r="A33" s="166">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -11978,7 +11977,7 @@
         <f>VLOOKUP(B33,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D33" s="146" t="str">
+      <c r="D33" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A33,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A33,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MNCONQAP_Metricas de N Conformidades QA de Producto / MA</v>
       </c>
@@ -11993,22 +11992,22 @@
       <c r="G33" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="147" t="s">
+      <c r="H33" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I33" s="147" t="s">
+      <c r="I33" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="147" t="str">
+      <c r="J33" s="145" t="str">
         <f>VLOOKUP(A33,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K33" s="149"/>
-      <c r="L33" s="150">
+      <c r="K33" s="147"/>
+      <c r="L33" s="148">
         <f>VLOOKUP(A33,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M33" s="150">
+      <c r="M33" s="148">
         <f>VLOOKUP(A33,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12016,7 +12015,7 @@
       <c r="O33" s="104"/>
     </row>
     <row r="34" spans="1:15" ht="42" customHeight="1">
-      <c r="A34" s="168">
+      <c r="A34" s="166">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -12027,7 +12026,7 @@
         <f>VLOOKUP(B34,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D34" s="146" t="str">
+      <c r="D34" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A34,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A34,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MVREQM_Metricas de Volatilidad de Requerimientos / MA</v>
       </c>
@@ -12042,22 +12041,22 @@
       <c r="G34" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="147" t="s">
+      <c r="H34" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="I34" s="147" t="s">
+      <c r="I34" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="147" t="str">
+      <c r="J34" s="145" t="str">
         <f>VLOOKUP(A34,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150">
+      <c r="K34" s="147"/>
+      <c r="L34" s="148">
         <f>VLOOKUP(A34,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M34" s="150">
+      <c r="M34" s="148">
         <f>VLOOKUP(A34,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12065,7 +12064,7 @@
       <c r="O34" s="104"/>
     </row>
     <row r="35" spans="1:15" ht="42" customHeight="1">
-      <c r="A35" s="168">
+      <c r="A35" s="166">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -12076,7 +12075,7 @@
         <f>VLOOKUP(B35,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D35" s="146" t="str">
+      <c r="D35" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A35,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A35,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MICIC_Metrica de Indice de Cambios en Items de Configuracion / MA</v>
       </c>
@@ -12091,22 +12090,22 @@
       <c r="G35" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="147" t="s">
+      <c r="H35" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="147" t="s">
+      <c r="I35" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="147" t="str">
+      <c r="J35" s="145" t="str">
         <f>VLOOKUP(A35,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K35" s="149"/>
-      <c r="L35" s="150">
+      <c r="K35" s="147"/>
+      <c r="L35" s="148">
         <f>VLOOKUP(A35,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M35" s="150">
+      <c r="M35" s="148">
         <f>VLOOKUP(A35,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12114,7 +12113,7 @@
       <c r="O35" s="104"/>
     </row>
     <row r="36" spans="1:15" ht="42" customHeight="1">
-      <c r="A36" s="168">
+      <c r="A36" s="166">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -12125,7 +12124,7 @@
         <f>VLOOKUP(B36,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D36" s="146" t="str">
+      <c r="D36" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A36,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A36,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MEXRI_Metrica de Exposicion al Riesgo / MA</v>
       </c>
@@ -12140,22 +12139,22 @@
       <c r="G36" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H36" s="147" t="s">
+      <c r="H36" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="147" t="s">
+      <c r="I36" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J36" s="147" t="str">
+      <c r="J36" s="145" t="str">
         <f>VLOOKUP(A36,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K36" s="149"/>
-      <c r="L36" s="150">
+      <c r="K36" s="147"/>
+      <c r="L36" s="148">
         <f>VLOOKUP(A36,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M36" s="150">
+      <c r="M36" s="148">
         <f>VLOOKUP(A36,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12163,7 +12162,7 @@
       <c r="O36" s="104"/>
     </row>
     <row r="37" spans="1:15" ht="42" customHeight="1">
-      <c r="A37" s="168">
+      <c r="A37" s="166">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -12174,9 +12173,9 @@
         <f>VLOOKUP(B37,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D37" s="146" t="str">
+      <c r="D37" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A37,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A37,Planificación!B$13:G$48,3,FALSE))</f>
-        <v>AREINT_Acta de reunion Interna / PROY</v>
+        <v xml:space="preserve">AREINT_Acta de reunion Interna / </v>
       </c>
       <c r="E37" s="95" t="str">
         <f>VLOOKUP(A37,Planificación!B$13:G$48,5,FALSE)</f>
@@ -12189,22 +12188,22 @@
       <c r="G37" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="147" t="s">
+      <c r="H37" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="147" t="s">
+      <c r="I37" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J37" s="147" t="str">
+      <c r="J37" s="145" t="str">
         <f>VLOOKUP(A37,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K37" s="149"/>
-      <c r="L37" s="150">
+      <c r="K37" s="147"/>
+      <c r="L37" s="148">
         <f>VLOOKUP(A37,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M37" s="150">
+      <c r="M37" s="148">
         <f>VLOOKUP(A37,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12212,7 +12211,7 @@
       <c r="O37" s="104"/>
     </row>
     <row r="38" spans="1:15" ht="42" customHeight="1">
-      <c r="A38" s="168">
+      <c r="A38" s="166">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -12223,9 +12222,9 @@
         <f>VLOOKUP(B38,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D38" s="146" t="str">
+      <c r="D38" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A38,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A38,Planificación!B$13:G$48,3,FALSE))</f>
-        <v>IAQUIN_Informe Avance Quincenal / PROY</v>
+        <v xml:space="preserve">IAQUIN_Informe Avance Quincenal / </v>
       </c>
       <c r="E38" s="95" t="str">
         <f>VLOOKUP(A38,Planificación!B$13:G$48,5,FALSE)</f>
@@ -12236,24 +12235,24 @@
         <v>Quimper</v>
       </c>
       <c r="G38" s="96" t="s">
-        <v>207</v>
-      </c>
-      <c r="H38" s="147" t="s">
+        <v>206</v>
+      </c>
+      <c r="H38" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I38" s="147" t="s">
+      <c r="I38" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J38" s="147" t="str">
+      <c r="J38" s="145" t="str">
         <f>VLOOKUP(A38,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K38" s="149"/>
-      <c r="L38" s="150">
+      <c r="K38" s="147"/>
+      <c r="L38" s="148">
         <f>VLOOKUP(A38,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M38" s="150">
+      <c r="M38" s="148">
         <f>VLOOKUP(A38,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12261,7 +12260,7 @@
       <c r="O38" s="104"/>
     </row>
     <row r="39" spans="1:15" ht="42" customHeight="1">
-      <c r="A39" s="168">
+      <c r="A39" s="166">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -12272,9 +12271,9 @@
         <f>VLOOKUP(B39,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D39" s="146" t="str">
+      <c r="D39" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A39,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A39,Planificación!B$13:G$48,3,FALSE))</f>
-        <v>ARQUIN_Actas de Reunion Quincenal / PROY</v>
+        <v xml:space="preserve">ARQUIN_Actas de Reunion Quincenal / </v>
       </c>
       <c r="E39" s="95" t="str">
         <f>VLOOKUP(A39,Planificación!B$13:G$48,5,FALSE)</f>
@@ -12285,24 +12284,24 @@
         <v>Quimper</v>
       </c>
       <c r="G39" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="H39" s="147" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="147" t="s">
+      <c r="I39" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J39" s="147" t="str">
+      <c r="J39" s="145" t="str">
         <f>VLOOKUP(A39,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K39" s="149"/>
-      <c r="L39" s="150">
+      <c r="K39" s="147"/>
+      <c r="L39" s="148">
         <f>VLOOKUP(A39,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M39" s="150">
+      <c r="M39" s="148">
         <f>VLOOKUP(A39,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12310,7 +12309,7 @@
       <c r="O39" s="104"/>
     </row>
     <row r="40" spans="1:15" ht="42" customHeight="1">
-      <c r="A40" s="168">
+      <c r="A40" s="166">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -12321,9 +12320,9 @@
         <f>VLOOKUP(B40,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D40" s="146" t="str">
+      <c r="D40" s="144" t="str">
         <f>CONCATENATE(VLOOKUP(A40,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A40,Planificación!B$13:G$48,3,FALSE))</f>
-        <v>AACENTRE_Acta de Aceptacion  de Entregables / PROY</v>
+        <v xml:space="preserve">AACENTRE_Acta de Aceptacion  de Entregables / </v>
       </c>
       <c r="E40" s="95" t="str">
         <f>VLOOKUP(A40,Planificación!B$13:G$48,5,FALSE)</f>
@@ -12334,24 +12333,24 @@
         <v>Quimper</v>
       </c>
       <c r="G40" s="96" t="s">
-        <v>205</v>
-      </c>
-      <c r="H40" s="147" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I40" s="147" t="s">
+      <c r="I40" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="147" t="str">
+      <c r="J40" s="145" t="str">
         <f>VLOOKUP(A40,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K40" s="149"/>
-      <c r="L40" s="150">
+      <c r="K40" s="147"/>
+      <c r="L40" s="148">
         <f>VLOOKUP(A40,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M40" s="150">
+      <c r="M40" s="148">
         <f>VLOOKUP(A40,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12387,8 +12386,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12404,28 +12403,28 @@
   <sheetData>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="236" t="s">
+      <c r="C2" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="230" t="s">
+      <c r="C4" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="230"/>
+      <c r="D4" s="244"/>
       <c r="E4" s="231" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
         <v>Curi Basilio, Lenin Alfonso</v>
@@ -12437,11 +12436,11 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="234" t="str">
+      <c r="C5" s="245" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="235"/>
+      <c r="D5" s="246"/>
       <c r="E5" s="231" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Quimper Salazar, Anatoli</v>
@@ -12453,10 +12452,10 @@
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="239"/>
+      <c r="D6" s="230"/>
       <c r="E6" s="231" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Calvo Guillen, Johann   Curi Basilio, Lenin Alfonso</v>
@@ -12468,47 +12467,47 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="245">
+      <c r="D7" s="238"/>
+      <c r="E7" s="239">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>42276</v>
       </c>
-      <c r="F7" s="246"/>
-      <c r="G7" s="247" t="s">
+      <c r="F7" s="240"/>
+      <c r="G7" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="248"/>
-      <c r="I7" s="178">
+      <c r="H7" s="242"/>
+      <c r="I7" s="176">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>42327</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="244" t="s">
+      <c r="C8" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="249"/>
-      <c r="E8" s="240" t="str">
+      <c r="D8" s="243"/>
+      <c r="E8" s="234" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>OCTUBRE</v>
       </c>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="242"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="236"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="M11" s="177"/>
+      <c r="M11" s="175"/>
     </row>
     <row r="13" spans="1:13" ht="15">
-      <c r="C13" s="243" t="s">
+      <c r="C13" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="243"/>
+      <c r="D13" s="237"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12517,31 +12516,31 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="144">
+      <c r="D14" s="142">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="C15" s="175" t="s">
+      <c r="C15" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="142">
+      <c r="D15" s="140">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="C16" s="175" t="s">
+      <c r="C16" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="141">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="173" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="98">
@@ -12550,7 +12549,7 @@
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="175" t="s">
+      <c r="C18" s="173" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="98">
@@ -12577,7 +12576,7 @@
       <c r="C22" s="106"/>
       <c r="D22" s="23"/>
       <c r="E22" s="9"/>
-      <c r="N22" s="138"/>
+      <c r="N22" s="137"/>
     </row>
     <row r="23" spans="3:14">
       <c r="C23" s="106"/>
@@ -12590,10 +12589,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="237" t="s">
+      <c r="C26" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="237"/>
+      <c r="D26" s="228"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -12604,53 +12603,53 @@
       </c>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="174" t="s">
+      <c r="C28" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="145">
+      <c r="D28" s="143">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="145">
+      <c r="D29" s="143">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="145">
+      <c r="D30" s="143">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="174" t="s">
+      <c r="C31" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="145">
+      <c r="D31" s="143">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="145">
+      <c r="D32" s="143">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:16">
-      <c r="C33" s="174" t="s">
+      <c r="C33" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="145">
+      <c r="D33" s="143">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C33)</f>
         <v>1</v>
       </c>
@@ -12665,14 +12664,14 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="237" t="s">
+      <c r="C40" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="237"/>
-      <c r="P40" s="138"/>
+      <c r="D40" s="228"/>
+      <c r="P40" s="137"/>
     </row>
     <row r="41" spans="3:16">
-      <c r="C41" s="179" t="s">
+      <c r="C41" s="177" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="108">
@@ -12681,7 +12680,7 @@
       </c>
     </row>
     <row r="42" spans="3:16">
-      <c r="C42" s="179" t="s">
+      <c r="C42" s="177" t="s">
         <v>108</v>
       </c>
       <c r="D42" s="108">
@@ -12690,7 +12689,7 @@
       </c>
     </row>
     <row r="43" spans="3:16">
-      <c r="C43" s="179" t="s">
+      <c r="C43" s="177" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="108">
@@ -12699,10 +12698,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="237" t="s">
+      <c r="C57" s="228" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="237"/>
+      <c r="D57" s="228"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -12713,16 +12712,16 @@
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="176" t="s">
+      <c r="C59" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="139">
+      <c r="D59" s="138">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I40,C59)</f>
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="176" t="s">
+      <c r="C60" s="174" t="s">
         <v>95</v>
       </c>
       <c r="D60" s="108">
@@ -12731,7 +12730,7 @@
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="176" t="s">
+      <c r="C61" s="174" t="s">
         <v>96</v>
       </c>
       <c r="D61" s="108">
@@ -12750,6 +12749,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -12761,11 +12765,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12785,8 +12784,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12800,34 +12799,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="251" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="D2" s="159" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="159" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="161" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="161" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="159" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="248" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="117" t="s">
-        <v>165</v>
+      <c r="C3" s="249" t="s">
+        <v>164</v>
       </c>
       <c r="D3" s="100" t="s">
         <v>94</v>
@@ -12836,16 +12835,16 @@
         <v>125</v>
       </c>
       <c r="F3" s="116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="131"/>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="117" t="s">
-        <v>166</v>
+      <c r="C4" s="249" t="s">
+        <v>165</v>
       </c>
       <c r="D4" s="100" t="s">
         <v>95</v>
@@ -12854,30 +12853,30 @@
         <v>117</v>
       </c>
       <c r="F4" s="116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="131"/>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="117" t="s">
-        <v>167</v>
+      <c r="C5" s="249" t="s">
+        <v>166</v>
       </c>
       <c r="E5" s="100" t="s">
         <v>119</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="131"/>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="249" t="s">
         <v>139</v>
       </c>
       <c r="E6" s="100" t="s">
@@ -12887,10 +12886,8 @@
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="131"/>
-      <c r="B7" s="141" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="181" t="s">
+      <c r="B7" s="252"/>
+      <c r="C7" s="250" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="100" t="s">
@@ -12923,14 +12920,14 @@
       <c r="A11" s="131"/>
       <c r="B11" s="131"/>
       <c r="C11" s="127" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="131"/>
       <c r="B12" s="131"/>
       <c r="C12" s="127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1">
@@ -12951,63 +12948,63 @@
       <c r="A15" s="131"/>
       <c r="B15" s="131"/>
       <c r="C15" s="127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" s="131"/>
       <c r="B16" s="131"/>
       <c r="C16" s="127" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1">
       <c r="A17" s="131"/>
       <c r="B17" s="131"/>
       <c r="C17" s="128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1">
       <c r="A18" s="131"/>
       <c r="B18" s="131"/>
       <c r="C18" s="127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1">
       <c r="A19" s="131"/>
       <c r="B19" s="131"/>
       <c r="C19" s="127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1">
       <c r="A20" s="131"/>
       <c r="B20" s="131"/>
       <c r="C20" s="127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1">
       <c r="A21" s="131"/>
       <c r="B21" s="131"/>
       <c r="C21" s="127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1">
       <c r="A22" s="131"/>
       <c r="B22" s="131"/>
       <c r="C22" s="127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1">
       <c r="A23" s="131"/>
       <c r="B23" s="131"/>
       <c r="C23" s="127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1">
@@ -13021,21 +13018,21 @@
       <c r="A25" s="131"/>
       <c r="B25" s="131"/>
       <c r="C25" s="127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1">
       <c r="A26" s="131"/>
       <c r="B26" s="131"/>
       <c r="C26" s="127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1">
       <c r="A27" s="131"/>
       <c r="B27" s="131"/>
       <c r="C27" s="127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1">
@@ -13049,70 +13046,70 @@
       <c r="A29" s="131"/>
       <c r="B29" s="131"/>
       <c r="C29" s="127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1">
       <c r="A30" s="131"/>
       <c r="B30" s="131"/>
       <c r="C30" s="129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1">
       <c r="A31" s="131"/>
       <c r="B31" s="131"/>
       <c r="C31" s="127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1">
       <c r="A32" s="131"/>
       <c r="B32" s="131"/>
       <c r="C32" s="127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1">
       <c r="A33" s="131"/>
       <c r="B33" s="131"/>
       <c r="C33" s="127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1">
       <c r="A34" s="131"/>
       <c r="B34" s="131"/>
       <c r="C34" s="130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1">
       <c r="A35" s="131"/>
       <c r="B35" s="131"/>
       <c r="C35" s="127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1">
       <c r="A36" s="131"/>
       <c r="B36" s="131"/>
       <c r="C36" s="127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1">
       <c r="A37" s="131"/>
       <c r="B37" s="131"/>
       <c r="C37" s="127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1">
       <c r="A38" s="131"/>
       <c r="B38" s="131"/>
       <c r="C38" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:3">

--- a/Area de proceso PPQA/HGQAPROD_V0.1_2015.xlsx
+++ b/Area de proceso PPQA/HGQAPROD_V0.1_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="642" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="642" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -581,15 +581,6 @@
     <t>PGC_Proceso de Gestion de Configuracion</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Julio Leonardo Paredes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTP-GPS-ALARM </t>
-  </si>
-  <si>
     <t>Analista de Calidad</t>
   </si>
   <si>
@@ -662,9 +653,6 @@
     <t>Nombre del Analista de Calidad</t>
   </si>
   <si>
-    <t>MST E.I.R.L</t>
-  </si>
-  <si>
     <t>Quimper</t>
   </si>
   <si>
@@ -788,9 +776,6 @@
     <t>Horas Invertidas en la Revisión</t>
   </si>
   <si>
-    <t xml:space="preserve"> HGPRD_0.1_2015 REVISIÓN DE ASEGURAMIENTO DE LA CALIDAD - PRODUCTO</t>
-  </si>
-  <si>
     <t>Actualizar Requerimientos</t>
   </si>
   <si>
@@ -804,6 +789,21 @@
   </si>
   <si>
     <t>Corregir Ortografía</t>
+  </si>
+  <si>
+    <t>Quimper Salazar Anatoli</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Sistema de Matrícula para Socios del Gimnasio TOP BODY</t>
+  </si>
+  <si>
+    <t>Gerente TOPBODY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HGQAPROD_0.1_2015 REVISIÓN DE ASEGURAMIENTO DE LA CALIDAD - PRODUCTO</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,12 +1356,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="19"/>
       </patternFill>
@@ -1380,8 +1374,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1875,7 +1869,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1964,14 +1958,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1981,9 +1967,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="36" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="36" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="36" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2044,15 +2027,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="43" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2069,10 +2043,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2128,10 +2098,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2148,10 +2114,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="36" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="27" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2172,10 +2135,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="54" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="25" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2264,13 +2223,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2279,7 +2238,7 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2343,14 +2302,14 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2367,32 +2326,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2413,142 +2372,147 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="31" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="31" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="49" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="45" fillId="31" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="28" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2564,6 +2528,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2576,14 +2544,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2596,17 +2556,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="55" fillId="30" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2619,6 +2568,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="29" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2631,12 +2587,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2647,47 +2599,105 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="8" fillId="28" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="45" fillId="28" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="45" fillId="29" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4469,12 +4479,12 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:shape val="box"/>
-        <c:axId val="192032784"/>
-        <c:axId val="192033344"/>
+        <c:axId val="272006992"/>
+        <c:axId val="272007552"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="192032784"/>
+        <c:axId val="272006992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,7 +4583,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192033344"/>
+        <c:crossAx val="272007552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4583,7 +4593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192033344"/>
+        <c:axId val="272007552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4697,7 +4707,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192032784"/>
+        <c:crossAx val="272006992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7122,16 +7132,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7154,16 +7164,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7186,16 +7196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7218,16 +7228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7611,159 +7621,159 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="61" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="9" style="61" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="61" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="61" customWidth="1"/>
-    <col min="8" max="8" width="15" style="61" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="9" style="58" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="9" style="58" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="58" customWidth="1"/>
+    <col min="8" max="8" width="15" style="58" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="60"/>
-      <c r="B2" s="181" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="253" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="254" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="254" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="254" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="254" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="255" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" ht="24">
-      <c r="A5" s="60"/>
-      <c r="B5" s="65">
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" ht="36">
+      <c r="A5" s="57"/>
+      <c r="B5" s="234">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="67">
+      <c r="C5" s="233" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="232">
         <v>42297</v>
       </c>
-      <c r="E5" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="69" t="s">
+      <c r="E5" s="231" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="231" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" s="60"/>
+      <c r="H5" s="235" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="60"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="60"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="60"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="60"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="60"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="60"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="60"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="60"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="57"/>
     </row>
     <row r="10" spans="1:9" ht="13.5" thickBot="1">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7782,914 +7792,927 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3" style="33" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="33" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="3" style="31" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="56" customFormat="1" ht="12" customHeight="1"/>
-    <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="194" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="196"/>
-    </row>
-    <row r="3" spans="1:8" s="56" customFormat="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="202" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="203"/>
-      <c r="E3" s="204"/>
-    </row>
-    <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="58" t="s">
+    <row r="1" spans="1:8" s="53" customFormat="1" ht="12" customHeight="1"/>
+    <row r="2" spans="1:8" s="53" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A2" s="32"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="193" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="194"/>
+      <c r="E2" s="195"/>
+    </row>
+    <row r="3" spans="1:8" s="53" customFormat="1">
+      <c r="A3" s="32"/>
+      <c r="B3" s="165" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="201" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="202"/>
+      <c r="E3" s="203"/>
+    </row>
+    <row r="4" spans="1:8" s="53" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="197" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="196" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="199"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="198"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="34"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="34"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="200" t="s">
+      <c r="C8" s="77"/>
+      <c r="D8" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="201"/>
+      <c r="E8" s="200"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="34"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="208" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="208"/>
+      <c r="E10" s="204"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:8" ht="12" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="91" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="252" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="208" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="208"/>
+      <c r="E12" s="204"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="92" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="208" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="208"/>
+      <c r="E14" s="204"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="32"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="93" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="208" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="208"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="H17" s="39"/>
+      <c r="E16" s="204"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" s="44" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="188" t="s">
+      <c r="A18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" s="49" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B19" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="190"/>
-    </row>
-    <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B20" s="40" t="s">
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="189"/>
+    </row>
+    <row r="20" spans="1:8" s="49" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B20" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="192"/>
-      <c r="E20" s="193"/>
-    </row>
-    <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B21" s="53" t="s">
+      <c r="D20" s="191"/>
+      <c r="E20" s="192"/>
+    </row>
+    <row r="21" spans="1:8" s="49" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B21" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="205" t="s">
+      <c r="C21" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="206"/>
-      <c r="E21" s="207"/>
-    </row>
-    <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B22" s="53" t="s">
+      <c r="D21" s="179"/>
+      <c r="E21" s="180"/>
+    </row>
+    <row r="22" spans="1:8" s="49" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B22" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="205" t="s">
+      <c r="C22" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="206"/>
-      <c r="E22" s="207"/>
-    </row>
-    <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B23" s="53" t="s">
+      <c r="D22" s="179"/>
+      <c r="E22" s="180"/>
+    </row>
+    <row r="23" spans="1:8" s="49" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="205" t="s">
+      <c r="C23" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="206"/>
-      <c r="E23" s="207"/>
-    </row>
-    <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B24" s="53" t="s">
+      <c r="D23" s="179"/>
+      <c r="E23" s="180"/>
+    </row>
+    <row r="24" spans="1:8" s="49" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B24" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="205" t="s">
+      <c r="C24" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="206"/>
-      <c r="E24" s="207"/>
-    </row>
-    <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="180"/>
+    </row>
+    <row r="25" spans="1:8" s="49" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="32"/>
-      <c r="B26" s="45"/>
-    </row>
-    <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="188" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="1:8" s="49" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B27" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="189"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="190"/>
-    </row>
-    <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B28" s="40" t="s">
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="189"/>
+    </row>
+    <row r="28" spans="1:8" s="49" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B28" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="191" t="s">
+      <c r="C28" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="192"/>
-      <c r="E28" s="193"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="192"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="209" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="157" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="147" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="182" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
+      <c r="C30" s="174" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="158" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="182" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="174" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="175"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="41" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="182" t="s">
+      <c r="C32" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="183"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="182" t="s">
+      <c r="C33" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="183"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="182" t="s">
+      <c r="C34" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="183"/>
-      <c r="E34" s="184"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="176"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="182" t="s">
+      <c r="C35" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="183"/>
-      <c r="E35" s="184"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="176"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="209" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="210"/>
-      <c r="D36" s="210"/>
-      <c r="E36" s="211"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="186"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="41" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="182" t="s">
+      <c r="C37" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="183"/>
-      <c r="E37" s="184"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="176"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="183"/>
-      <c r="E38" s="184"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="176"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="183"/>
-      <c r="E39" s="184"/>
+      <c r="D39" s="175"/>
+      <c r="E39" s="176"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="182" t="s">
+      <c r="C40" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="183"/>
-      <c r="E40" s="184"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="176"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C41" s="174" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="183"/>
-      <c r="E41" s="184"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="176"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="30"/>
+      <c r="B42" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="182" t="s">
+      <c r="C42" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="183"/>
-      <c r="E42" s="184"/>
+      <c r="D42" s="175"/>
+      <c r="E42" s="176"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="43" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="182" t="s">
+      <c r="C43" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="183"/>
-      <c r="E43" s="184"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="176"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="43" t="s">
+      <c r="A44" s="30"/>
+      <c r="B44" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="182" t="s">
+      <c r="C44" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="183"/>
-      <c r="E44" s="184"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="176"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="182" t="s">
+      <c r="C45" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="183"/>
-      <c r="E45" s="184"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="176"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="43" t="s">
+      <c r="A46" s="30"/>
+      <c r="B46" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="182" t="s">
+      <c r="C46" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="176"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="43" t="s">
+      <c r="A47" s="30"/>
+      <c r="B47" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="182" t="s">
+      <c r="C47" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="183"/>
-      <c r="E47" s="184"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="176"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="41" t="s">
+      <c r="A48" s="30"/>
+      <c r="B48" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="182" t="s">
+      <c r="C48" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="183"/>
-      <c r="E48" s="184"/>
+      <c r="D48" s="175"/>
+      <c r="E48" s="176"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="182" t="s">
+      <c r="C49" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="183"/>
-      <c r="E49" s="184"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="176"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A50" s="52"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-    </row>
-    <row r="51" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-    </row>
-    <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="188" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+    </row>
+    <row r="51" spans="1:13" s="49" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A51" s="30"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+    </row>
+    <row r="52" spans="1:13" s="49" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B52" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="189"/>
-      <c r="D52" s="189"/>
-      <c r="E52" s="190"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="189"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="40" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="191" t="s">
+      <c r="C53" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="192"/>
-      <c r="E53" s="193"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="192"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="182" t="s">
+      <c r="C54" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
+      <c r="D54" s="175"/>
+      <c r="E54" s="176"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A55" s="32"/>
-      <c r="B55" s="41" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="182" t="s">
+      <c r="C55" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="183"/>
-      <c r="E55" s="184"/>
+      <c r="D55" s="175"/>
+      <c r="E55" s="176"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="41" t="s">
+      <c r="A56" s="30"/>
+      <c r="B56" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="182" t="s">
+      <c r="C56" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="183"/>
-      <c r="E56" s="184"/>
+      <c r="D56" s="175"/>
+      <c r="E56" s="176"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A57" s="32"/>
-      <c r="B57" s="41" t="s">
+      <c r="A57" s="30"/>
+      <c r="B57" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="182" t="s">
+      <c r="C57" s="174" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="186"/>
-      <c r="E57" s="187"/>
+      <c r="D57" s="181"/>
+      <c r="E57" s="182"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A58" s="32"/>
-      <c r="B58" s="41" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="182" t="s">
+      <c r="C58" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="186"/>
-      <c r="E58" s="187"/>
+      <c r="D58" s="181"/>
+      <c r="E58" s="182"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A59" s="32"/>
-      <c r="B59" s="41" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="182" t="s">
+      <c r="C59" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="186"/>
-      <c r="E59" s="187"/>
+      <c r="D59" s="181"/>
+      <c r="E59" s="182"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
-      <c r="A60" s="32"/>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="182" t="s">
+      <c r="C60" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="D60" s="186"/>
-      <c r="E60" s="187"/>
+      <c r="D60" s="181"/>
+      <c r="E60" s="182"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A61" s="32"/>
-      <c r="B61" s="41" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="185" t="s">
+      <c r="C61" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="186"/>
-      <c r="E61" s="187"/>
+      <c r="D61" s="181"/>
+      <c r="E61" s="182"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
-      <c r="A62" s="32"/>
-      <c r="B62" s="41" t="s">
+      <c r="A62" s="30"/>
+      <c r="B62" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="182" t="s">
+      <c r="C62" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="186"/>
-      <c r="E62" s="187"/>
+      <c r="D62" s="181"/>
+      <c r="E62" s="182"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A63" s="32"/>
-      <c r="B63" s="41" t="s">
+      <c r="A63" s="30"/>
+      <c r="B63" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="185" t="s">
+      <c r="C63" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="186"/>
-      <c r="E63" s="187"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="182"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A64" s="32"/>
-      <c r="B64" s="41" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="185" t="s">
+      <c r="C64" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="186"/>
-      <c r="E64" s="187"/>
+      <c r="D64" s="181"/>
+      <c r="E64" s="182"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A65" s="32"/>
-      <c r="B65" s="41" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="182" t="s">
+      <c r="C65" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="183"/>
-      <c r="E65" s="184"/>
+      <c r="D65" s="175"/>
+      <c r="E65" s="176"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A66" s="32"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A67" s="32"/>
-      <c r="B67" s="213"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="213"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="177"/>
+      <c r="D67" s="177"/>
+      <c r="E67" s="177"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A68" s="32"/>
-      <c r="B68" s="212"/>
-      <c r="C68" s="212"/>
-      <c r="D68" s="212"/>
-      <c r="E68" s="212"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="173"/>
+      <c r="C68" s="173"/>
+      <c r="D68" s="173"/>
+      <c r="E68" s="173"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A69" s="32"/>
-      <c r="B69" s="212"/>
-      <c r="C69" s="212"/>
-      <c r="D69" s="212"/>
-      <c r="E69" s="212"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="173"/>
+      <c r="C69" s="173"/>
+      <c r="D69" s="173"/>
+      <c r="E69" s="173"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A70" s="32"/>
-      <c r="B70" s="212"/>
-      <c r="C70" s="212"/>
-      <c r="D70" s="212"/>
-      <c r="E70" s="212"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="173"/>
+      <c r="C70" s="173"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="173"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A71" s="32"/>
-      <c r="B71" s="212"/>
-      <c r="C71" s="212"/>
-      <c r="D71" s="212"/>
-      <c r="E71" s="212"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="173"/>
+      <c r="C71" s="173"/>
+      <c r="D71" s="173"/>
+      <c r="E71" s="173"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A72" s="32"/>
-      <c r="B72" s="212"/>
-      <c r="C72" s="212"/>
-      <c r="D72" s="212"/>
-      <c r="E72" s="212"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="173"/>
+      <c r="C72" s="173"/>
+      <c r="D72" s="173"/>
+      <c r="E72" s="173"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A73" s="37"/>
-      <c r="B73" s="212"/>
-      <c r="C73" s="212"/>
-      <c r="D73" s="212"/>
-      <c r="E73" s="212"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="173"/>
+      <c r="C73" s="173"/>
+      <c r="D73" s="173"/>
+      <c r="E73" s="173"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A74" s="32"/>
-      <c r="B74" s="212"/>
-      <c r="C74" s="212"/>
-      <c r="D74" s="212"/>
-      <c r="E74" s="212"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="173"/>
+      <c r="C74" s="173"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="173"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A75" s="32"/>
-      <c r="B75" s="212"/>
-      <c r="C75" s="212"/>
-      <c r="D75" s="212"/>
-      <c r="E75" s="212"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="173"/>
+      <c r="C75" s="173"/>
+      <c r="D75" s="173"/>
+      <c r="E75" s="173"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A76" s="32"/>
-      <c r="B76" s="212"/>
-      <c r="C76" s="212"/>
-      <c r="D76" s="212"/>
-      <c r="E76" s="212"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="173"/>
+      <c r="C76" s="173"/>
+      <c r="D76" s="173"/>
+      <c r="E76" s="173"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A77" s="32"/>
-      <c r="B77" s="212"/>
-      <c r="C77" s="212"/>
-      <c r="D77" s="212"/>
-      <c r="E77" s="212"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
+      <c r="E77" s="173"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A78" s="32"/>
-      <c r="B78" s="212"/>
-      <c r="C78" s="212"/>
-      <c r="D78" s="212"/>
-      <c r="E78" s="212"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
+      <c r="E78" s="173"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A79" s="37"/>
-      <c r="B79" s="212"/>
-      <c r="C79" s="212"/>
-      <c r="D79" s="212"/>
-      <c r="E79" s="212"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="173"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A80" s="37"/>
-      <c r="B80" s="212"/>
-      <c r="C80" s="212"/>
-      <c r="D80" s="212"/>
-      <c r="E80" s="212"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A81" s="37"/>
-      <c r="B81" s="212"/>
-      <c r="C81" s="212"/>
-      <c r="D81" s="212"/>
-      <c r="E81" s="212"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="173"/>
+      <c r="C81" s="173"/>
+      <c r="D81" s="173"/>
+      <c r="E81" s="173"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A82" s="37"/>
-      <c r="B82" s="212"/>
-      <c r="C82" s="212"/>
-      <c r="D82" s="212"/>
-      <c r="E82" s="212"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="51"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="173"/>
+      <c r="C82" s="173"/>
+      <c r="D82" s="173"/>
+      <c r="E82" s="173"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A83" s="37"/>
-      <c r="B83" s="212"/>
-      <c r="C83" s="212"/>
-      <c r="D83" s="212"/>
-      <c r="E83" s="212"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A84" s="37"/>
-      <c r="B84" s="212"/>
-      <c r="C84" s="212"/>
-      <c r="D84" s="212"/>
-      <c r="E84" s="212"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A85" s="37"/>
-      <c r="B85" s="212"/>
-      <c r="C85" s="212"/>
-      <c r="D85" s="212"/>
-      <c r="E85" s="212"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="173"/>
+      <c r="C85" s="173"/>
+      <c r="D85" s="173"/>
+      <c r="E85" s="173"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A86" s="37"/>
-      <c r="B86" s="212"/>
-      <c r="C86" s="212"/>
-      <c r="D86" s="212"/>
-      <c r="E86" s="212"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="173"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="173"/>
+      <c r="E86" s="173"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A87" s="37"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
+      <c r="A87" s="34"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8706,40 +8729,27 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8755,8 +8765,8 @@
   </sheetPr>
   <dimension ref="A3:Y53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8764,7 +8774,7 @@
     <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="22.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="168" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="158" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="3" customWidth="1"/>
@@ -8777,1635 +8787,1600 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="223" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="223"/>
+      <c r="B3" s="205" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="215" t="s">
+      <c r="B6" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="217" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="218"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="N6" s="133"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="210"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="N6" s="123"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="215" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="217" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="219"/>
-      <c r="I7" s="214" t="s">
-        <v>200</v>
-      </c>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="156">
+      <c r="B7" s="207" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="208"/>
+      <c r="D7" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="210"/>
+      <c r="F7" s="211"/>
+      <c r="I7" s="212" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="146">
         <f>SUM(J13:J48)</f>
         <v>82.5</v>
       </c>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="I8" s="214" t="s">
-        <v>201</v>
-      </c>
-      <c r="J8" s="214"/>
-      <c r="K8" s="214"/>
-      <c r="L8" s="214"/>
-      <c r="M8" s="214"/>
-      <c r="N8" s="156">
+      <c r="C8" s="208"/>
+      <c r="D8" s="209" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="210"/>
+      <c r="F8" s="211"/>
+      <c r="I8" s="212" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="146">
         <f>SUM(M13:M48)</f>
         <v>41.5</v>
       </c>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="215" t="s">
+      <c r="B9" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="123">
+      <c r="C9" s="208"/>
+      <c r="D9" s="113">
         <v>42276</v>
       </c>
-      <c r="E9" s="164" t="s">
+      <c r="E9" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="109">
         <v>42327</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="N9" s="133"/>
+      <c r="H9" s="100"/>
+      <c r="N9" s="123"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="215" t="s">
+      <c r="B10" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="216"/>
-      <c r="D10" s="220" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="221"/>
-      <c r="F10" s="222"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="213" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="214"/>
+      <c r="F10" s="215"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="169"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="19"/>
       <c r="Y11" s="20"/>
     </row>
-    <row r="12" spans="2:25" s="118" customFormat="1" ht="38.25">
-      <c r="B12" s="160" t="s">
+    <row r="12" spans="2:25" s="108" customFormat="1" ht="38.25">
+      <c r="B12" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="162" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="161" t="s">
+      <c r="D12" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="162" t="s">
+      <c r="F12" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="162" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="163" t="s">
+      <c r="G12" s="152" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="163" t="s">
+      <c r="I12" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="163" t="s">
+      <c r="J12" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="163" t="s">
+      <c r="K12" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="163" t="s">
+      <c r="L12" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="163" t="s">
+      <c r="M12" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="163" t="s">
+      <c r="N12" s="153" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:25" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B13" s="84">
+    <row r="13" spans="2:25" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B13" s="151">
         <v>1</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="155" t="s">
+      <c r="E13" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="166">
+        <v>42248</v>
+      </c>
+      <c r="I13" s="166">
+        <v>42273</v>
+      </c>
+      <c r="J13" s="111">
+        <v>3</v>
+      </c>
+      <c r="K13" s="166">
+        <v>42254</v>
+      </c>
+      <c r="L13" s="166">
+        <v>42271</v>
+      </c>
+      <c r="M13" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N13" s="112"/>
+    </row>
+    <row r="14" spans="2:25" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B14" s="151">
+        <v>2</v>
+      </c>
+      <c r="C14" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="157" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="180">
+      <c r="F14" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="166">
         <v>42248</v>
       </c>
-      <c r="I13" s="180">
+      <c r="I14" s="166">
         <v>42273</v>
       </c>
-      <c r="J13" s="121">
+      <c r="J14" s="111">
         <v>3</v>
       </c>
-      <c r="K13" s="180">
+      <c r="K14" s="166">
         <v>42254</v>
       </c>
-      <c r="L13" s="180">
+      <c r="L14" s="166">
         <v>42271</v>
       </c>
-      <c r="M13" s="121">
+      <c r="M14" s="111">
         <v>1.5</v>
       </c>
-      <c r="N13" s="122"/>
-    </row>
-    <row r="14" spans="2:25" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B14" s="84">
-        <f>B13+1</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="150" t="s">
+      <c r="N14" s="112"/>
+    </row>
+    <row r="15" spans="2:25" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B15" s="151">
+        <v>3</v>
+      </c>
+      <c r="C15" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="D15" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="151" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="180">
+      <c r="E15" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="166">
         <v>42248</v>
       </c>
-      <c r="I14" s="180">
+      <c r="I15" s="166">
         <v>42273</v>
       </c>
-      <c r="J14" s="121">
+      <c r="J15" s="111">
         <v>3</v>
       </c>
-      <c r="K14" s="180">
+      <c r="K15" s="166">
         <v>42254</v>
       </c>
-      <c r="L14" s="180">
+      <c r="L15" s="166">
         <v>42271</v>
       </c>
-      <c r="M14" s="121">
+      <c r="M15" s="111">
         <v>1.5</v>
       </c>
-      <c r="N14" s="122"/>
-    </row>
-    <row r="15" spans="2:25" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B15" s="84">
-        <f>B14+1</f>
-        <v>3</v>
-      </c>
-      <c r="C15" s="150" t="s">
+      <c r="N15" s="112"/>
+    </row>
+    <row r="16" spans="2:25" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B16" s="151">
+        <v>4</v>
+      </c>
+      <c r="C16" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="167" t="s">
+      <c r="D16" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="151" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="180">
+      <c r="E16" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="166">
         <v>42248</v>
       </c>
-      <c r="I15" s="180">
+      <c r="I16" s="166">
         <v>42273</v>
       </c>
-      <c r="J15" s="121">
-        <v>3</v>
-      </c>
-      <c r="K15" s="180">
-        <v>42254</v>
-      </c>
-      <c r="L15" s="180">
-        <v>42271</v>
-      </c>
-      <c r="M15" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="N15" s="122"/>
-    </row>
-    <row r="16" spans="2:25" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B16" s="84">
-        <f t="shared" ref="B16:B48" si="0">B15+1</f>
-        <v>4</v>
-      </c>
-      <c r="C16" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="167" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="151" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="180">
-        <v>42248</v>
-      </c>
-      <c r="I16" s="180">
-        <v>42273</v>
-      </c>
-      <c r="J16" s="121">
+      <c r="J16" s="111">
         <f>1.5+1</f>
         <v>2.5</v>
       </c>
-      <c r="K16" s="180">
+      <c r="K16" s="166">
         <v>42254</v>
       </c>
-      <c r="L16" s="180">
+      <c r="L16" s="166">
         <v>42271</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="111">
         <v>1.25</v>
       </c>
-      <c r="N16" s="122"/>
-    </row>
-    <row r="17" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B17" s="84">
-        <f t="shared" si="0"/>
+      <c r="N16" s="112"/>
+    </row>
+    <row r="17" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B17" s="151">
         <v>5</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="151" t="s">
+      <c r="E17" s="141" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="166">
+        <v>42248</v>
+      </c>
+      <c r="I17" s="166">
+        <v>42273</v>
+      </c>
+      <c r="J17" s="111">
+        <v>3</v>
+      </c>
+      <c r="K17" s="166">
+        <v>42254</v>
+      </c>
+      <c r="L17" s="166">
+        <v>42271</v>
+      </c>
+      <c r="M17" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N17" s="112"/>
+    </row>
+    <row r="18" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B18" s="151">
+        <v>6</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I18" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J18" s="111">
+        <v>2</v>
+      </c>
+      <c r="K18" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L18" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M18" s="111">
+        <v>1</v>
+      </c>
+      <c r="N18" s="112"/>
+    </row>
+    <row r="19" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B19" s="151">
+        <v>7</v>
+      </c>
+      <c r="C19" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I19" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J19" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="K19" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L19" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M19" s="111">
+        <v>0.75</v>
+      </c>
+      <c r="N19" s="112"/>
+    </row>
+    <row r="20" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B20" s="151">
+        <v>8</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="142" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I20" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J20" s="111">
+        <v>2.5</v>
+      </c>
+      <c r="K20" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L20" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M20" s="111">
+        <v>1.25</v>
+      </c>
+      <c r="N20" s="112"/>
+    </row>
+    <row r="21" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B21" s="151">
+        <v>9</v>
+      </c>
+      <c r="C21" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I21" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J21" s="111">
+        <v>3</v>
+      </c>
+      <c r="K21" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L21" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M21" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="112"/>
+    </row>
+    <row r="22" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B22" s="151">
+        <v>10</v>
+      </c>
+      <c r="C22" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="142" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I22" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J22" s="111">
+        <v>3</v>
+      </c>
+      <c r="K22" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L22" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M22" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N22" s="112"/>
+    </row>
+    <row r="23" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B23" s="151">
+        <v>11</v>
+      </c>
+      <c r="C23" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="142" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I23" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J23" s="111">
+        <v>3</v>
+      </c>
+      <c r="K23" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L23" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M23" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N23" s="112"/>
+    </row>
+    <row r="24" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B24" s="151">
+        <v>12</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="142" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I24" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J24" s="111">
+        <v>3</v>
+      </c>
+      <c r="K24" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L24" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M24" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N24" s="112"/>
+    </row>
+    <row r="25" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B25" s="151">
+        <v>13</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="142" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I25" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J25" s="111">
+        <v>2</v>
+      </c>
+      <c r="K25" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L25" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M25" s="111">
+        <v>1</v>
+      </c>
+      <c r="N25" s="112"/>
+    </row>
+    <row r="26" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B26" s="151">
+        <v>14</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="142" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I26" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J26" s="111">
+        <v>2.5</v>
+      </c>
+      <c r="K26" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L26" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M26" s="111">
+        <v>1.25</v>
+      </c>
+      <c r="N26" s="112"/>
+    </row>
+    <row r="27" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A27" s="110"/>
+      <c r="B27" s="151">
+        <v>15</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="144" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I27" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J27" s="111">
+        <v>2</v>
+      </c>
+      <c r="K27" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L27" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M27" s="111">
+        <v>1</v>
+      </c>
+      <c r="N27" s="112"/>
+    </row>
+    <row r="28" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A28" s="110"/>
+      <c r="B28" s="151">
+        <v>16</v>
+      </c>
+      <c r="C28" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="166">
+        <v>42285</v>
+      </c>
+      <c r="I28" s="166">
+        <v>42298</v>
+      </c>
+      <c r="J28" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="K28" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L28" s="166">
+        <v>42297</v>
+      </c>
+      <c r="M28" s="111">
+        <v>0.75</v>
+      </c>
+      <c r="N28" s="112"/>
+    </row>
+    <row r="29" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A29" s="110"/>
+      <c r="B29" s="151">
+        <v>17</v>
+      </c>
+      <c r="C29" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="142" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I29" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J29" s="111">
+        <v>3</v>
+      </c>
+      <c r="K29" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L29" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M29" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N29" s="112"/>
+    </row>
+    <row r="30" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A30" s="110"/>
+      <c r="B30" s="151">
+        <v>18</v>
+      </c>
+      <c r="C30" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="142" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I30" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J30" s="111">
+        <v>3</v>
+      </c>
+      <c r="K30" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L30" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M30" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N30" s="112"/>
+    </row>
+    <row r="31" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A31" s="110"/>
+      <c r="B31" s="151">
+        <v>19</v>
+      </c>
+      <c r="C31" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="142" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I31" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J31" s="111">
+        <v>2</v>
+      </c>
+      <c r="K31" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L31" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M31" s="111">
+        <v>1</v>
+      </c>
+      <c r="N31" s="112"/>
+    </row>
+    <row r="32" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A32" s="110"/>
+      <c r="B32" s="151">
+        <v>20</v>
+      </c>
+      <c r="C32" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="142" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I32" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J32" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="K32" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L32" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M32" s="111">
+        <v>0.75</v>
+      </c>
+      <c r="N32" s="112"/>
+    </row>
+    <row r="33" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A33" s="110"/>
+      <c r="B33" s="151">
+        <v>21</v>
+      </c>
+      <c r="C33" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I33" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J33" s="111">
+        <v>2.5</v>
+      </c>
+      <c r="K33" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L33" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M33" s="111">
+        <v>1.25</v>
+      </c>
+      <c r="N33" s="112"/>
+    </row>
+    <row r="34" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A34" s="110"/>
+      <c r="B34" s="151">
+        <v>22</v>
+      </c>
+      <c r="C34" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="142" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I34" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J34" s="111">
+        <v>2.5</v>
+      </c>
+      <c r="K34" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L34" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M34" s="111">
+        <v>1.25</v>
+      </c>
+      <c r="N34" s="112"/>
+    </row>
+    <row r="35" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A35" s="110"/>
+      <c r="B35" s="151">
+        <v>23</v>
+      </c>
+      <c r="C35" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I35" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J35" s="111">
+        <v>2</v>
+      </c>
+      <c r="K35" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L35" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M35" s="111">
+        <v>1</v>
+      </c>
+      <c r="N35" s="112"/>
+    </row>
+    <row r="36" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A36" s="110"/>
+      <c r="B36" s="151">
+        <v>24</v>
+      </c>
+      <c r="C36" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I36" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J36" s="111">
+        <v>3</v>
+      </c>
+      <c r="K36" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L36" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M36" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N36" s="112"/>
+    </row>
+    <row r="37" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A37" s="110"/>
+      <c r="B37" s="151">
+        <v>25</v>
+      </c>
+      <c r="C37" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I37" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J37" s="111">
+        <v>3</v>
+      </c>
+      <c r="K37" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L37" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M37" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N37" s="112"/>
+    </row>
+    <row r="38" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A38" s="110"/>
+      <c r="B38" s="151">
+        <v>26</v>
+      </c>
+      <c r="C38" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H38" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I38" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J38" s="111">
+        <v>2</v>
+      </c>
+      <c r="K38" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L38" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M38" s="111">
+        <v>1</v>
+      </c>
+      <c r="N38" s="112"/>
+    </row>
+    <row r="39" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A39" s="110"/>
+      <c r="B39" s="151">
+        <v>27</v>
+      </c>
+      <c r="C39" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="142" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I39" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J39" s="111">
+        <v>2</v>
+      </c>
+      <c r="K39" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L39" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M39" s="111">
+        <v>1</v>
+      </c>
+      <c r="N39" s="112"/>
+    </row>
+    <row r="40" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A40" s="110"/>
+      <c r="B40" s="151">
+        <v>28</v>
+      </c>
+      <c r="C40" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I40" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J40" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="K40" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L40" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M40" s="111">
+        <v>0.75</v>
+      </c>
+      <c r="N40" s="112"/>
+    </row>
+    <row r="41" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A41" s="110"/>
+      <c r="B41" s="151">
+        <v>29</v>
+      </c>
+      <c r="C41" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="142" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I41" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J41" s="111">
+        <v>3</v>
+      </c>
+      <c r="K41" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L41" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M41" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="N41" s="112"/>
+    </row>
+    <row r="42" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A42" s="110"/>
+      <c r="B42" s="151">
+        <v>30</v>
+      </c>
+      <c r="C42" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="142" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I42" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J42" s="111">
+        <v>2</v>
+      </c>
+      <c r="K42" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L42" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M42" s="111">
+        <v>1</v>
+      </c>
+      <c r="N42" s="112"/>
+    </row>
+    <row r="43" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A43" s="110"/>
+      <c r="B43" s="151">
+        <v>31</v>
+      </c>
+      <c r="C43" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="142" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I43" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J43" s="111">
+        <v>1.5</v>
+      </c>
+      <c r="K43" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L43" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M43" s="111">
+        <v>0.75</v>
+      </c>
+      <c r="N43" s="112"/>
+    </row>
+    <row r="44" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A44" s="110"/>
+      <c r="B44" s="151">
+        <v>32</v>
+      </c>
+      <c r="C44" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I44" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J44" s="111">
+        <v>2</v>
+      </c>
+      <c r="K44" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L44" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M44" s="111">
+        <v>1</v>
+      </c>
+      <c r="N44" s="112"/>
+    </row>
+    <row r="45" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A45" s="110"/>
+      <c r="B45" s="151">
+        <v>33</v>
+      </c>
+      <c r="C45" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="157"/>
+      <c r="E45" s="141" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I45" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J45" s="111">
+        <v>1</v>
+      </c>
+      <c r="K45" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L45" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M45" s="111">
+        <v>0.5</v>
+      </c>
+      <c r="N45" s="112"/>
+    </row>
+    <row r="46" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A46" s="110"/>
+      <c r="B46" s="151">
+        <v>34</v>
+      </c>
+      <c r="C46" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="157"/>
+      <c r="E46" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="180">
-        <v>42248</v>
-      </c>
-      <c r="I17" s="180">
-        <v>42273</v>
-      </c>
-      <c r="J17" s="121">
-        <v>3</v>
-      </c>
-      <c r="K17" s="180">
-        <v>42254</v>
-      </c>
-      <c r="L17" s="180">
-        <v>42271</v>
-      </c>
-      <c r="M17" s="121">
+      <c r="F46" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I46" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J46" s="111">
+        <v>1</v>
+      </c>
+      <c r="K46" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L46" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M46" s="111">
+        <v>0.5</v>
+      </c>
+      <c r="N46" s="112"/>
+    </row>
+    <row r="47" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A47" s="110"/>
+      <c r="B47" s="151">
+        <v>35</v>
+      </c>
+      <c r="C47" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="157"/>
+      <c r="E47" s="141" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I47" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J47" s="111">
+        <v>2</v>
+      </c>
+      <c r="K47" s="166">
+        <v>42286</v>
+      </c>
+      <c r="L47" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M47" s="111">
+        <v>1</v>
+      </c>
+      <c r="N47" s="112"/>
+    </row>
+    <row r="48" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A48" s="110"/>
+      <c r="B48" s="151">
+        <v>36</v>
+      </c>
+      <c r="C48" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="157"/>
+      <c r="E48" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="166">
+        <v>42276</v>
+      </c>
+      <c r="I48" s="166">
+        <v>42296</v>
+      </c>
+      <c r="J48" s="111">
         <v>1.5</v>
       </c>
-      <c r="N17" s="122"/>
-    </row>
-    <row r="18" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B18" s="84">
-        <f>B17+1</f>
-        <v>6</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="151" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I18" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J18" s="121">
-        <v>2</v>
-      </c>
-      <c r="K18" s="180">
+      <c r="K48" s="166">
         <v>42286</v>
       </c>
-      <c r="L18" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M18" s="121">
+      <c r="L48" s="166">
+        <v>42299</v>
+      </c>
+      <c r="M48" s="111">
         <v>1</v>
       </c>
-      <c r="N18" s="122"/>
-    </row>
-    <row r="19" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B19" s="84">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C19" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="151" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I19" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J19" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="K19" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L19" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M19" s="121">
-        <v>0.75</v>
-      </c>
-      <c r="N19" s="122"/>
-    </row>
-    <row r="20" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B20" s="84">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C20" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="152" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I20" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J20" s="121">
-        <v>2.5</v>
-      </c>
-      <c r="K20" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L20" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M20" s="121">
-        <v>1.25</v>
-      </c>
-      <c r="N20" s="122"/>
-    </row>
-    <row r="21" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B21" s="84">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C21" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="152" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I21" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J21" s="121">
-        <v>3</v>
-      </c>
-      <c r="K21" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L21" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M21" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="N21" s="122"/>
-    </row>
-    <row r="22" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B22" s="84">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C22" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="152" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I22" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J22" s="121">
-        <v>3</v>
-      </c>
-      <c r="K22" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L22" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M22" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="N22" s="122"/>
-    </row>
-    <row r="23" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B23" s="84">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C23" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="152" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H23" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I23" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J23" s="121">
-        <v>3</v>
-      </c>
-      <c r="K23" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L23" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M23" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="N23" s="122"/>
-    </row>
-    <row r="24" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B24" s="84">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C24" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="152" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I24" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J24" s="121">
-        <v>3</v>
-      </c>
-      <c r="K24" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L24" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M24" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="N24" s="122"/>
-    </row>
-    <row r="25" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B25" s="84">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C25" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="152" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="H25" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I25" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J25" s="121">
-        <v>2</v>
-      </c>
-      <c r="K25" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L25" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M25" s="121">
-        <v>1</v>
-      </c>
-      <c r="N25" s="122"/>
-    </row>
-    <row r="26" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B26" s="84">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C26" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="152" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I26" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J26" s="121">
-        <v>2.5</v>
-      </c>
-      <c r="K26" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L26" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M26" s="121">
-        <v>1.25</v>
-      </c>
-      <c r="N26" s="122"/>
-    </row>
-    <row r="27" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A27" s="120"/>
-      <c r="B27" s="84">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C27" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="154" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I27" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J27" s="121">
-        <v>2</v>
-      </c>
-      <c r="K27" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L27" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M27" s="121">
-        <v>1</v>
-      </c>
-      <c r="N27" s="122"/>
-    </row>
-    <row r="28" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A28" s="120"/>
-      <c r="B28" s="84">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C28" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H28" s="180">
-        <v>42285</v>
-      </c>
-      <c r="I28" s="180">
-        <v>42298</v>
-      </c>
-      <c r="J28" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="K28" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L28" s="180">
-        <v>42297</v>
-      </c>
-      <c r="M28" s="121">
-        <v>0.75</v>
-      </c>
-      <c r="N28" s="122"/>
-    </row>
-    <row r="29" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A29" s="120"/>
-      <c r="B29" s="84">
-        <f>B28+1</f>
-        <v>17</v>
-      </c>
-      <c r="C29" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="170" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="152" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I29" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J29" s="121">
-        <v>3</v>
-      </c>
-      <c r="K29" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L29" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M29" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="N29" s="122"/>
-    </row>
-    <row r="30" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A30" s="120"/>
-      <c r="B30" s="84">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C30" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="170" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="152" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H30" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I30" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J30" s="121">
-        <v>3</v>
-      </c>
-      <c r="K30" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L30" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M30" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="N30" s="122"/>
-    </row>
-    <row r="31" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A31" s="120"/>
-      <c r="B31" s="84">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C31" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="170" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I31" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J31" s="121">
-        <v>2</v>
-      </c>
-      <c r="K31" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L31" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M31" s="121">
-        <v>1</v>
-      </c>
-      <c r="N31" s="122"/>
-    </row>
-    <row r="32" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A32" s="120"/>
-      <c r="B32" s="84">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C32" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="170" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="152" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I32" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J32" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="K32" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L32" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M32" s="121">
-        <v>0.75</v>
-      </c>
-      <c r="N32" s="122"/>
-    </row>
-    <row r="33" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A33" s="120"/>
-      <c r="B33" s="84">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C33" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="170" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="F33" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I33" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J33" s="121">
-        <v>2.5</v>
-      </c>
-      <c r="K33" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L33" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M33" s="121">
-        <v>1.25</v>
-      </c>
-      <c r="N33" s="122"/>
-    </row>
-    <row r="34" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A34" s="120"/>
-      <c r="B34" s="84">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C34" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="152" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I34" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J34" s="121">
-        <v>2.5</v>
-      </c>
-      <c r="K34" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L34" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M34" s="121">
-        <v>1.25</v>
-      </c>
-      <c r="N34" s="122"/>
-    </row>
-    <row r="35" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A35" s="120"/>
-      <c r="B35" s="84">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C35" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="152" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H35" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I35" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J35" s="121">
-        <v>2</v>
-      </c>
-      <c r="K35" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L35" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M35" s="121">
-        <v>1</v>
-      </c>
-      <c r="N35" s="122"/>
-    </row>
-    <row r="36" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A36" s="120"/>
-      <c r="B36" s="84">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C36" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="152" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I36" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J36" s="121">
-        <v>3</v>
-      </c>
-      <c r="K36" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L36" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M36" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="N36" s="122"/>
-    </row>
-    <row r="37" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A37" s="120"/>
-      <c r="B37" s="84">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C37" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="152" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I37" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J37" s="121">
-        <v>3</v>
-      </c>
-      <c r="K37" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L37" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M37" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="N37" s="122"/>
-    </row>
-    <row r="38" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A38" s="120"/>
-      <c r="B38" s="84">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C38" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="152" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H38" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I38" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J38" s="121">
-        <v>2</v>
-      </c>
-      <c r="K38" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L38" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M38" s="121">
-        <v>1</v>
-      </c>
-      <c r="N38" s="122"/>
-    </row>
-    <row r="39" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A39" s="120"/>
-      <c r="B39" s="84">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C39" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="167" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="152" t="s">
-        <v>155</v>
-      </c>
-      <c r="F39" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H39" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I39" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J39" s="121">
-        <v>2</v>
-      </c>
-      <c r="K39" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L39" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M39" s="121">
-        <v>1</v>
-      </c>
-      <c r="N39" s="122"/>
-    </row>
-    <row r="40" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A40" s="120"/>
-      <c r="B40" s="84">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C40" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="167" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G40" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H40" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I40" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J40" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="K40" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L40" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M40" s="121">
-        <v>0.75</v>
-      </c>
-      <c r="N40" s="122"/>
-    </row>
-    <row r="41" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A41" s="120"/>
-      <c r="B41" s="84">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C41" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="167" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="152" t="s">
-        <v>192</v>
-      </c>
-      <c r="F41" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H41" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I41" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J41" s="121">
-        <v>3</v>
-      </c>
-      <c r="K41" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L41" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M41" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="N41" s="122"/>
-    </row>
-    <row r="42" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A42" s="120"/>
-      <c r="B42" s="84">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C42" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="167" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="152" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G42" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="H42" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I42" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J42" s="121">
-        <v>2</v>
-      </c>
-      <c r="K42" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L42" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M42" s="121">
-        <v>1</v>
-      </c>
-      <c r="N42" s="122"/>
-    </row>
-    <row r="43" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A43" s="120"/>
-      <c r="B43" s="84">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C43" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="167" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="152" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H43" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I43" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J43" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="K43" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L43" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M43" s="121">
-        <v>0.75</v>
-      </c>
-      <c r="N43" s="122"/>
-    </row>
-    <row r="44" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A44" s="120"/>
-      <c r="B44" s="84">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C44" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="167" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="151" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H44" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I44" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J44" s="121">
-        <v>2</v>
-      </c>
-      <c r="K44" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L44" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M44" s="121">
-        <v>1</v>
-      </c>
-      <c r="N44" s="122"/>
-    </row>
-    <row r="45" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A45" s="120"/>
-      <c r="B45" s="84">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C45" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="167"/>
-      <c r="E45" s="151" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H45" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I45" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J45" s="121">
-        <v>1</v>
-      </c>
-      <c r="K45" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L45" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M45" s="121">
-        <v>0.5</v>
-      </c>
-      <c r="N45" s="122"/>
-    </row>
-    <row r="46" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A46" s="120"/>
-      <c r="B46" s="84">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C46" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="167"/>
-      <c r="E46" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G46" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H46" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I46" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J46" s="121">
-        <v>1</v>
-      </c>
-      <c r="K46" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L46" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M46" s="121">
-        <v>0.5</v>
-      </c>
-      <c r="N46" s="122"/>
-    </row>
-    <row r="47" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A47" s="120"/>
-      <c r="B47" s="84">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C47" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="167"/>
-      <c r="E47" s="151" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H47" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I47" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J47" s="121">
-        <v>2</v>
-      </c>
-      <c r="K47" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L47" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M47" s="121">
-        <v>1</v>
-      </c>
-      <c r="N47" s="122"/>
-    </row>
-    <row r="48" spans="1:14" s="118" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A48" s="120"/>
-      <c r="B48" s="84">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C48" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="167"/>
-      <c r="E48" s="151" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G48" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H48" s="180">
-        <v>42276</v>
-      </c>
-      <c r="I48" s="180">
-        <v>42296</v>
-      </c>
-      <c r="J48" s="121">
-        <v>1.5</v>
-      </c>
-      <c r="K48" s="180">
-        <v>42286</v>
-      </c>
-      <c r="L48" s="180">
-        <v>42299</v>
-      </c>
-      <c r="M48" s="121">
-        <v>1</v>
-      </c>
-      <c r="N48" s="122"/>
+      <c r="N48" s="112"/>
     </row>
     <row r="49" spans="1:13" ht="12.75" customHeight="1">
       <c r="B49" s="6"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="124"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="114"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="8"/>
       <c r="B50" s="6"/>
-      <c r="D50" s="171"/>
+      <c r="D50" s="161"/>
       <c r="E50" s="7"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="125"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
+      <c r="L50" s="115"/>
+      <c r="M50" s="115"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="8"/>
@@ -10416,6 +10391,12 @@
     <row r="53" spans="1:13" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
@@ -10423,12 +10404,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10472,7 +10447,7 @@
           <x14:formula1>
             <xm:f>Tablas!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D13 D45 D46 D47 D48</xm:sqref>
+          <xm:sqref>D13 D45:D48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10486,10 +10461,10 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -10511,22 +10486,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="227"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="218"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -10545,1817 +10520,1817 @@
     </row>
     <row r="3" spans="1:15" s="21" customFormat="1" ht="10.5" customHeight="1">
       <c r="A3" s="28"/>
-      <c r="B3" s="31"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="28"/>
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="165" t="s">
+      <c r="F4" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="165" t="s">
+      <c r="I4" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="165" t="s">
+      <c r="J4" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="165" t="s">
+      <c r="K4" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="165" t="s">
+      <c r="L4" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="165" t="s">
+      <c r="M4" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="165" t="s">
+      <c r="N4" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="165" t="s">
+      <c r="O4" s="155" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1">
-      <c r="A5" s="166">
+      <c r="A5" s="156">
         <v>1</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="85">
         <v>1</v>
       </c>
-      <c r="C5" s="95" t="str">
+      <c r="C5" s="86" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="144" t="str">
+      <c r="D5" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A5,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A5,Planificación!B$13:G$22,3,FALSE))</f>
         <v>PGPRO_Proceso de Gestión / PP_PMC</v>
       </c>
-      <c r="E5" s="95" t="str">
+      <c r="E5" s="86" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F5" s="95" t="str">
+      <c r="F5" s="86" t="str">
         <f>VLOOKUP(A5,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G5" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="145" t="s">
+      <c r="G5" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="145" t="s">
+      <c r="I5" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="145" t="str">
+      <c r="J5" s="135" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="148">
+      <c r="K5" s="137"/>
+      <c r="L5" s="138">
         <f>VLOOKUP(A5,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M5" s="148">
+      <c r="M5" s="138">
         <f>VLOOKUP(A5,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
-      <c r="N5" s="97"/>
-      <c r="O5" s="135"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="125"/>
     </row>
     <row r="6" spans="1:15" ht="42" customHeight="1">
-      <c r="A6" s="166">
+      <c r="A6" s="156">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="85">
         <v>1</v>
       </c>
-      <c r="C6" s="95" t="str">
+      <c r="C6" s="86" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="144" t="str">
+      <c r="D6" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A6,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A6,Planificación!B$13:G$22,3,FALSE))</f>
         <v>PPRO_Plan de Proyecto / PP_PMC</v>
       </c>
-      <c r="E6" s="95" t="str">
+      <c r="E6" s="86" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="F6" s="95" t="str">
+      <c r="F6" s="86" t="str">
         <f>VLOOKUP(A6,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="G6" s="178" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="145" t="s">
+      <c r="G6" s="164" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="145" t="s">
+      <c r="I6" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="145" t="str">
+      <c r="J6" s="135" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K6" s="147"/>
-      <c r="L6" s="148">
+      <c r="K6" s="137"/>
+      <c r="L6" s="138">
         <f>VLOOKUP(A6,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M6" s="148">
+      <c r="M6" s="138">
         <f>VLOOKUP(A6,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
-      <c r="N6" s="97"/>
-      <c r="O6" s="134"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="124"/>
     </row>
     <row r="7" spans="1:15" ht="42" customHeight="1">
-      <c r="A7" s="166">
+      <c r="A7" s="156">
         <f t="shared" ref="A7:A40" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="85">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="str">
+      <c r="C7" s="86" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="144" t="str">
+      <c r="D7" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A7,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A7,Planificación!B$13:G$22,3,FALSE))</f>
         <v>CPRO_Cronograma de Proyecto / PP_PMC</v>
       </c>
-      <c r="E7" s="95" t="str">
+      <c r="E7" s="86" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F7" s="95" t="str">
+      <c r="F7" s="86" t="str">
         <f>VLOOKUP(A7,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G7" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="145" t="s">
+      <c r="G7" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="145" t="str">
+      <c r="J7" s="135" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K7" s="147"/>
-      <c r="L7" s="148">
+      <c r="K7" s="137"/>
+      <c r="L7" s="138">
         <f>VLOOKUP(A7,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M7" s="148">
+      <c r="M7" s="138">
         <f>VLOOKUP(A7,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
-      <c r="N7" s="97"/>
-      <c r="O7" s="104"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:15" ht="42" customHeight="1">
-      <c r="A8" s="166">
+      <c r="A8" s="156">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="85">
         <v>1</v>
       </c>
-      <c r="C8" s="111" t="str">
+      <c r="C8" s="101" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="144" t="str">
+      <c r="D8" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A8,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A8,Planificación!B$13:G$22,3,FALSE))</f>
         <v>REGRI_Registro de Riesgos / PP_PMC</v>
       </c>
-      <c r="E8" s="95" t="str">
+      <c r="E8" s="86" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F8" s="95" t="str">
+      <c r="F8" s="86" t="str">
         <f>VLOOKUP(A8,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G8" s="96" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="146" t="s">
+      <c r="G8" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="146" t="s">
+      <c r="I8" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="145" t="str">
+      <c r="J8" s="135" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="148">
+      <c r="K8" s="139"/>
+      <c r="L8" s="138">
         <f>VLOOKUP(A8,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M8" s="148">
+      <c r="M8" s="138">
         <f>VLOOKUP(A8,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
-      <c r="N8" s="113"/>
-      <c r="O8" s="114"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="104"/>
     </row>
     <row r="9" spans="1:15" ht="42" customHeight="1">
-      <c r="A9" s="166">
+      <c r="A9" s="156">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="85">
         <v>1</v>
       </c>
-      <c r="C9" s="111" t="str">
+      <c r="C9" s="101" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="144" t="str">
+      <c r="D9" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A9,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A9,Planificación!B$13:G$22,3,FALSE))</f>
         <v>ACCPRO_Acta de Cierre de Proyecto / PP_PMC</v>
       </c>
-      <c r="E9" s="95" t="str">
+      <c r="E9" s="86" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="F9" s="95" t="str">
+      <c r="F9" s="86" t="str">
         <f>VLOOKUP(A9,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="G9" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="146" t="s">
+      <c r="G9" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="146" t="s">
+      <c r="I9" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="145" t="str">
+      <c r="J9" s="135" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K9" s="149"/>
-      <c r="L9" s="148">
+      <c r="K9" s="139"/>
+      <c r="L9" s="138">
         <f>VLOOKUP(A9,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M9" s="148">
+      <c r="M9" s="138">
         <f>VLOOKUP(A9,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
-      <c r="N9" s="113"/>
-      <c r="O9" s="114"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="1:15" ht="42" customHeight="1">
-      <c r="A10" s="166">
+      <c r="A10" s="156">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="85">
         <v>1</v>
       </c>
-      <c r="C10" s="95" t="str">
+      <c r="C10" s="86" t="str">
         <f>VLOOKUP(B10,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="144" t="str">
+      <c r="D10" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A10,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A10,Planificación!B$13:G$22,3,FALSE))</f>
         <v>PGREQM_Proceso de Gestion de Requerimientos / REQM</v>
       </c>
-      <c r="E10" s="95" t="str">
+      <c r="E10" s="86" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F10" s="95" t="str">
+      <c r="F10" s="86" t="str">
         <f>VLOOKUP(A10,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G10" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="145" t="s">
+      <c r="G10" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="145" t="s">
+      <c r="I10" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="145" t="str">
+      <c r="J10" s="135" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K10" s="147"/>
-      <c r="L10" s="148">
+      <c r="K10" s="137"/>
+      <c r="L10" s="138">
         <f>VLOOKUP(A10,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M10" s="148">
+      <c r="M10" s="138">
         <f>VLOOKUP(A10,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N10" s="97"/>
-      <c r="O10" s="104"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="94"/>
     </row>
     <row r="11" spans="1:15" ht="42" customHeight="1">
-      <c r="A11" s="166">
+      <c r="A11" s="156">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="94">
+      <c r="B11" s="85">
         <v>1</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="144" t="str">
+      <c r="D11" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A11,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A11,Planificación!B$13:G$22,3,FALSE))</f>
         <v>LMREQM_Lista Maestra de Requerimientos / REQM</v>
       </c>
-      <c r="E11" s="95" t="str">
+      <c r="E11" s="86" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F11" s="95" t="str">
+      <c r="F11" s="86" t="str">
         <f>VLOOKUP(A11,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G11" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="145" t="s">
+      <c r="G11" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="145" t="str">
+      <c r="J11" s="135" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K11" s="147"/>
-      <c r="L11" s="148">
+      <c r="K11" s="137"/>
+      <c r="L11" s="138">
         <f>VLOOKUP(A11,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M11" s="148">
+      <c r="M11" s="138">
         <f>VLOOKUP(A11,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N11" s="97"/>
-      <c r="O11" s="104"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="94"/>
     </row>
     <row r="12" spans="1:15" ht="42" customHeight="1">
-      <c r="A12" s="166">
+      <c r="A12" s="156">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="94">
+      <c r="B12" s="85">
         <v>1</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="144" t="str">
+      <c r="D12" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A12,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A12,Planificación!B$13:G$22,3,FALSE))</f>
         <v>MTREQM_Matriz Trazabilidad de Requerimientos / REQM</v>
       </c>
-      <c r="E12" s="95" t="str">
+      <c r="E12" s="86" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F12" s="95" t="str">
+      <c r="F12" s="86" t="str">
         <f>VLOOKUP(A12,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G12" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12" s="145" t="s">
+      <c r="G12" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="145" t="s">
+      <c r="I12" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="145" t="str">
+      <c r="J12" s="135" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148">
+      <c r="K12" s="137"/>
+      <c r="L12" s="138">
         <f>VLOOKUP(A12,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M12" s="148">
+      <c r="M12" s="138">
         <f>VLOOKUP(A12,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N12" s="97"/>
-      <c r="O12" s="134"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="124"/>
     </row>
     <row r="13" spans="1:15" ht="42" customHeight="1">
-      <c r="A13" s="166">
+      <c r="A13" s="156">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="85">
         <v>1</v>
       </c>
-      <c r="C13" s="95" t="str">
+      <c r="C13" s="86" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="144" t="str">
+      <c r="D13" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A13,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A13,Planificación!B$13:G$22,3,FALSE))</f>
         <v>SOLCREQM_Solicitud de Cambios  de Requerimientos / REQM</v>
       </c>
-      <c r="E13" s="95" t="str">
+      <c r="E13" s="86" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F13" s="95" t="str">
+      <c r="F13" s="86" t="str">
         <f>VLOOKUP(A13,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G13" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="145" t="s">
+      <c r="G13" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="145" t="s">
+      <c r="I13" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="145" t="str">
+      <c r="J13" s="135" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K13" s="147"/>
-      <c r="L13" s="148">
+      <c r="K13" s="137"/>
+      <c r="L13" s="138">
         <f>VLOOKUP(A13,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M13" s="148">
+      <c r="M13" s="138">
         <f>VLOOKUP(A13,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N13" s="97"/>
-      <c r="O13" s="134"/>
-    </row>
-    <row r="14" spans="1:15" s="115" customFormat="1" ht="42" customHeight="1">
-      <c r="A14" s="166">
+      <c r="N13" s="88"/>
+      <c r="O13" s="124"/>
+    </row>
+    <row r="14" spans="1:15" s="105" customFormat="1" ht="42" customHeight="1">
+      <c r="A14" s="156">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="94">
+      <c r="B14" s="85">
         <v>1</v>
       </c>
-      <c r="C14" s="111" t="str">
+      <c r="C14" s="101" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="144" t="str">
+      <c r="D14" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A14,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A14,Planificación!B$13:G$22,3,FALSE))</f>
         <v>ASCREQM_Acta de Solicitud de Cambios de Requerimientos / REQM</v>
       </c>
-      <c r="E14" s="95" t="str">
+      <c r="E14" s="86" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F14" s="95" t="str">
+      <c r="F14" s="86" t="str">
         <f>VLOOKUP(A14,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G14" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="H14" s="146" t="s">
+      <c r="G14" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="146" t="s">
+      <c r="I14" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="145" t="str">
+      <c r="J14" s="135" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K14" s="149"/>
-      <c r="L14" s="148">
+      <c r="K14" s="139"/>
+      <c r="L14" s="138">
         <f>VLOOKUP(A14,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M14" s="148">
+      <c r="M14" s="138">
         <f>VLOOKUP(A14,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N14" s="113"/>
-      <c r="O14" s="136"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="126"/>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1">
-      <c r="A15" s="166">
+      <c r="A15" s="156">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="94">
+      <c r="B15" s="85">
         <v>1</v>
       </c>
-      <c r="C15" s="95" t="str">
+      <c r="C15" s="86" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="144" t="str">
+      <c r="D15" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A15,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A15,Planificación!B$13:G$48,3,FALSE))</f>
         <v>RCREQM_Registro de Cambios a Requerimientos / REQM</v>
       </c>
-      <c r="E15" s="95" t="str">
+      <c r="E15" s="86" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F15" s="95" t="str">
+      <c r="F15" s="86" t="str">
         <f>VLOOKUP(A15,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G15" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="H15" s="145" t="s">
+      <c r="G15" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="145" t="s">
+      <c r="I15" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="145" t="str">
+      <c r="J15" s="135" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K15" s="147"/>
-      <c r="L15" s="148">
+      <c r="K15" s="137"/>
+      <c r="L15" s="138">
         <f>VLOOKUP(A15,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M15" s="148">
+      <c r="M15" s="138">
         <f>VLOOKUP(A15,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N15" s="97"/>
-      <c r="O15" s="104"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="94"/>
     </row>
     <row r="16" spans="1:15" ht="42" customHeight="1">
-      <c r="A16" s="166">
+      <c r="A16" s="156">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="94">
+      <c r="B16" s="85">
         <v>1</v>
       </c>
-      <c r="C16" s="95" t="str">
+      <c r="C16" s="86" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D16" s="144" t="str">
+      <c r="D16" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A16,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A16,Planificación!B$13:G$48,3,FALSE))</f>
         <v>DANA_Documento de Analisis / REQM</v>
       </c>
-      <c r="E16" s="95" t="str">
+      <c r="E16" s="86" t="str">
         <f>VLOOKUP(A16,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="F16" s="95" t="str">
+      <c r="F16" s="86" t="str">
         <f>VLOOKUP(A16,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="G16" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="145" t="s">
+      <c r="G16" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="145" t="s">
+      <c r="I16" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="145" t="str">
+      <c r="J16" s="135" t="str">
         <f>VLOOKUP(A16,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148">
+      <c r="K16" s="137"/>
+      <c r="L16" s="138">
         <f>VLOOKUP(A16,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M16" s="148">
+      <c r="M16" s="138">
         <f>VLOOKUP(A16,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N16" s="97"/>
-      <c r="O16" s="104"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="94"/>
     </row>
     <row r="17" spans="1:15" ht="42" customHeight="1">
-      <c r="A17" s="166">
+      <c r="A17" s="156">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="94">
+      <c r="B17" s="85">
         <v>1</v>
       </c>
-      <c r="C17" s="95" t="str">
+      <c r="C17" s="86" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D17" s="144" t="str">
+      <c r="D17" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A17,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A17,Planificación!B$13:G$48,3,FALSE))</f>
         <v>DDIS_Documento de Diseño / REQM</v>
       </c>
-      <c r="E17" s="95" t="str">
+      <c r="E17" s="86" t="str">
         <f>VLOOKUP(A17,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="F17" s="95" t="str">
+      <c r="F17" s="86" t="str">
         <f>VLOOKUP(A17,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="G17" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="145" t="s">
+      <c r="G17" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="145" t="s">
+      <c r="I17" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="145" t="str">
+      <c r="J17" s="135" t="str">
         <f>VLOOKUP(A17,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K17" s="147"/>
-      <c r="L17" s="148">
+      <c r="K17" s="137"/>
+      <c r="L17" s="138">
         <f>VLOOKUP(A17,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M17" s="148">
+      <c r="M17" s="138">
         <f>VLOOKUP(A17,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N17" s="97"/>
-      <c r="O17" s="104"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="94"/>
     </row>
     <row r="18" spans="1:15" ht="42" customHeight="1">
-      <c r="A18" s="166">
+      <c r="A18" s="156">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="94">
+      <c r="B18" s="85">
         <v>1</v>
       </c>
-      <c r="C18" s="95" t="str">
+      <c r="C18" s="86" t="str">
         <f>VLOOKUP(B18,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D18" s="144" t="str">
+      <c r="D18" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A18,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A18,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MTOPBODY_Manual de Usuario / REQM</v>
       </c>
-      <c r="E18" s="95" t="str">
+      <c r="E18" s="86" t="str">
         <f>VLOOKUP(A18,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="F18" s="95" t="str">
+      <c r="F18" s="86" t="str">
         <f>VLOOKUP(A18,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="G18" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" s="145" t="s">
+      <c r="G18" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="145" t="s">
+      <c r="I18" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="145" t="str">
+      <c r="J18" s="135" t="str">
         <f>VLOOKUP(A18,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148">
+      <c r="K18" s="137"/>
+      <c r="L18" s="138">
         <f>VLOOKUP(A18,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M18" s="148">
+      <c r="M18" s="138">
         <f>VLOOKUP(A18,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N18" s="97"/>
-      <c r="O18" s="104"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="94"/>
     </row>
     <row r="19" spans="1:15" ht="42" customHeight="1">
-      <c r="A19" s="166">
+      <c r="A19" s="156">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="94">
+      <c r="B19" s="85">
         <v>1</v>
       </c>
-      <c r="C19" s="95" t="str">
+      <c r="C19" s="86" t="str">
         <f>VLOOKUP(B19,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D19" s="144" t="str">
+      <c r="D19" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A19,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A19,Planificación!B$13:G$48,3,FALSE))</f>
         <v>INPRUIN_Informe de Pruebas Internas / REQM</v>
       </c>
-      <c r="E19" s="95" t="str">
+      <c r="E19" s="86" t="str">
         <f>VLOOKUP(A19,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F19" s="95" t="str">
+      <c r="F19" s="86" t="str">
         <f>VLOOKUP(A19,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G19" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="145" t="s">
+      <c r="G19" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="145" t="s">
+      <c r="I19" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="145" t="str">
+      <c r="J19" s="135" t="str">
         <f>VLOOKUP(A19,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148">
+      <c r="K19" s="137"/>
+      <c r="L19" s="138">
         <f>VLOOKUP(A19,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M19" s="148">
+      <c r="M19" s="138">
         <f>VLOOKUP(A19,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N19" s="97"/>
-      <c r="O19" s="104"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="94"/>
     </row>
     <row r="20" spans="1:15" ht="42" customHeight="1">
-      <c r="A20" s="166">
+      <c r="A20" s="156">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="94">
+      <c r="B20" s="85">
         <v>1</v>
       </c>
-      <c r="C20" s="95" t="str">
+      <c r="C20" s="86" t="str">
         <f>VLOOKUP(B20,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D20" s="144" t="str">
+      <c r="D20" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A20,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A20,Planificación!B$13:G$48,3,FALSE))</f>
         <v>INPRUEX_Informe de Pruebas Externas / REQM</v>
       </c>
-      <c r="E20" s="95" t="str">
+      <c r="E20" s="86" t="str">
         <f>VLOOKUP(A20,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F20" s="95" t="str">
+      <c r="F20" s="86" t="str">
         <f>VLOOKUP(A20,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G20" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="145" t="s">
+      <c r="G20" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="145" t="s">
+      <c r="I20" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="145" t="str">
+      <c r="J20" s="135" t="str">
         <f>VLOOKUP(A20,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K20" s="147"/>
-      <c r="L20" s="148">
+      <c r="K20" s="137"/>
+      <c r="L20" s="138">
         <f>VLOOKUP(A20,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M20" s="148">
+      <c r="M20" s="138">
         <f>VLOOKUP(A20,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
-      <c r="N20" s="97"/>
-      <c r="O20" s="104"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="94"/>
     </row>
     <row r="21" spans="1:15" ht="42" customHeight="1">
-      <c r="A21" s="166">
+      <c r="A21" s="156">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="94">
+      <c r="B21" s="85">
         <v>1</v>
       </c>
-      <c r="C21" s="95" t="str">
+      <c r="C21" s="86" t="str">
         <f>VLOOKUP(B21,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D21" s="144" t="str">
+      <c r="D21" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A21,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A21,Planificación!B$13:G$48,3,FALSE))</f>
         <v>CHKQA_CheckList de Aseguramiento de Calidad / PPQA</v>
       </c>
-      <c r="E21" s="95" t="str">
+      <c r="E21" s="86" t="str">
         <f>VLOOKUP(A21,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F21" s="95" t="str">
+      <c r="F21" s="86" t="str">
         <f>VLOOKUP(A21,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G21" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="145" t="s">
+      <c r="G21" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="145" t="s">
+      <c r="I21" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="145" t="str">
+      <c r="J21" s="135" t="str">
         <f>VLOOKUP(A21,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K21" s="147"/>
-      <c r="L21" s="148">
+      <c r="K21" s="137"/>
+      <c r="L21" s="138">
         <f>VLOOKUP(A21,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M21" s="148">
+      <c r="M21" s="138">
         <f>VLOOKUP(A21,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N21" s="97"/>
-      <c r="O21" s="104"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="94"/>
     </row>
     <row r="22" spans="1:15" ht="42" customHeight="1">
-      <c r="A22" s="166">
+      <c r="A22" s="156">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="94">
+      <c r="B22" s="85">
         <v>1</v>
       </c>
-      <c r="C22" s="95" t="str">
+      <c r="C22" s="86" t="str">
         <f>VLOOKUP(B22,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D22" s="144" t="str">
+      <c r="D22" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A22,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A22,Planificación!B$13:G$48,3,FALSE))</f>
         <v>HGQA_Herramienta Gestion de Aseguramiento de Calidad / PPQA</v>
       </c>
-      <c r="E22" s="95" t="str">
+      <c r="E22" s="86" t="str">
         <f>VLOOKUP(A22,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F22" s="95" t="str">
+      <c r="F22" s="86" t="str">
         <f>VLOOKUP(A22,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G22" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="145" t="s">
+      <c r="G22" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="145" t="s">
+      <c r="I22" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="145" t="str">
+      <c r="J22" s="135" t="str">
         <f>VLOOKUP(A22,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K22" s="147"/>
-      <c r="L22" s="148">
+      <c r="K22" s="137"/>
+      <c r="L22" s="138">
         <f>VLOOKUP(A22,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M22" s="148">
+      <c r="M22" s="138">
         <f>VLOOKUP(A22,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N22" s="97"/>
-      <c r="O22" s="104"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="94"/>
     </row>
     <row r="23" spans="1:15" ht="42" customHeight="1">
-      <c r="A23" s="166">
+      <c r="A23" s="156">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="94">
+      <c r="B23" s="85">
         <v>1</v>
       </c>
-      <c r="C23" s="95" t="str">
+      <c r="C23" s="86" t="str">
         <f>VLOOKUP(B23,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D23" s="144" t="str">
+      <c r="D23" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A23,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A23,Planificación!B$13:G$48,3,FALSE))</f>
         <v>PQA_Proceso de Aseguramiento de Calidad / PPQA</v>
       </c>
-      <c r="E23" s="95" t="str">
+      <c r="E23" s="86" t="str">
         <f>VLOOKUP(A23,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F23" s="95" t="str">
+      <c r="F23" s="86" t="str">
         <f>VLOOKUP(A23,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G23" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="145" t="s">
+      <c r="G23" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I23" s="145" t="s">
+      <c r="I23" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="145" t="str">
+      <c r="J23" s="135" t="str">
         <f>VLOOKUP(A23,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148">
+      <c r="K23" s="137"/>
+      <c r="L23" s="138">
         <f>VLOOKUP(A23,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M23" s="148">
+      <c r="M23" s="138">
         <f>VLOOKUP(A23,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N23" s="97"/>
-      <c r="O23" s="104"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="94"/>
     </row>
     <row r="24" spans="1:15" ht="42" customHeight="1">
-      <c r="A24" s="166">
+      <c r="A24" s="156">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="94">
+      <c r="B24" s="85">
         <v>1</v>
       </c>
-      <c r="C24" s="95" t="str">
+      <c r="C24" s="86" t="str">
         <f>VLOOKUP(B24,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D24" s="144" t="str">
+      <c r="D24" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A24,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A24,Planificación!B$13:G$48,3,FALSE))</f>
         <v>SASQA_Solicitud de Aseguramiento de Calidad / PPQA</v>
       </c>
-      <c r="E24" s="95" t="str">
+      <c r="E24" s="86" t="str">
         <f>VLOOKUP(A24,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F24" s="95" t="str">
+      <c r="F24" s="86" t="str">
         <f>VLOOKUP(A24,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G24" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="145" t="s">
+      <c r="G24" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="145" t="s">
+      <c r="I24" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J24" s="145" t="str">
+      <c r="J24" s="135" t="str">
         <f>VLOOKUP(A24,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148">
+      <c r="K24" s="137"/>
+      <c r="L24" s="138">
         <f>VLOOKUP(A24,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M24" s="148">
+      <c r="M24" s="138">
         <f>VLOOKUP(A24,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N24" s="97"/>
-      <c r="O24" s="104"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="94"/>
     </row>
     <row r="25" spans="1:15" ht="42" customHeight="1">
-      <c r="A25" s="166">
+      <c r="A25" s="156">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="94">
+      <c r="B25" s="85">
         <v>1</v>
       </c>
-      <c r="C25" s="95" t="str">
+      <c r="C25" s="86" t="str">
         <f>VLOOKUP(B25,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D25" s="144" t="str">
+      <c r="D25" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A25,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A25,Planificación!B$13:G$48,3,FALSE))</f>
         <v>INREQA_Informe de Aseguramiento de Calidad / PPQA</v>
       </c>
-      <c r="E25" s="95" t="str">
+      <c r="E25" s="86" t="str">
         <f>VLOOKUP(A25,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F25" s="95" t="str">
+      <c r="F25" s="86" t="str">
         <f>VLOOKUP(A25,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G25" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="145" t="s">
+      <c r="G25" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="145" t="s">
+      <c r="I25" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="145" t="str">
+      <c r="J25" s="135" t="str">
         <f>VLOOKUP(A25,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148">
+      <c r="K25" s="137"/>
+      <c r="L25" s="138">
         <f>VLOOKUP(A25,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M25" s="148">
+      <c r="M25" s="138">
         <f>VLOOKUP(A25,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N25" s="97"/>
-      <c r="O25" s="104"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="94"/>
     </row>
     <row r="26" spans="1:15" ht="42" customHeight="1">
-      <c r="A26" s="166">
+      <c r="A26" s="156">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="94">
+      <c r="B26" s="85">
         <v>1</v>
       </c>
-      <c r="C26" s="95" t="str">
+      <c r="C26" s="86" t="str">
         <f>VLOOKUP(B26,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D26" s="144" t="str">
+      <c r="D26" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A26,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A26,Planificación!B$13:G$48,3,FALSE))</f>
         <v>PGC_Proceso de Gestion de Configuracion / CM</v>
       </c>
-      <c r="E26" s="95" t="str">
+      <c r="E26" s="86" t="str">
         <f>VLOOKUP(A26,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F26" s="95" t="str">
+      <c r="F26" s="86" t="str">
         <f>VLOOKUP(A26,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G26" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="145" t="s">
+      <c r="G26" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="145" t="s">
+      <c r="I26" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="145" t="str">
+      <c r="J26" s="135" t="str">
         <f>VLOOKUP(A26,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K26" s="147"/>
-      <c r="L26" s="148">
+      <c r="K26" s="137"/>
+      <c r="L26" s="138">
         <f>VLOOKUP(A26,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M26" s="148">
+      <c r="M26" s="138">
         <f>VLOOKUP(A26,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N26" s="97"/>
-      <c r="O26" s="104"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="94"/>
     </row>
     <row r="27" spans="1:15" ht="42" customHeight="1">
-      <c r="A27" s="166">
+      <c r="A27" s="156">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="94">
+      <c r="B27" s="85">
         <v>1</v>
       </c>
-      <c r="C27" s="95" t="str">
+      <c r="C27" s="86" t="str">
         <f>VLOOKUP(B27,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D27" s="144" t="str">
+      <c r="D27" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A27,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A27,Planificación!B$13:G$48,3,FALSE))</f>
         <v>SOLAC_Solicitud de Accesos / CM</v>
       </c>
-      <c r="E27" s="95" t="str">
+      <c r="E27" s="86" t="str">
         <f>VLOOKUP(A27,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F27" s="95" t="str">
+      <c r="F27" s="86" t="str">
         <f>VLOOKUP(A27,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G27" s="96" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="145" t="s">
+      <c r="G27" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="145" t="s">
+      <c r="I27" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="145" t="str">
+      <c r="J27" s="135" t="str">
         <f>VLOOKUP(A27,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148">
+      <c r="K27" s="137"/>
+      <c r="L27" s="138">
         <f>VLOOKUP(A27,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M27" s="148">
+      <c r="M27" s="138">
         <f>VLOOKUP(A27,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N27" s="97"/>
-      <c r="O27" s="104"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="94"/>
     </row>
     <row r="28" spans="1:15" ht="42" customHeight="1">
-      <c r="A28" s="166">
+      <c r="A28" s="156">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="94">
+      <c r="B28" s="85">
         <v>1</v>
       </c>
-      <c r="C28" s="95" t="str">
+      <c r="C28" s="86" t="str">
         <f>VLOOKUP(B28,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D28" s="144" t="str">
+      <c r="D28" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A28,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A28,Planificación!B$13:G$48,3,FALSE))</f>
         <v>REGITCONFIG_Registro de Items de Configuracion / CM</v>
       </c>
-      <c r="E28" s="95" t="str">
+      <c r="E28" s="86" t="str">
         <f>VLOOKUP(A28,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F28" s="95" t="str">
+      <c r="F28" s="86" t="str">
         <f>VLOOKUP(A28,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G28" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="145" t="s">
+      <c r="G28" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="145" t="s">
+      <c r="I28" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="145" t="str">
+      <c r="J28" s="135" t="str">
         <f>VLOOKUP(A28,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148">
+      <c r="K28" s="137"/>
+      <c r="L28" s="138">
         <f>VLOOKUP(A28,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M28" s="148">
+      <c r="M28" s="138">
         <f>VLOOKUP(A28,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N28" s="97"/>
-      <c r="O28" s="104"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="94"/>
     </row>
     <row r="29" spans="1:15" ht="42" customHeight="1">
-      <c r="A29" s="166">
+      <c r="A29" s="156">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="94">
+      <c r="B29" s="85">
         <v>1</v>
       </c>
-      <c r="C29" s="95" t="str">
+      <c r="C29" s="86" t="str">
         <f>VLOOKUP(B29,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D29" s="144" t="str">
+      <c r="D29" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A29,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A29,Planificación!B$13:G$48,3,FALSE))</f>
         <v>ICIC_Indice Cambios Items de Configuracion / CM</v>
       </c>
-      <c r="E29" s="95" t="str">
+      <c r="E29" s="86" t="str">
         <f>VLOOKUP(A29,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F29" s="95" t="str">
+      <c r="F29" s="86" t="str">
         <f>VLOOKUP(A29,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G29" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="145" t="s">
+      <c r="G29" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="I29" s="145" t="s">
+      <c r="I29" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="145" t="str">
+      <c r="J29" s="135" t="str">
         <f>VLOOKUP(A29,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148">
+      <c r="K29" s="137"/>
+      <c r="L29" s="138">
         <f>VLOOKUP(A29,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M29" s="148">
+      <c r="M29" s="138">
         <f>VLOOKUP(A29,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N29" s="97"/>
-      <c r="O29" s="104"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="94"/>
     </row>
     <row r="30" spans="1:15" ht="42" customHeight="1">
-      <c r="A30" s="166">
+      <c r="A30" s="156">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="94">
+      <c r="B30" s="85">
         <v>1</v>
       </c>
-      <c r="C30" s="95" t="str">
+      <c r="C30" s="86" t="str">
         <f>VLOOKUP(B30,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D30" s="144" t="str">
+      <c r="D30" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A30,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A30,Planificación!B$13:G$48,3,FALSE))</f>
         <v>IAUDICM_Informe de Auditoria de CM / CM</v>
       </c>
-      <c r="E30" s="95" t="str">
+      <c r="E30" s="86" t="str">
         <f>VLOOKUP(A30,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F30" s="95" t="str">
+      <c r="F30" s="86" t="str">
         <f>VLOOKUP(A30,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G30" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="145" t="s">
+      <c r="G30" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="145" t="s">
+      <c r="I30" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="145" t="str">
+      <c r="J30" s="135" t="str">
         <f>VLOOKUP(A30,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K30" s="147"/>
-      <c r="L30" s="148">
+      <c r="K30" s="137"/>
+      <c r="L30" s="138">
         <f>VLOOKUP(A30,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M30" s="148">
+      <c r="M30" s="138">
         <f>VLOOKUP(A30,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N30" s="97"/>
-      <c r="O30" s="104"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="94"/>
     </row>
     <row r="31" spans="1:15" ht="42" customHeight="1">
-      <c r="A31" s="166">
+      <c r="A31" s="156">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="94">
+      <c r="B31" s="85">
         <v>1</v>
       </c>
-      <c r="C31" s="95" t="str">
+      <c r="C31" s="86" t="str">
         <f>VLOOKUP(B31,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D31" s="144" t="str">
+      <c r="D31" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A31,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A31,Planificación!B$13:G$48,3,FALSE))</f>
         <v>PROMM_Proceso de Medicion de Metrica / MA</v>
       </c>
-      <c r="E31" s="95" t="str">
+      <c r="E31" s="86" t="str">
         <f>VLOOKUP(A31,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F31" s="95" t="str">
+      <c r="F31" s="86" t="str">
         <f>VLOOKUP(A31,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G31" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="145" t="s">
+      <c r="G31" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="145" t="s">
+      <c r="I31" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="145" t="str">
+      <c r="J31" s="135" t="str">
         <f>VLOOKUP(A31,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K31" s="147"/>
-      <c r="L31" s="148">
+      <c r="K31" s="137"/>
+      <c r="L31" s="138">
         <f>VLOOKUP(A31,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M31" s="148">
+      <c r="M31" s="138">
         <f>VLOOKUP(A31,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N31" s="97"/>
-      <c r="O31" s="134"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="124"/>
     </row>
     <row r="32" spans="1:15" ht="42" customHeight="1">
-      <c r="A32" s="166">
+      <c r="A32" s="156">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="94">
+      <c r="B32" s="85">
         <v>1</v>
       </c>
-      <c r="C32" s="95" t="str">
+      <c r="C32" s="86" t="str">
         <f>VLOOKUP(B32,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D32" s="144" t="str">
+      <c r="D32" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A32,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A32,Planificación!B$13:G$48,3,FALSE))</f>
         <v>TABM_Tablero de Metricas / MA</v>
       </c>
-      <c r="E32" s="95" t="str">
+      <c r="E32" s="86" t="str">
         <f>VLOOKUP(A32,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F32" s="95" t="str">
+      <c r="F32" s="86" t="str">
         <f>VLOOKUP(A32,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G32" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H32" s="145" t="s">
+      <c r="G32" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="145" t="s">
+      <c r="I32" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J32" s="145" t="str">
+      <c r="J32" s="135" t="str">
         <f>VLOOKUP(A32,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K32" s="147"/>
-      <c r="L32" s="148">
+      <c r="K32" s="137"/>
+      <c r="L32" s="138">
         <f>VLOOKUP(A32,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M32" s="148">
+      <c r="M32" s="138">
         <f>VLOOKUP(A32,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N32" s="97"/>
-      <c r="O32" s="134"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="124"/>
     </row>
     <row r="33" spans="1:15" ht="42" customHeight="1">
-      <c r="A33" s="166">
+      <c r="A33" s="156">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="94">
+      <c r="B33" s="85">
         <v>1</v>
       </c>
-      <c r="C33" s="95" t="str">
+      <c r="C33" s="86" t="str">
         <f>VLOOKUP(B33,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D33" s="144" t="str">
+      <c r="D33" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A33,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A33,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MNCONQAP_Metricas de N Conformidades QA de Producto / MA</v>
       </c>
-      <c r="E33" s="95" t="str">
+      <c r="E33" s="86" t="str">
         <f>VLOOKUP(A33,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F33" s="95" t="str">
+      <c r="F33" s="86" t="str">
         <f>VLOOKUP(A33,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G33" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="145" t="s">
+      <c r="G33" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I33" s="145" t="s">
+      <c r="I33" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="145" t="str">
+      <c r="J33" s="135" t="str">
         <f>VLOOKUP(A33,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K33" s="147"/>
-      <c r="L33" s="148">
+      <c r="K33" s="137"/>
+      <c r="L33" s="138">
         <f>VLOOKUP(A33,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M33" s="148">
+      <c r="M33" s="138">
         <f>VLOOKUP(A33,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N33" s="97"/>
-      <c r="O33" s="104"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="94"/>
     </row>
     <row r="34" spans="1:15" ht="42" customHeight="1">
-      <c r="A34" s="166">
+      <c r="A34" s="156">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="94">
+      <c r="B34" s="85">
         <v>1</v>
       </c>
-      <c r="C34" s="95" t="str">
+      <c r="C34" s="86" t="str">
         <f>VLOOKUP(B34,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D34" s="144" t="str">
+      <c r="D34" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A34,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A34,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MVREQM_Metricas de Volatilidad de Requerimientos / MA</v>
       </c>
-      <c r="E34" s="95" t="str">
+      <c r="E34" s="86" t="str">
         <f>VLOOKUP(A34,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="F34" s="95" t="str">
+      <c r="F34" s="86" t="str">
         <f>VLOOKUP(A34,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="G34" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H34" s="145" t="s">
+      <c r="G34" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="I34" s="145" t="s">
+      <c r="I34" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="145" t="str">
+      <c r="J34" s="135" t="str">
         <f>VLOOKUP(A34,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K34" s="147"/>
-      <c r="L34" s="148">
+      <c r="K34" s="137"/>
+      <c r="L34" s="138">
         <f>VLOOKUP(A34,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M34" s="148">
+      <c r="M34" s="138">
         <f>VLOOKUP(A34,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N34" s="97"/>
-      <c r="O34" s="104"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="94"/>
     </row>
     <row r="35" spans="1:15" ht="42" customHeight="1">
-      <c r="A35" s="166">
+      <c r="A35" s="156">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="94">
+      <c r="B35" s="85">
         <v>1</v>
       </c>
-      <c r="C35" s="95" t="str">
+      <c r="C35" s="86" t="str">
         <f>VLOOKUP(B35,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D35" s="144" t="str">
+      <c r="D35" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A35,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A35,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MICIC_Metrica de Indice de Cambios en Items de Configuracion / MA</v>
       </c>
-      <c r="E35" s="95" t="str">
+      <c r="E35" s="86" t="str">
         <f>VLOOKUP(A35,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F35" s="95" t="str">
+      <c r="F35" s="86" t="str">
         <f>VLOOKUP(A35,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G35" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" s="145" t="s">
+      <c r="G35" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="145" t="s">
+      <c r="I35" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="145" t="str">
+      <c r="J35" s="135" t="str">
         <f>VLOOKUP(A35,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K35" s="147"/>
-      <c r="L35" s="148">
+      <c r="K35" s="137"/>
+      <c r="L35" s="138">
         <f>VLOOKUP(A35,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M35" s="148">
+      <c r="M35" s="138">
         <f>VLOOKUP(A35,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N35" s="97"/>
-      <c r="O35" s="104"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="94"/>
     </row>
     <row r="36" spans="1:15" ht="42" customHeight="1">
-      <c r="A36" s="166">
+      <c r="A36" s="156">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="94">
+      <c r="B36" s="85">
         <v>1</v>
       </c>
-      <c r="C36" s="95" t="str">
+      <c r="C36" s="86" t="str">
         <f>VLOOKUP(B36,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D36" s="144" t="str">
+      <c r="D36" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A36,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A36,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MEXRI_Metrica de Exposicion al Riesgo / MA</v>
       </c>
-      <c r="E36" s="95" t="str">
+      <c r="E36" s="86" t="str">
         <f>VLOOKUP(A36,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="F36" s="95" t="str">
+      <c r="F36" s="86" t="str">
         <f>VLOOKUP(A36,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G36" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="145" t="s">
+      <c r="G36" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="145" t="s">
+      <c r="I36" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J36" s="145" t="str">
+      <c r="J36" s="135" t="str">
         <f>VLOOKUP(A36,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K36" s="147"/>
-      <c r="L36" s="148">
+      <c r="K36" s="137"/>
+      <c r="L36" s="138">
         <f>VLOOKUP(A36,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M36" s="148">
+      <c r="M36" s="138">
         <f>VLOOKUP(A36,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N36" s="97"/>
-      <c r="O36" s="104"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="94"/>
     </row>
     <row r="37" spans="1:15" ht="42" customHeight="1">
-      <c r="A37" s="166">
+      <c r="A37" s="156">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="94">
+      <c r="B37" s="85">
         <v>1</v>
       </c>
-      <c r="C37" s="95" t="str">
+      <c r="C37" s="86" t="str">
         <f>VLOOKUP(B37,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D37" s="144" t="str">
+      <c r="D37" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A37,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A37,Planificación!B$13:G$48,3,FALSE))</f>
         <v xml:space="preserve">AREINT_Acta de reunion Interna / </v>
       </c>
-      <c r="E37" s="95" t="str">
+      <c r="E37" s="86" t="str">
         <f>VLOOKUP(A37,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F37" s="95" t="str">
+      <c r="F37" s="86" t="str">
         <f>VLOOKUP(A37,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G37" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" s="145" t="s">
+      <c r="G37" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="145" t="s">
+      <c r="I37" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J37" s="145" t="str">
+      <c r="J37" s="135" t="str">
         <f>VLOOKUP(A37,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K37" s="147"/>
-      <c r="L37" s="148">
+      <c r="K37" s="137"/>
+      <c r="L37" s="138">
         <f>VLOOKUP(A37,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M37" s="148">
+      <c r="M37" s="138">
         <f>VLOOKUP(A37,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N37" s="97"/>
-      <c r="O37" s="104"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="94"/>
     </row>
     <row r="38" spans="1:15" ht="42" customHeight="1">
-      <c r="A38" s="166">
+      <c r="A38" s="156">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="94">
+      <c r="B38" s="85">
         <v>1</v>
       </c>
-      <c r="C38" s="95" t="str">
+      <c r="C38" s="86" t="str">
         <f>VLOOKUP(B38,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D38" s="144" t="str">
+      <c r="D38" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A38,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A38,Planificación!B$13:G$48,3,FALSE))</f>
         <v xml:space="preserve">IAQUIN_Informe Avance Quincenal / </v>
       </c>
-      <c r="E38" s="95" t="str">
+      <c r="E38" s="86" t="str">
         <f>VLOOKUP(A38,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F38" s="95" t="str">
+      <c r="F38" s="86" t="str">
         <f>VLOOKUP(A38,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G38" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="H38" s="145" t="s">
+      <c r="G38" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I38" s="145" t="s">
+      <c r="I38" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J38" s="145" t="str">
+      <c r="J38" s="135" t="str">
         <f>VLOOKUP(A38,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K38" s="147"/>
-      <c r="L38" s="148">
+      <c r="K38" s="137"/>
+      <c r="L38" s="138">
         <f>VLOOKUP(A38,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M38" s="148">
+      <c r="M38" s="138">
         <f>VLOOKUP(A38,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N38" s="97"/>
-      <c r="O38" s="104"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="94"/>
     </row>
     <row r="39" spans="1:15" ht="42" customHeight="1">
-      <c r="A39" s="166">
+      <c r="A39" s="156">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="94">
+      <c r="B39" s="85">
         <v>1</v>
       </c>
-      <c r="C39" s="95" t="str">
+      <c r="C39" s="86" t="str">
         <f>VLOOKUP(B39,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D39" s="144" t="str">
+      <c r="D39" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A39,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A39,Planificación!B$13:G$48,3,FALSE))</f>
         <v xml:space="preserve">ARQUIN_Actas de Reunion Quincenal / </v>
       </c>
-      <c r="E39" s="95" t="str">
+      <c r="E39" s="86" t="str">
         <f>VLOOKUP(A39,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F39" s="95" t="str">
+      <c r="F39" s="86" t="str">
         <f>VLOOKUP(A39,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G39" s="96" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" s="145" t="s">
+      <c r="G39" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="H39" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="145" t="s">
+      <c r="I39" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J39" s="145" t="str">
+      <c r="J39" s="135" t="str">
         <f>VLOOKUP(A39,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K39" s="147"/>
-      <c r="L39" s="148">
+      <c r="K39" s="137"/>
+      <c r="L39" s="138">
         <f>VLOOKUP(A39,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M39" s="148">
+      <c r="M39" s="138">
         <f>VLOOKUP(A39,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N39" s="97"/>
-      <c r="O39" s="104"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="94"/>
     </row>
     <row r="40" spans="1:15" ht="42" customHeight="1">
-      <c r="A40" s="166">
+      <c r="A40" s="156">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="94">
+      <c r="B40" s="85">
         <v>1</v>
       </c>
-      <c r="C40" s="95" t="str">
+      <c r="C40" s="86" t="str">
         <f>VLOOKUP(B40,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D40" s="144" t="str">
+      <c r="D40" s="134" t="str">
         <f>CONCATENATE(VLOOKUP(A40,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A40,Planificación!B$13:G$48,3,FALSE))</f>
         <v xml:space="preserve">AACENTRE_Acta de Aceptacion  de Entregables / </v>
       </c>
-      <c r="E40" s="95" t="str">
+      <c r="E40" s="86" t="str">
         <f>VLOOKUP(A40,Planificación!B$13:G$48,5,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="F40" s="95" t="str">
+      <c r="F40" s="86" t="str">
         <f>VLOOKUP(A40,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="G40" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" s="145" t="s">
+      <c r="G40" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I40" s="145" t="s">
+      <c r="I40" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="145" t="str">
+      <c r="J40" s="135" t="str">
         <f>VLOOKUP(A40,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K40" s="147"/>
-      <c r="L40" s="148">
+      <c r="K40" s="137"/>
+      <c r="L40" s="138">
         <f>VLOOKUP(A40,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M40" s="148">
+      <c r="M40" s="138">
         <f>VLOOKUP(A40,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
-      <c r="N40" s="97"/>
-      <c r="O40" s="104"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12386,8 +12361,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12403,111 +12378,111 @@
   <sheetData>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="247" t="s">
+      <c r="C2" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="231" t="str">
+      <c r="D4" s="237"/>
+      <c r="E4" s="219" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
         <v>Curi Basilio, Lenin Alfonso</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="221"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="245" t="str">
+      <c r="C5" s="238" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="246"/>
-      <c r="E5" s="231" t="str">
+      <c r="D5" s="239"/>
+      <c r="E5" s="219" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Quimper Salazar, Anatoli</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="232"/>
-      <c r="I5" s="233"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="221"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="229" t="s">
+      <c r="C6" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="231" t="str">
+      <c r="D6" s="241"/>
+      <c r="E6" s="219" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Calvo Guillen, Johann   Curi Basilio, Lenin Alfonso</v>
       </c>
-      <c r="F6" s="232"/>
-      <c r="G6" s="232"/>
-      <c r="H6" s="232"/>
-      <c r="I6" s="233"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="221"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="239">
+      <c r="D7" s="242"/>
+      <c r="E7" s="228">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>42276</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="241" t="s">
+      <c r="F7" s="229"/>
+      <c r="G7" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="242"/>
-      <c r="I7" s="176">
+      <c r="H7" s="245"/>
+      <c r="I7" s="163">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>42327</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="238" t="s">
+      <c r="C8" s="242" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="243"/>
-      <c r="E8" s="234" t="str">
+      <c r="E8" s="224" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>OCTUBRE</v>
       </c>
-      <c r="F8" s="235"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="236"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="226"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="M11" s="175"/>
+      <c r="M11" s="162"/>
     </row>
     <row r="13" spans="1:13" ht="15">
-      <c r="C13" s="237" t="s">
+      <c r="C13" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="237"/>
+      <c r="D13" s="227"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12516,244 +12491,250 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="142">
+      <c r="D14" s="132">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="C15" s="173" t="s">
+      <c r="C15" s="246" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="140">
+      <c r="D15" s="130">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="246" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="141">
+      <c r="D16" s="131">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
-      <c r="C17" s="173" t="s">
+    <row r="17" spans="2:14">
+      <c r="C17" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="89">
         <f>(D16/(IF(D14=0,1,D14)))</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
-      <c r="C18" s="173" t="s">
+    <row r="18" spans="2:14">
+      <c r="C18" s="246" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="89">
         <f>1-D17</f>
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="2:14">
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="106"/>
+    <row r="20" spans="2:14">
+      <c r="C20" s="96"/>
       <c r="D20" s="23"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="3:14">
-      <c r="C21" s="106"/>
+    <row r="21" spans="2:14">
+      <c r="C21" s="96"/>
       <c r="D21" s="23"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="106"/>
+    <row r="22" spans="2:14">
+      <c r="C22" s="96"/>
       <c r="D22" s="23"/>
       <c r="E22" s="9"/>
-      <c r="N22" s="137"/>
-    </row>
-    <row r="23" spans="3:14">
-      <c r="C23" s="106"/>
+      <c r="N22" s="127"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="C23" s="96"/>
       <c r="D23" s="23"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="3:14">
-      <c r="C24" s="106"/>
+    <row r="24" spans="2:14">
+      <c r="C24" s="96"/>
       <c r="D24" s="23"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="228" t="s">
+    <row r="26" spans="2:14" ht="15" customHeight="1">
+      <c r="C26" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="228"/>
-    </row>
-    <row r="27" spans="3:14">
-      <c r="C27" s="30" t="s">
+      <c r="D26" s="223"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="C27" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="248" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:14">
-      <c r="C28" s="172" t="s">
+    <row r="28" spans="2:14">
+      <c r="B28" s="162"/>
+      <c r="C28" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="143">
+      <c r="D28" s="133">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="3:14">
-      <c r="C29" s="172" t="s">
+    <row r="29" spans="2:14">
+      <c r="B29" s="162"/>
+      <c r="C29" s="249" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="143">
+      <c r="D29" s="133">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C29)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:14">
-      <c r="C30" s="172" t="s">
+    <row r="30" spans="2:14">
+      <c r="B30" s="162"/>
+      <c r="C30" s="249" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="143">
+      <c r="D30" s="133">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:14">
-      <c r="C31" s="172" t="s">
+    <row r="31" spans="2:14">
+      <c r="B31" s="162"/>
+      <c r="C31" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="143">
+      <c r="D31" s="133">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:14">
-      <c r="C32" s="172" t="s">
+    <row r="32" spans="2:14">
+      <c r="B32" s="162"/>
+      <c r="C32" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="143">
+      <c r="D32" s="133">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:16">
-      <c r="C33" s="172" t="s">
+    <row r="33" spans="2:16">
+      <c r="B33" s="162"/>
+      <c r="C33" s="249" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="143">
+      <c r="D33" s="133">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C33)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:16">
-      <c r="C34" s="99" t="s">
+    <row r="34" spans="2:16">
+      <c r="C34" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="109">
+      <c r="D34" s="99">
         <f>SUM(D28:D33)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="228" t="s">
+    <row r="40" spans="2:16" ht="15">
+      <c r="C40" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="228"/>
-      <c r="P40" s="137"/>
-    </row>
-    <row r="41" spans="3:16">
-      <c r="C41" s="177" t="s">
+      <c r="D40" s="223"/>
+      <c r="P40" s="127"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="162"/>
+      <c r="C41" s="250" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="108">
+      <c r="D41" s="98">
         <f>Planificación!N7</f>
         <v>82.5</v>
       </c>
     </row>
-    <row r="42" spans="3:16">
-      <c r="C42" s="177" t="s">
+    <row r="42" spans="2:16">
+      <c r="B42" s="162"/>
+      <c r="C42" s="250" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="108">
+      <c r="D42" s="98">
         <f>Planificación!N8</f>
         <v>41.5</v>
       </c>
     </row>
-    <row r="43" spans="3:16">
-      <c r="C43" s="177" t="s">
+    <row r="43" spans="2:16">
+      <c r="C43" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="108">
+      <c r="D43" s="98">
         <f>D42</f>
         <v>41.5</v>
       </c>
     </row>
-    <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="228" t="s">
+    <row r="57" spans="2:4" ht="15">
+      <c r="C57" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="228"/>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="30" t="s">
+      <c r="D57" s="223"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="C58" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="248" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="174" t="s">
+    <row r="59" spans="2:4">
+      <c r="B59" s="162"/>
+      <c r="C59" s="256" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="138">
+      <c r="D59" s="128">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I40,C59)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="174" t="s">
+    <row r="60" spans="2:4">
+      <c r="B60" s="162"/>
+      <c r="C60" s="256" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="108">
+      <c r="D60" s="98">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I40,C60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="174" t="s">
+    <row r="61" spans="2:4">
+      <c r="B61" s="162"/>
+      <c r="C61" s="256" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="108">
+      <c r="D61" s="98">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I40,C61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:4">
-      <c r="C62" s="99" t="s">
+    <row r="62" spans="2:4">
+      <c r="C62" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="109">
+      <c r="D62" s="99">
         <f>SUM(D59:D61)</f>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -12765,6 +12746,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12784,8 +12770,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12799,322 +12785,322 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="170" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="149" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="149" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A3" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="168" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A4" s="121"/>
+      <c r="B4" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="168" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A5" s="121"/>
+      <c r="B5" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="168" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A6" s="121"/>
+      <c r="B6" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="168" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="95"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A7" s="121"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="169" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="95"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="117" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="117" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="117" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" s="121"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="117" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="117" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="117" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="117" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="117" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A31" s="121"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A32" s="121"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A33" s="121"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="120" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A35" s="121"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="159" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="159" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="159" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="159" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A3" s="248" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="249" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="116" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" s="131"/>
-      <c r="B4" s="132" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="249" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="116" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="249" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="116" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="249" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="105"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="131"/>
-      <c r="B7" s="252"/>
-      <c r="C7" s="250" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="105"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A8" s="131"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="131"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A10" s="131"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="127" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A36" s="121"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="117" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A37" s="121"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="117" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A12" s="131"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="127" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A13" s="131"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A14" s="131"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A15" s="131"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="127" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="127" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A17" s="131"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="128" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A18" s="131"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="127" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A19" s="131"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="127" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A20" s="131"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="127" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A21" s="131"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="127" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A22" s="131"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="127" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A23" s="131"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="127" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A24" s="131"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="127" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A25" s="131"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="127" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A26" s="131"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="127" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A27" s="131"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="127" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A28" s="131"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="127" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A29" s="131"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="127" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A30" s="131"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="129" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A31" s="131"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="127" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A32" s="131"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="127" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A33" s="131"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="127" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A34" s="131"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="130" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A35" s="131"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="127" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A36" s="131"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="127" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A37" s="131"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="127" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A38" s="131"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="127" t="s">
-        <v>189</v>
+      <c r="A38" s="121"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="117" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="95"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Area de proceso PPQA/HGQAPROD_V0.1_2015.xlsx
+++ b/Area de proceso PPQA/HGQAPROD_V0.1_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McPherson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aol.UTP\12\Proyecto I\Proyecto TopBody\SistemaDeMatricula-ParaSocios-TopBody\Area de proceso PPQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="642" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7890" tabRatio="642" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -1869,7 +1869,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2258,10 +2258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2400,105 +2396,204 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="28" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="28" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="29" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2508,42 +2603,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2556,6 +2615,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="55" fillId="29" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2568,136 +2638,62 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="55" fillId="29" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="28" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="28" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="29" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3083,10 +3079,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4479,12 +4475,12 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:shape val="box"/>
-        <c:axId val="272006992"/>
-        <c:axId val="272007552"/>
+        <c:axId val="662894016"/>
+        <c:axId val="662896368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="272006992"/>
+        <c:axId val="662894016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,7 +4579,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272007552"/>
+        <c:crossAx val="662896368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4593,7 +4589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="272007552"/>
+        <c:axId val="662896368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4707,7 +4703,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272006992"/>
+        <c:crossAx val="662894016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7125,6 +7121,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>740077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="76200"/>
+          <a:ext cx="1209674" cy="663877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7256,6 +7296,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>330502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="47625"/>
+          <a:ext cx="1209674" cy="663877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7650,15 +7734,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="57"/>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
       <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -7674,50 +7758,50 @@
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
       <c r="A4" s="57"/>
-      <c r="B4" s="253" t="s">
+      <c r="B4" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="254" t="s">
+      <c r="C4" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="254" t="s">
+      <c r="D4" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="254" t="s">
+      <c r="F4" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="254" t="s">
+      <c r="G4" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="255" t="s">
+      <c r="H4" s="187" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="36">
       <c r="A5" s="57"/>
-      <c r="B5" s="234">
+      <c r="B5" s="175">
         <v>1</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="174" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="232">
+      <c r="D5" s="173">
         <v>42297</v>
       </c>
-      <c r="E5" s="231" t="s">
+      <c r="E5" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="231" t="s">
+      <c r="F5" s="172" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="230" t="s">
+      <c r="G5" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="235" t="s">
+      <c r="H5" s="176" t="s">
         <v>206</v>
       </c>
       <c r="I5" s="57"/>
@@ -7791,7 +7875,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -7809,22 +7893,22 @@
     <row r="2" spans="1:8" s="53" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="54"/>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="202" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="195"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="204"/>
     </row>
     <row r="3" spans="1:8" s="53" customFormat="1">
       <c r="A3" s="32"/>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="202"/>
-      <c r="E3" s="203"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="212"/>
     </row>
     <row r="4" spans="1:8" s="53" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="32"/>
@@ -7836,12 +7920,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="32"/>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="198"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="207"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="32"/>
@@ -7860,14 +7944,14 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="32"/>
-      <c r="B8" s="236" t="s">
+      <c r="B8" s="177" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="77"/>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="200"/>
+      <c r="E8" s="209"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="32"/>
@@ -7882,10 +7966,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="53"/>
-      <c r="D10" s="204" t="s">
+      <c r="D10" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="204"/>
+      <c r="E10" s="216"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="32"/>
@@ -7896,14 +7980,14 @@
     </row>
     <row r="12" spans="1:8" ht="12" customHeight="1">
       <c r="A12" s="32"/>
-      <c r="B12" s="252" t="s">
+      <c r="B12" s="184" t="s">
         <v>93</v>
       </c>
       <c r="C12" s="53"/>
-      <c r="D12" s="204" t="s">
+      <c r="D12" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="204"/>
+      <c r="E12" s="216"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="32"/>
@@ -7918,10 +8002,10 @@
         <v>93</v>
       </c>
       <c r="C14" s="53"/>
-      <c r="D14" s="204" t="s">
+      <c r="D14" s="216" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="204"/>
+      <c r="E14" s="216"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="30"/>
@@ -7936,10 +8020,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="53"/>
-      <c r="D16" s="204" t="s">
+      <c r="D16" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="204"/>
+      <c r="E16" s="216"/>
       <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8" s="44" customFormat="1" ht="12" customHeight="1">
@@ -7953,62 +8037,62 @@
       <c r="A18" s="30"/>
     </row>
     <row r="19" spans="1:8" s="49" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="189"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="198"/>
     </row>
     <row r="20" spans="1:8" s="49" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="190" t="s">
+      <c r="C20" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="191"/>
-      <c r="E20" s="192"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="201"/>
     </row>
     <row r="21" spans="1:8" s="49" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="179"/>
-      <c r="E21" s="180"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="215"/>
     </row>
     <row r="22" spans="1:8" s="49" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="178" t="s">
+      <c r="C22" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="179"/>
-      <c r="E22" s="180"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="215"/>
     </row>
     <row r="23" spans="1:8" s="49" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="178" t="s">
+      <c r="C23" s="213" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="179"/>
-      <c r="E23" s="180"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
     </row>
     <row r="24" spans="1:8" s="49" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="178" t="s">
+      <c r="C24" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="179"/>
-      <c r="E24" s="180"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="215"/>
     </row>
     <row r="25" spans="1:8" s="49" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="51"/>
@@ -8021,57 +8105,57 @@
       <c r="B26" s="42"/>
     </row>
     <row r="27" spans="1:8" s="49" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="187" t="s">
+      <c r="B27" s="196" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="189"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
     </row>
     <row r="28" spans="1:8" s="49" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="190" t="s">
+      <c r="C28" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="191"/>
-      <c r="E28" s="192"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="201"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="30"/>
-      <c r="B29" s="184" t="s">
+      <c r="B29" s="217" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="186"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="219"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="30"/>
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="192"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="30"/>
-      <c r="B31" s="148" t="s">
+      <c r="B31" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="174" t="s">
+      <c r="C31" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="192"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
     </row>
@@ -8080,11 +8164,11 @@
       <c r="B32" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="192"/>
       <c r="F32" s="49"/>
       <c r="G32" s="49"/>
     </row>
@@ -8093,11 +8177,11 @@
       <c r="B33" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="174" t="s">
+      <c r="C33" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="192"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49"/>
     </row>
@@ -8106,174 +8190,174 @@
       <c r="B34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="174" t="s">
+      <c r="C34" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="175"/>
-      <c r="E34" s="176"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="192"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="30"/>
       <c r="B35" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="174" t="s">
+      <c r="C35" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="175"/>
-      <c r="E35" s="176"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="192"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="30"/>
-      <c r="B36" s="184" t="s">
+      <c r="B36" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="185"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="186"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="219"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="30"/>
       <c r="B37" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="174" t="s">
+      <c r="C37" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="175"/>
-      <c r="E37" s="176"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="192"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="30"/>
       <c r="B38" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="174" t="s">
+      <c r="C38" s="190" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="175"/>
-      <c r="E38" s="176"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="192"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="30"/>
       <c r="B39" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="174" t="s">
+      <c r="C39" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="175"/>
-      <c r="E39" s="176"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="192"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="30"/>
       <c r="B40" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="174" t="s">
+      <c r="C40" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="175"/>
-      <c r="E40" s="176"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="192"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="30"/>
       <c r="B41" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="174" t="s">
+      <c r="C41" s="190" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="175"/>
-      <c r="E41" s="176"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="30"/>
       <c r="B42" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="174" t="s">
+      <c r="C42" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="175"/>
-      <c r="E42" s="176"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="192"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="30"/>
       <c r="B43" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="174" t="s">
+      <c r="C43" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="175"/>
-      <c r="E43" s="176"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="192"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="174" t="s">
+      <c r="C44" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="175"/>
-      <c r="E44" s="176"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="192"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="30"/>
       <c r="B45" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="174" t="s">
+      <c r="C45" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="175"/>
-      <c r="E45" s="176"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="192"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="174" t="s">
+      <c r="C46" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="175"/>
-      <c r="E46" s="176"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="192"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="30"/>
       <c r="B47" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="174" t="s">
+      <c r="C47" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="175"/>
-      <c r="E47" s="176"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="192"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="30"/>
       <c r="B48" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="174" t="s">
+      <c r="C48" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="175"/>
-      <c r="E48" s="176"/>
+      <c r="D48" s="191"/>
+      <c r="E48" s="192"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="174" t="s">
+      <c r="C49" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="175"/>
-      <c r="E49" s="176"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="192"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="49"/>
@@ -8306,23 +8390,23 @@
       <c r="M51" s="31"/>
     </row>
     <row r="52" spans="1:13" s="49" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="187" t="s">
+      <c r="B52" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="189"/>
+      <c r="C52" s="197"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="198"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="49"/>
       <c r="B53" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="190" t="s">
+      <c r="C53" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="191"/>
-      <c r="E53" s="192"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="201"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
       <c r="H53" s="49"/>
@@ -8337,132 +8421,132 @@
       <c r="B54" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="174" t="s">
+      <c r="C54" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="175"/>
-      <c r="E54" s="176"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="192"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="174" t="s">
+      <c r="C55" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="175"/>
-      <c r="E55" s="176"/>
+      <c r="D55" s="191"/>
+      <c r="E55" s="192"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="174" t="s">
+      <c r="C56" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="175"/>
-      <c r="E56" s="176"/>
+      <c r="D56" s="191"/>
+      <c r="E56" s="192"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="174" t="s">
+      <c r="C57" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="181"/>
-      <c r="E57" s="182"/>
+      <c r="D57" s="194"/>
+      <c r="E57" s="195"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="30"/>
       <c r="B58" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="174" t="s">
+      <c r="C58" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="181"/>
-      <c r="E58" s="182"/>
+      <c r="D58" s="194"/>
+      <c r="E58" s="195"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="30"/>
       <c r="B59" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="174" t="s">
+      <c r="C59" s="190" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="181"/>
-      <c r="E59" s="182"/>
+      <c r="D59" s="194"/>
+      <c r="E59" s="195"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="30"/>
       <c r="B60" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="174" t="s">
+      <c r="C60" s="190" t="s">
         <v>105</v>
       </c>
-      <c r="D60" s="181"/>
-      <c r="E60" s="182"/>
+      <c r="D60" s="194"/>
+      <c r="E60" s="195"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="30"/>
       <c r="B61" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="183" t="s">
+      <c r="C61" s="193" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="181"/>
-      <c r="E61" s="182"/>
+      <c r="D61" s="194"/>
+      <c r="E61" s="195"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="174" t="s">
+      <c r="C62" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="181"/>
-      <c r="E62" s="182"/>
+      <c r="D62" s="194"/>
+      <c r="E62" s="195"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="183" t="s">
+      <c r="C63" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="181"/>
-      <c r="E63" s="182"/>
+      <c r="D63" s="194"/>
+      <c r="E63" s="195"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="183" t="s">
+      <c r="C64" s="193" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="181"/>
-      <c r="E64" s="182"/>
+      <c r="D64" s="194"/>
+      <c r="E64" s="195"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="174" t="s">
+      <c r="C65" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="175"/>
-      <c r="E65" s="176"/>
+      <c r="D65" s="191"/>
+      <c r="E65" s="192"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="30"/>
@@ -8473,200 +8557,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="30"/>
-      <c r="B67" s="177"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="177"/>
-      <c r="E67" s="177"/>
+      <c r="B67" s="221"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
+      <c r="E67" s="221"/>
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
       <c r="H67" s="48"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="30"/>
-      <c r="B68" s="173"/>
-      <c r="C68" s="173"/>
-      <c r="D68" s="173"/>
-      <c r="E68" s="173"/>
+      <c r="B68" s="220"/>
+      <c r="C68" s="220"/>
+      <c r="D68" s="220"/>
+      <c r="E68" s="220"/>
       <c r="F68" s="48"/>
       <c r="G68" s="48"/>
       <c r="H68" s="48"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="30"/>
-      <c r="B69" s="173"/>
-      <c r="C69" s="173"/>
-      <c r="D69" s="173"/>
-      <c r="E69" s="173"/>
+      <c r="B69" s="220"/>
+      <c r="C69" s="220"/>
+      <c r="D69" s="220"/>
+      <c r="E69" s="220"/>
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
       <c r="H69" s="48"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="30"/>
-      <c r="B70" s="173"/>
-      <c r="C70" s="173"/>
-      <c r="D70" s="173"/>
-      <c r="E70" s="173"/>
+      <c r="B70" s="220"/>
+      <c r="C70" s="220"/>
+      <c r="D70" s="220"/>
+      <c r="E70" s="220"/>
       <c r="F70" s="48"/>
       <c r="G70" s="48"/>
       <c r="H70" s="48"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="30"/>
-      <c r="B71" s="173"/>
-      <c r="C71" s="173"/>
-      <c r="D71" s="173"/>
-      <c r="E71" s="173"/>
+      <c r="B71" s="220"/>
+      <c r="C71" s="220"/>
+      <c r="D71" s="220"/>
+      <c r="E71" s="220"/>
       <c r="F71" s="48"/>
       <c r="G71" s="48"/>
       <c r="H71" s="48"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="30"/>
-      <c r="B72" s="173"/>
-      <c r="C72" s="173"/>
-      <c r="D72" s="173"/>
-      <c r="E72" s="173"/>
+      <c r="B72" s="220"/>
+      <c r="C72" s="220"/>
+      <c r="D72" s="220"/>
+      <c r="E72" s="220"/>
       <c r="F72" s="48"/>
       <c r="G72" s="48"/>
       <c r="H72" s="48"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="34"/>
-      <c r="B73" s="173"/>
-      <c r="C73" s="173"/>
-      <c r="D73" s="173"/>
-      <c r="E73" s="173"/>
+      <c r="B73" s="220"/>
+      <c r="C73" s="220"/>
+      <c r="D73" s="220"/>
+      <c r="E73" s="220"/>
       <c r="F73" s="48"/>
       <c r="G73" s="48"/>
       <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="30"/>
-      <c r="B74" s="173"/>
-      <c r="C74" s="173"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="173"/>
+      <c r="B74" s="220"/>
+      <c r="C74" s="220"/>
+      <c r="D74" s="220"/>
+      <c r="E74" s="220"/>
       <c r="F74" s="48"/>
       <c r="G74" s="48"/>
       <c r="H74" s="48"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="30"/>
-      <c r="B75" s="173"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="173"/>
-      <c r="E75" s="173"/>
+      <c r="B75" s="220"/>
+      <c r="C75" s="220"/>
+      <c r="D75" s="220"/>
+      <c r="E75" s="220"/>
       <c r="F75" s="48"/>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="30"/>
-      <c r="B76" s="173"/>
-      <c r="C76" s="173"/>
-      <c r="D76" s="173"/>
-      <c r="E76" s="173"/>
+      <c r="B76" s="220"/>
+      <c r="C76" s="220"/>
+      <c r="D76" s="220"/>
+      <c r="E76" s="220"/>
       <c r="F76" s="48"/>
       <c r="G76" s="48"/>
       <c r="H76" s="48"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="30"/>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
-      <c r="E77" s="173"/>
+      <c r="B77" s="220"/>
+      <c r="C77" s="220"/>
+      <c r="D77" s="220"/>
+      <c r="E77" s="220"/>
       <c r="F77" s="48"/>
       <c r="G77" s="48"/>
       <c r="H77" s="48"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="30"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
-      <c r="E78" s="173"/>
+      <c r="B78" s="220"/>
+      <c r="C78" s="220"/>
+      <c r="D78" s="220"/>
+      <c r="E78" s="220"/>
       <c r="F78" s="48"/>
       <c r="G78" s="48"/>
       <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="34"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
-      <c r="E79" s="173"/>
+      <c r="B79" s="220"/>
+      <c r="C79" s="220"/>
+      <c r="D79" s="220"/>
+      <c r="E79" s="220"/>
       <c r="F79" s="48"/>
       <c r="G79" s="48"/>
       <c r="H79" s="48"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="34"/>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
-      <c r="E80" s="173"/>
+      <c r="B80" s="220"/>
+      <c r="C80" s="220"/>
+      <c r="D80" s="220"/>
+      <c r="E80" s="220"/>
       <c r="F80" s="48"/>
       <c r="G80" s="48"/>
       <c r="H80" s="48"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="34"/>
-      <c r="B81" s="173"/>
-      <c r="C81" s="173"/>
-      <c r="D81" s="173"/>
-      <c r="E81" s="173"/>
+      <c r="B81" s="220"/>
+      <c r="C81" s="220"/>
+      <c r="D81" s="220"/>
+      <c r="E81" s="220"/>
       <c r="F81" s="48"/>
       <c r="G81" s="48"/>
       <c r="H81" s="48"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="34"/>
-      <c r="B82" s="173"/>
-      <c r="C82" s="173"/>
-      <c r="D82" s="173"/>
-      <c r="E82" s="173"/>
+      <c r="B82" s="220"/>
+      <c r="C82" s="220"/>
+      <c r="D82" s="220"/>
+      <c r="E82" s="220"/>
       <c r="F82" s="48"/>
       <c r="G82" s="48"/>
       <c r="H82" s="48"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="34"/>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
+      <c r="B83" s="220"/>
+      <c r="C83" s="220"/>
+      <c r="D83" s="220"/>
+      <c r="E83" s="220"/>
       <c r="F83" s="48"/>
       <c r="G83" s="48"/>
       <c r="H83" s="48"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="34"/>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
+      <c r="B84" s="220"/>
+      <c r="C84" s="220"/>
+      <c r="D84" s="220"/>
+      <c r="E84" s="220"/>
       <c r="F84" s="48"/>
       <c r="G84" s="48"/>
       <c r="H84" s="48"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="34"/>
-      <c r="B85" s="173"/>
-      <c r="C85" s="173"/>
-      <c r="D85" s="173"/>
-      <c r="E85" s="173"/>
+      <c r="B85" s="220"/>
+      <c r="C85" s="220"/>
+      <c r="D85" s="220"/>
+      <c r="E85" s="220"/>
       <c r="F85" s="48"/>
       <c r="G85" s="48"/>
       <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="34"/>
-      <c r="B86" s="173"/>
-      <c r="C86" s="173"/>
-      <c r="D86" s="173"/>
-      <c r="E86" s="173"/>
+      <c r="B86" s="220"/>
+      <c r="C86" s="220"/>
+      <c r="D86" s="220"/>
+      <c r="E86" s="220"/>
       <c r="F86" s="48"/>
       <c r="G86" s="48"/>
       <c r="H86" s="48"/>
@@ -8679,40 +8763,27 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8729,27 +8800,40 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8765,7 +8849,7 @@
   </sheetPr>
   <dimension ref="A3:Y53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -8774,7 +8858,7 @@
     <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="22.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="158" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="157" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="3" customWidth="1"/>
@@ -8787,96 +8871,96 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="231" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="231"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209" t="s">
+      <c r="C6" s="224"/>
+      <c r="D6" s="225" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="232"/>
+      <c r="H6" s="232"/>
       <c r="N6" s="123"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="209" t="s">
+      <c r="C7" s="224"/>
+      <c r="D7" s="225" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="210"/>
-      <c r="F7" s="211"/>
-      <c r="I7" s="212" t="s">
+      <c r="E7" s="226"/>
+      <c r="F7" s="227"/>
+      <c r="I7" s="222" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="146">
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="145">
         <f>SUM(J13:J48)</f>
         <v>82.5</v>
       </c>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209" t="s">
+      <c r="C8" s="224"/>
+      <c r="D8" s="225" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="210"/>
-      <c r="F8" s="211"/>
-      <c r="I8" s="212" t="s">
+      <c r="E8" s="226"/>
+      <c r="F8" s="227"/>
+      <c r="I8" s="222" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="212"/>
-      <c r="N8" s="146">
+      <c r="J8" s="222"/>
+      <c r="K8" s="222"/>
+      <c r="L8" s="222"/>
+      <c r="M8" s="222"/>
+      <c r="N8" s="145">
         <f>SUM(M13:M48)</f>
         <v>41.5</v>
       </c>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="208"/>
+      <c r="C9" s="224"/>
       <c r="D9" s="113">
         <v>42276</v>
       </c>
-      <c r="E9" s="154" t="s">
+      <c r="E9" s="153" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="109">
@@ -8887,97 +8971,97 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="208"/>
-      <c r="D10" s="213" t="s">
+      <c r="C10" s="224"/>
+      <c r="D10" s="228" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="214"/>
-      <c r="F10" s="215"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="230"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="159"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="19"/>
       <c r="Y11" s="20"/>
     </row>
     <row r="12" spans="2:25" s="108" customFormat="1" ht="38.25">
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="150" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="151" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="151" t="s">
+      <c r="E12" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="152" t="s">
+      <c r="F12" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="152" t="s">
+      <c r="G12" s="151" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="153" t="s">
+      <c r="H12" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="153" t="s">
+      <c r="I12" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="153" t="s">
+      <c r="J12" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="153" t="s">
+      <c r="K12" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="153" t="s">
+      <c r="L12" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="153" t="s">
+      <c r="M12" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="153" t="s">
+      <c r="N12" s="152" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:25" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B13" s="151">
+      <c r="B13" s="150">
         <v>1</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="141" t="s">
+      <c r="E13" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="145" t="s">
+      <c r="F13" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="145" t="s">
+      <c r="G13" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="166">
+      <c r="H13" s="165">
         <v>42248</v>
       </c>
-      <c r="I13" s="166">
+      <c r="I13" s="165">
         <v>42273</v>
       </c>
       <c r="J13" s="111">
         <v>3</v>
       </c>
-      <c r="K13" s="166">
+      <c r="K13" s="165">
         <v>42254</v>
       </c>
-      <c r="L13" s="166">
+      <c r="L13" s="165">
         <v>42271</v>
       </c>
       <c r="M13" s="111">
@@ -8986,37 +9070,37 @@
       <c r="N13" s="112"/>
     </row>
     <row r="14" spans="2:25" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B14" s="151">
+      <c r="B14" s="150">
         <v>2</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="157" t="s">
+      <c r="D14" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="141" t="s">
+      <c r="E14" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="145" t="s">
+      <c r="F14" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="145" t="s">
+      <c r="G14" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="166">
+      <c r="H14" s="165">
         <v>42248</v>
       </c>
-      <c r="I14" s="166">
+      <c r="I14" s="165">
         <v>42273</v>
       </c>
       <c r="J14" s="111">
         <v>3</v>
       </c>
-      <c r="K14" s="166">
+      <c r="K14" s="165">
         <v>42254</v>
       </c>
-      <c r="L14" s="166">
+      <c r="L14" s="165">
         <v>42271</v>
       </c>
       <c r="M14" s="111">
@@ -9025,37 +9109,37 @@
       <c r="N14" s="112"/>
     </row>
     <row r="15" spans="2:25" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B15" s="151">
+      <c r="B15" s="150">
         <v>3</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="157" t="s">
+      <c r="D15" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="141" t="s">
+      <c r="E15" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="145" t="s">
+      <c r="F15" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="145" t="s">
+      <c r="G15" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="166">
+      <c r="H15" s="165">
         <v>42248</v>
       </c>
-      <c r="I15" s="166">
+      <c r="I15" s="165">
         <v>42273</v>
       </c>
       <c r="J15" s="111">
         <v>3</v>
       </c>
-      <c r="K15" s="166">
+      <c r="K15" s="165">
         <v>42254</v>
       </c>
-      <c r="L15" s="166">
+      <c r="L15" s="165">
         <v>42271</v>
       </c>
       <c r="M15" s="111">
@@ -9064,38 +9148,38 @@
       <c r="N15" s="112"/>
     </row>
     <row r="16" spans="2:25" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B16" s="151">
+      <c r="B16" s="150">
         <v>4</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="157" t="s">
+      <c r="D16" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="141" t="s">
+      <c r="E16" s="140" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="145" t="s">
+      <c r="F16" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="145" t="s">
+      <c r="G16" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="166">
+      <c r="H16" s="165">
         <v>42248</v>
       </c>
-      <c r="I16" s="166">
+      <c r="I16" s="165">
         <v>42273</v>
       </c>
       <c r="J16" s="111">
         <f>1.5+1</f>
         <v>2.5</v>
       </c>
-      <c r="K16" s="166">
+      <c r="K16" s="165">
         <v>42254</v>
       </c>
-      <c r="L16" s="166">
+      <c r="L16" s="165">
         <v>42271</v>
       </c>
       <c r="M16" s="111">
@@ -9104,37 +9188,37 @@
       <c r="N16" s="112"/>
     </row>
     <row r="17" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B17" s="151">
+      <c r="B17" s="150">
         <v>5</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="157" t="s">
+      <c r="D17" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="141" t="s">
+      <c r="E17" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="145" t="s">
+      <c r="F17" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="145" t="s">
+      <c r="G17" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="166">
+      <c r="H17" s="165">
         <v>42248</v>
       </c>
-      <c r="I17" s="166">
+      <c r="I17" s="165">
         <v>42273</v>
       </c>
       <c r="J17" s="111">
         <v>3</v>
       </c>
-      <c r="K17" s="166">
+      <c r="K17" s="165">
         <v>42254</v>
       </c>
-      <c r="L17" s="166">
+      <c r="L17" s="165">
         <v>42271</v>
       </c>
       <c r="M17" s="111">
@@ -9143,37 +9227,37 @@
       <c r="N17" s="112"/>
     </row>
     <row r="18" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B18" s="151">
+      <c r="B18" s="150">
         <v>6</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="157" t="s">
+      <c r="D18" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="141" t="s">
+      <c r="E18" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="145" t="s">
+      <c r="F18" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G18" s="145" t="s">
+      <c r="G18" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="166">
+      <c r="H18" s="165">
         <v>42285</v>
       </c>
-      <c r="I18" s="166">
+      <c r="I18" s="165">
         <v>42298</v>
       </c>
       <c r="J18" s="111">
         <v>2</v>
       </c>
-      <c r="K18" s="166">
+      <c r="K18" s="165">
         <v>42286</v>
       </c>
-      <c r="L18" s="166">
+      <c r="L18" s="165">
         <v>42297</v>
       </c>
       <c r="M18" s="111">
@@ -9182,37 +9266,37 @@
       <c r="N18" s="112"/>
     </row>
     <row r="19" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B19" s="151">
+      <c r="B19" s="150">
         <v>7</v>
       </c>
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="157" t="s">
+      <c r="D19" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="141" t="s">
+      <c r="E19" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="145" t="s">
+      <c r="F19" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="145" t="s">
+      <c r="G19" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="166">
+      <c r="H19" s="165">
         <v>42285</v>
       </c>
-      <c r="I19" s="166">
+      <c r="I19" s="165">
         <v>42298</v>
       </c>
       <c r="J19" s="111">
         <v>1.5</v>
       </c>
-      <c r="K19" s="166">
+      <c r="K19" s="165">
         <v>42286</v>
       </c>
-      <c r="L19" s="166">
+      <c r="L19" s="165">
         <v>42297</v>
       </c>
       <c r="M19" s="111">
@@ -9221,37 +9305,37 @@
       <c r="N19" s="112"/>
     </row>
     <row r="20" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B20" s="151">
+      <c r="B20" s="150">
         <v>8</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="142" t="s">
+      <c r="E20" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="145" t="s">
+      <c r="F20" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="145" t="s">
+      <c r="G20" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="166">
+      <c r="H20" s="165">
         <v>42285</v>
       </c>
-      <c r="I20" s="166">
+      <c r="I20" s="165">
         <v>42298</v>
       </c>
       <c r="J20" s="111">
         <v>2.5</v>
       </c>
-      <c r="K20" s="166">
+      <c r="K20" s="165">
         <v>42286</v>
       </c>
-      <c r="L20" s="166">
+      <c r="L20" s="165">
         <v>42297</v>
       </c>
       <c r="M20" s="111">
@@ -9260,37 +9344,37 @@
       <c r="N20" s="112"/>
     </row>
     <row r="21" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B21" s="151">
+      <c r="B21" s="150">
         <v>9</v>
       </c>
-      <c r="C21" s="143" t="s">
+      <c r="C21" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="157" t="s">
+      <c r="D21" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="142" t="s">
+      <c r="E21" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="145" t="s">
+      <c r="F21" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="145" t="s">
+      <c r="G21" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="166">
+      <c r="H21" s="165">
         <v>42285</v>
       </c>
-      <c r="I21" s="166">
+      <c r="I21" s="165">
         <v>42298</v>
       </c>
       <c r="J21" s="111">
         <v>3</v>
       </c>
-      <c r="K21" s="166">
+      <c r="K21" s="165">
         <v>42286</v>
       </c>
-      <c r="L21" s="166">
+      <c r="L21" s="165">
         <v>42297</v>
       </c>
       <c r="M21" s="111">
@@ -9299,37 +9383,37 @@
       <c r="N21" s="112"/>
     </row>
     <row r="22" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B22" s="151">
+      <c r="B22" s="150">
         <v>10</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="157" t="s">
+      <c r="D22" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="142" t="s">
+      <c r="E22" s="141" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="145" t="s">
+      <c r="F22" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="145" t="s">
+      <c r="G22" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="166">
+      <c r="H22" s="165">
         <v>42285</v>
       </c>
-      <c r="I22" s="166">
+      <c r="I22" s="165">
         <v>42298</v>
       </c>
       <c r="J22" s="111">
         <v>3</v>
       </c>
-      <c r="K22" s="166">
+      <c r="K22" s="165">
         <v>42286</v>
       </c>
-      <c r="L22" s="166">
+      <c r="L22" s="165">
         <v>42297</v>
       </c>
       <c r="M22" s="111">
@@ -9338,37 +9422,37 @@
       <c r="N22" s="112"/>
     </row>
     <row r="23" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B23" s="151">
+      <c r="B23" s="150">
         <v>11</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="157" t="s">
+      <c r="D23" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="142" t="s">
+      <c r="E23" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="145" t="s">
+      <c r="F23" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="145" t="s">
+      <c r="G23" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="166">
+      <c r="H23" s="165">
         <v>42285</v>
       </c>
-      <c r="I23" s="166">
+      <c r="I23" s="165">
         <v>42298</v>
       </c>
       <c r="J23" s="111">
         <v>3</v>
       </c>
-      <c r="K23" s="166">
+      <c r="K23" s="165">
         <v>42286</v>
       </c>
-      <c r="L23" s="166">
+      <c r="L23" s="165">
         <v>42297</v>
       </c>
       <c r="M23" s="111">
@@ -9377,37 +9461,37 @@
       <c r="N23" s="112"/>
     </row>
     <row r="24" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B24" s="151">
+      <c r="B24" s="150">
         <v>12</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="157" t="s">
+      <c r="D24" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="142" t="s">
+      <c r="E24" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="145" t="s">
+      <c r="F24" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="145" t="s">
+      <c r="G24" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="H24" s="166">
+      <c r="H24" s="165">
         <v>42285</v>
       </c>
-      <c r="I24" s="166">
+      <c r="I24" s="165">
         <v>42298</v>
       </c>
       <c r="J24" s="111">
         <v>3</v>
       </c>
-      <c r="K24" s="166">
+      <c r="K24" s="165">
         <v>42286</v>
       </c>
-      <c r="L24" s="166">
+      <c r="L24" s="165">
         <v>42297</v>
       </c>
       <c r="M24" s="111">
@@ -9416,37 +9500,37 @@
       <c r="N24" s="112"/>
     </row>
     <row r="25" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B25" s="151">
+      <c r="B25" s="150">
         <v>13</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="157" t="s">
+      <c r="D25" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="142" t="s">
+      <c r="E25" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="145" t="s">
+      <c r="F25" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="145" t="s">
+      <c r="G25" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="H25" s="166">
+      <c r="H25" s="165">
         <v>42285</v>
       </c>
-      <c r="I25" s="166">
+      <c r="I25" s="165">
         <v>42298</v>
       </c>
       <c r="J25" s="111">
         <v>2</v>
       </c>
-      <c r="K25" s="166">
+      <c r="K25" s="165">
         <v>42286</v>
       </c>
-      <c r="L25" s="166">
+      <c r="L25" s="165">
         <v>42297</v>
       </c>
       <c r="M25" s="111">
@@ -9455,37 +9539,37 @@
       <c r="N25" s="112"/>
     </row>
     <row r="26" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B26" s="151">
+      <c r="B26" s="150">
         <v>14</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="157" t="s">
+      <c r="D26" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="145" t="s">
+      <c r="G26" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="166">
+      <c r="H26" s="165">
         <v>42285</v>
       </c>
-      <c r="I26" s="166">
+      <c r="I26" s="165">
         <v>42298</v>
       </c>
       <c r="J26" s="111">
         <v>2.5</v>
       </c>
-      <c r="K26" s="166">
+      <c r="K26" s="165">
         <v>42286</v>
       </c>
-      <c r="L26" s="166">
+      <c r="L26" s="165">
         <v>42297</v>
       </c>
       <c r="M26" s="111">
@@ -9495,37 +9579,37 @@
     </row>
     <row r="27" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A27" s="110"/>
-      <c r="B27" s="151">
+      <c r="B27" s="150">
         <v>15</v>
       </c>
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="157" t="s">
+      <c r="D27" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="144" t="s">
+      <c r="E27" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="145" t="s">
+      <c r="F27" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="145" t="s">
+      <c r="G27" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="166">
+      <c r="H27" s="165">
         <v>42285</v>
       </c>
-      <c r="I27" s="166">
+      <c r="I27" s="165">
         <v>42298</v>
       </c>
       <c r="J27" s="111">
         <v>2</v>
       </c>
-      <c r="K27" s="166">
+      <c r="K27" s="165">
         <v>42286</v>
       </c>
-      <c r="L27" s="166">
+      <c r="L27" s="165">
         <v>42297</v>
       </c>
       <c r="M27" s="111">
@@ -9535,37 +9619,37 @@
     </row>
     <row r="28" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A28" s="110"/>
-      <c r="B28" s="151">
+      <c r="B28" s="150">
         <v>16</v>
       </c>
-      <c r="C28" s="140" t="s">
+      <c r="C28" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="157" t="s">
+      <c r="D28" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="142" t="s">
+      <c r="E28" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="145" t="s">
+      <c r="F28" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="145" t="s">
+      <c r="G28" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="166">
+      <c r="H28" s="165">
         <v>42285</v>
       </c>
-      <c r="I28" s="166">
+      <c r="I28" s="165">
         <v>42298</v>
       </c>
       <c r="J28" s="111">
         <v>1.5</v>
       </c>
-      <c r="K28" s="166">
+      <c r="K28" s="165">
         <v>42286</v>
       </c>
-      <c r="L28" s="166">
+      <c r="L28" s="165">
         <v>42297</v>
       </c>
       <c r="M28" s="111">
@@ -9575,37 +9659,37 @@
     </row>
     <row r="29" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A29" s="110"/>
-      <c r="B29" s="151">
+      <c r="B29" s="150">
         <v>17</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="160" t="s">
+      <c r="D29" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="142" t="s">
+      <c r="E29" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="145" t="s">
+      <c r="F29" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="145" t="s">
+      <c r="G29" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="166">
+      <c r="H29" s="165">
         <v>42276</v>
       </c>
-      <c r="I29" s="166">
+      <c r="I29" s="165">
         <v>42296</v>
       </c>
       <c r="J29" s="111">
         <v>3</v>
       </c>
-      <c r="K29" s="166">
+      <c r="K29" s="165">
         <v>42286</v>
       </c>
-      <c r="L29" s="166">
+      <c r="L29" s="165">
         <v>42299</v>
       </c>
       <c r="M29" s="111">
@@ -9615,37 +9699,37 @@
     </row>
     <row r="30" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A30" s="110"/>
-      <c r="B30" s="151">
+      <c r="B30" s="150">
         <v>18</v>
       </c>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="160" t="s">
+      <c r="D30" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="142" t="s">
+      <c r="E30" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="145" t="s">
+      <c r="F30" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="145" t="s">
+      <c r="G30" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="166">
+      <c r="H30" s="165">
         <v>42276</v>
       </c>
-      <c r="I30" s="166">
+      <c r="I30" s="165">
         <v>42296</v>
       </c>
       <c r="J30" s="111">
         <v>3</v>
       </c>
-      <c r="K30" s="166">
+      <c r="K30" s="165">
         <v>42286</v>
       </c>
-      <c r="L30" s="166">
+      <c r="L30" s="165">
         <v>42299</v>
       </c>
       <c r="M30" s="111">
@@ -9655,37 +9739,37 @@
     </row>
     <row r="31" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A31" s="110"/>
-      <c r="B31" s="151">
+      <c r="B31" s="150">
         <v>19</v>
       </c>
-      <c r="C31" s="143" t="s">
+      <c r="C31" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="160" t="s">
+      <c r="D31" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="142" t="s">
+      <c r="E31" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="145" t="s">
+      <c r="F31" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="145" t="s">
+      <c r="G31" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="166">
+      <c r="H31" s="165">
         <v>42276</v>
       </c>
-      <c r="I31" s="166">
+      <c r="I31" s="165">
         <v>42296</v>
       </c>
       <c r="J31" s="111">
         <v>2</v>
       </c>
-      <c r="K31" s="166">
+      <c r="K31" s="165">
         <v>42286</v>
       </c>
-      <c r="L31" s="166">
+      <c r="L31" s="165">
         <v>42299</v>
       </c>
       <c r="M31" s="111">
@@ -9695,37 +9779,37 @@
     </row>
     <row r="32" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A32" s="110"/>
-      <c r="B32" s="151">
+      <c r="B32" s="150">
         <v>20</v>
       </c>
-      <c r="C32" s="140" t="s">
+      <c r="C32" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="160" t="s">
+      <c r="D32" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="142" t="s">
+      <c r="E32" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="145" t="s">
+      <c r="F32" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G32" s="145" t="s">
+      <c r="G32" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="166">
+      <c r="H32" s="165">
         <v>42276</v>
       </c>
-      <c r="I32" s="166">
+      <c r="I32" s="165">
         <v>42296</v>
       </c>
       <c r="J32" s="111">
         <v>1.5</v>
       </c>
-      <c r="K32" s="166">
+      <c r="K32" s="165">
         <v>42286</v>
       </c>
-      <c r="L32" s="166">
+      <c r="L32" s="165">
         <v>42299</v>
       </c>
       <c r="M32" s="111">
@@ -9735,37 +9819,37 @@
     </row>
     <row r="33" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A33" s="110"/>
-      <c r="B33" s="151">
+      <c r="B33" s="150">
         <v>21</v>
       </c>
-      <c r="C33" s="143" t="s">
+      <c r="C33" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="160" t="s">
+      <c r="D33" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="142" t="s">
+      <c r="E33" s="141" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="145" t="s">
+      <c r="F33" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G33" s="145" t="s">
+      <c r="G33" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H33" s="166">
+      <c r="H33" s="165">
         <v>42276</v>
       </c>
-      <c r="I33" s="166">
+      <c r="I33" s="165">
         <v>42296</v>
       </c>
       <c r="J33" s="111">
         <v>2.5</v>
       </c>
-      <c r="K33" s="166">
+      <c r="K33" s="165">
         <v>42286</v>
       </c>
-      <c r="L33" s="166">
+      <c r="L33" s="165">
         <v>42299</v>
       </c>
       <c r="M33" s="111">
@@ -9775,37 +9859,37 @@
     </row>
     <row r="34" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A34" s="110"/>
-      <c r="B34" s="151">
+      <c r="B34" s="150">
         <v>22</v>
       </c>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="157" t="s">
+      <c r="D34" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="142" t="s">
+      <c r="E34" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="145" t="s">
+      <c r="F34" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="145" t="s">
+      <c r="G34" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H34" s="166">
+      <c r="H34" s="165">
         <v>42276</v>
       </c>
-      <c r="I34" s="166">
+      <c r="I34" s="165">
         <v>42296</v>
       </c>
       <c r="J34" s="111">
         <v>2.5</v>
       </c>
-      <c r="K34" s="166">
+      <c r="K34" s="165">
         <v>42286</v>
       </c>
-      <c r="L34" s="166">
+      <c r="L34" s="165">
         <v>42299</v>
       </c>
       <c r="M34" s="111">
@@ -9815,37 +9899,37 @@
     </row>
     <row r="35" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A35" s="110"/>
-      <c r="B35" s="151">
+      <c r="B35" s="150">
         <v>23</v>
       </c>
-      <c r="C35" s="143" t="s">
+      <c r="C35" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="157" t="s">
+      <c r="D35" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="142" t="s">
+      <c r="E35" s="141" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="145" t="s">
+      <c r="F35" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="145" t="s">
+      <c r="G35" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H35" s="166">
+      <c r="H35" s="165">
         <v>42276</v>
       </c>
-      <c r="I35" s="166">
+      <c r="I35" s="165">
         <v>42296</v>
       </c>
       <c r="J35" s="111">
         <v>2</v>
       </c>
-      <c r="K35" s="166">
+      <c r="K35" s="165">
         <v>42286</v>
       </c>
-      <c r="L35" s="166">
+      <c r="L35" s="165">
         <v>42299</v>
       </c>
       <c r="M35" s="111">
@@ -9855,37 +9939,37 @@
     </row>
     <row r="36" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A36" s="110"/>
-      <c r="B36" s="151">
+      <c r="B36" s="150">
         <v>24</v>
       </c>
-      <c r="C36" s="143" t="s">
+      <c r="C36" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="157" t="s">
+      <c r="D36" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="142" t="s">
+      <c r="E36" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="F36" s="145" t="s">
+      <c r="F36" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G36" s="145" t="s">
+      <c r="G36" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="166">
+      <c r="H36" s="165">
         <v>42276</v>
       </c>
-      <c r="I36" s="166">
+      <c r="I36" s="165">
         <v>42296</v>
       </c>
       <c r="J36" s="111">
         <v>3</v>
       </c>
-      <c r="K36" s="166">
+      <c r="K36" s="165">
         <v>42286</v>
       </c>
-      <c r="L36" s="166">
+      <c r="L36" s="165">
         <v>42299</v>
       </c>
       <c r="M36" s="111">
@@ -9895,37 +9979,37 @@
     </row>
     <row r="37" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A37" s="110"/>
-      <c r="B37" s="151">
+      <c r="B37" s="150">
         <v>25</v>
       </c>
-      <c r="C37" s="143" t="s">
+      <c r="C37" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="157" t="s">
+      <c r="D37" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="142" t="s">
+      <c r="E37" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="145" t="s">
+      <c r="F37" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="145" t="s">
+      <c r="G37" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="166">
+      <c r="H37" s="165">
         <v>42276</v>
       </c>
-      <c r="I37" s="166">
+      <c r="I37" s="165">
         <v>42296</v>
       </c>
       <c r="J37" s="111">
         <v>3</v>
       </c>
-      <c r="K37" s="166">
+      <c r="K37" s="165">
         <v>42286</v>
       </c>
-      <c r="L37" s="166">
+      <c r="L37" s="165">
         <v>42299</v>
       </c>
       <c r="M37" s="111">
@@ -9935,37 +10019,37 @@
     </row>
     <row r="38" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A38" s="110"/>
-      <c r="B38" s="151">
+      <c r="B38" s="150">
         <v>26</v>
       </c>
-      <c r="C38" s="143" t="s">
+      <c r="C38" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="157" t="s">
+      <c r="D38" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="142" t="s">
+      <c r="E38" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="145" t="s">
+      <c r="F38" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="145" t="s">
+      <c r="G38" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="166">
+      <c r="H38" s="165">
         <v>42276</v>
       </c>
-      <c r="I38" s="166">
+      <c r="I38" s="165">
         <v>42296</v>
       </c>
       <c r="J38" s="111">
         <v>2</v>
       </c>
-      <c r="K38" s="166">
+      <c r="K38" s="165">
         <v>42286</v>
       </c>
-      <c r="L38" s="166">
+      <c r="L38" s="165">
         <v>42299</v>
       </c>
       <c r="M38" s="111">
@@ -9975,37 +10059,37 @@
     </row>
     <row r="39" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A39" s="110"/>
-      <c r="B39" s="151">
+      <c r="B39" s="150">
         <v>27</v>
       </c>
-      <c r="C39" s="143" t="s">
+      <c r="C39" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="157" t="s">
+      <c r="D39" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="142" t="s">
+      <c r="E39" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="145" t="s">
+      <c r="F39" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G39" s="145" t="s">
+      <c r="G39" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="166">
+      <c r="H39" s="165">
         <v>42276</v>
       </c>
-      <c r="I39" s="166">
+      <c r="I39" s="165">
         <v>42296</v>
       </c>
       <c r="J39" s="111">
         <v>2</v>
       </c>
-      <c r="K39" s="166">
+      <c r="K39" s="165">
         <v>42286</v>
       </c>
-      <c r="L39" s="166">
+      <c r="L39" s="165">
         <v>42299</v>
       </c>
       <c r="M39" s="111">
@@ -10015,37 +10099,37 @@
     </row>
     <row r="40" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A40" s="110"/>
-      <c r="B40" s="151">
+      <c r="B40" s="150">
         <v>28</v>
       </c>
-      <c r="C40" s="143" t="s">
+      <c r="C40" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="157" t="s">
+      <c r="D40" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="142" t="s">
+      <c r="E40" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="145" t="s">
+      <c r="F40" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="145" t="s">
+      <c r="G40" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H40" s="166">
+      <c r="H40" s="165">
         <v>42276</v>
       </c>
-      <c r="I40" s="166">
+      <c r="I40" s="165">
         <v>42296</v>
       </c>
       <c r="J40" s="111">
         <v>1.5</v>
       </c>
-      <c r="K40" s="166">
+      <c r="K40" s="165">
         <v>42286</v>
       </c>
-      <c r="L40" s="166">
+      <c r="L40" s="165">
         <v>42299</v>
       </c>
       <c r="M40" s="111">
@@ -10055,37 +10139,37 @@
     </row>
     <row r="41" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A41" s="110"/>
-      <c r="B41" s="151">
+      <c r="B41" s="150">
         <v>29</v>
       </c>
-      <c r="C41" s="143" t="s">
+      <c r="C41" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="157" t="s">
+      <c r="D41" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="142" t="s">
+      <c r="E41" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="F41" s="145" t="s">
+      <c r="F41" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="145" t="s">
+      <c r="G41" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="166">
+      <c r="H41" s="165">
         <v>42276</v>
       </c>
-      <c r="I41" s="166">
+      <c r="I41" s="165">
         <v>42296</v>
       </c>
       <c r="J41" s="111">
         <v>3</v>
       </c>
-      <c r="K41" s="166">
+      <c r="K41" s="165">
         <v>42286</v>
       </c>
-      <c r="L41" s="166">
+      <c r="L41" s="165">
         <v>42299</v>
       </c>
       <c r="M41" s="111">
@@ -10095,37 +10179,37 @@
     </row>
     <row r="42" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A42" s="110"/>
-      <c r="B42" s="151">
+      <c r="B42" s="150">
         <v>30</v>
       </c>
-      <c r="C42" s="143" t="s">
+      <c r="C42" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="157" t="s">
+      <c r="D42" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="142" t="s">
+      <c r="E42" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="145" t="s">
+      <c r="F42" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="145" t="s">
+      <c r="G42" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="166">
+      <c r="H42" s="165">
         <v>42276</v>
       </c>
-      <c r="I42" s="166">
+      <c r="I42" s="165">
         <v>42296</v>
       </c>
       <c r="J42" s="111">
         <v>2</v>
       </c>
-      <c r="K42" s="166">
+      <c r="K42" s="165">
         <v>42286</v>
       </c>
-      <c r="L42" s="166">
+      <c r="L42" s="165">
         <v>42299</v>
       </c>
       <c r="M42" s="111">
@@ -10135,37 +10219,37 @@
     </row>
     <row r="43" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A43" s="110"/>
-      <c r="B43" s="151">
+      <c r="B43" s="150">
         <v>31</v>
       </c>
-      <c r="C43" s="143" t="s">
+      <c r="C43" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="157" t="s">
+      <c r="D43" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="142" t="s">
+      <c r="E43" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="145" t="s">
+      <c r="F43" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G43" s="145" t="s">
+      <c r="G43" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H43" s="166">
+      <c r="H43" s="165">
         <v>42276</v>
       </c>
-      <c r="I43" s="166">
+      <c r="I43" s="165">
         <v>42296</v>
       </c>
       <c r="J43" s="111">
         <v>1.5</v>
       </c>
-      <c r="K43" s="166">
+      <c r="K43" s="165">
         <v>42286</v>
       </c>
-      <c r="L43" s="166">
+      <c r="L43" s="165">
         <v>42299</v>
       </c>
       <c r="M43" s="111">
@@ -10175,37 +10259,37 @@
     </row>
     <row r="44" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A44" s="110"/>
-      <c r="B44" s="151">
+      <c r="B44" s="150">
         <v>32</v>
       </c>
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="157" t="s">
+      <c r="D44" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="141" t="s">
+      <c r="E44" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="F44" s="145" t="s">
+      <c r="F44" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="G44" s="145" t="s">
+      <c r="G44" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="166">
+      <c r="H44" s="165">
         <v>42276</v>
       </c>
-      <c r="I44" s="166">
+      <c r="I44" s="165">
         <v>42296</v>
       </c>
       <c r="J44" s="111">
         <v>2</v>
       </c>
-      <c r="K44" s="166">
+      <c r="K44" s="165">
         <v>42286</v>
       </c>
-      <c r="L44" s="166">
+      <c r="L44" s="165">
         <v>42299</v>
       </c>
       <c r="M44" s="111">
@@ -10215,35 +10299,35 @@
     </row>
     <row r="45" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A45" s="110"/>
-      <c r="B45" s="151">
+      <c r="B45" s="150">
         <v>33</v>
       </c>
-      <c r="C45" s="143" t="s">
+      <c r="C45" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="157"/>
-      <c r="E45" s="141" t="s">
+      <c r="D45" s="156"/>
+      <c r="E45" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="145" t="s">
+      <c r="F45" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G45" s="145" t="s">
+      <c r="G45" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H45" s="166">
+      <c r="H45" s="165">
         <v>42276</v>
       </c>
-      <c r="I45" s="166">
+      <c r="I45" s="165">
         <v>42296</v>
       </c>
       <c r="J45" s="111">
         <v>1</v>
       </c>
-      <c r="K45" s="166">
+      <c r="K45" s="165">
         <v>42286</v>
       </c>
-      <c r="L45" s="166">
+      <c r="L45" s="165">
         <v>42299</v>
       </c>
       <c r="M45" s="111">
@@ -10253,35 +10337,35 @@
     </row>
     <row r="46" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A46" s="110"/>
-      <c r="B46" s="151">
+      <c r="B46" s="150">
         <v>34</v>
       </c>
-      <c r="C46" s="143" t="s">
+      <c r="C46" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="157"/>
-      <c r="E46" s="141" t="s">
+      <c r="D46" s="156"/>
+      <c r="E46" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="145" t="s">
+      <c r="F46" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G46" s="145" t="s">
+      <c r="G46" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="166">
+      <c r="H46" s="165">
         <v>42276</v>
       </c>
-      <c r="I46" s="166">
+      <c r="I46" s="165">
         <v>42296</v>
       </c>
       <c r="J46" s="111">
         <v>1</v>
       </c>
-      <c r="K46" s="166">
+      <c r="K46" s="165">
         <v>42286</v>
       </c>
-      <c r="L46" s="166">
+      <c r="L46" s="165">
         <v>42299</v>
       </c>
       <c r="M46" s="111">
@@ -10291,35 +10375,35 @@
     </row>
     <row r="47" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A47" s="110"/>
-      <c r="B47" s="151">
+      <c r="B47" s="150">
         <v>35</v>
       </c>
-      <c r="C47" s="143" t="s">
+      <c r="C47" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="157"/>
-      <c r="E47" s="141" t="s">
+      <c r="D47" s="156"/>
+      <c r="E47" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="145" t="s">
+      <c r="F47" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G47" s="145" t="s">
+      <c r="G47" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H47" s="166">
+      <c r="H47" s="165">
         <v>42276</v>
       </c>
-      <c r="I47" s="166">
+      <c r="I47" s="165">
         <v>42296</v>
       </c>
       <c r="J47" s="111">
         <v>2</v>
       </c>
-      <c r="K47" s="166">
+      <c r="K47" s="165">
         <v>42286</v>
       </c>
-      <c r="L47" s="166">
+      <c r="L47" s="165">
         <v>42299</v>
       </c>
       <c r="M47" s="111">
@@ -10329,35 +10413,35 @@
     </row>
     <row r="48" spans="1:14" s="108" customFormat="1" ht="32.1" customHeight="1">
       <c r="A48" s="110"/>
-      <c r="B48" s="151">
+      <c r="B48" s="150">
         <v>36</v>
       </c>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="157"/>
-      <c r="E48" s="141" t="s">
+      <c r="D48" s="156"/>
+      <c r="E48" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="F48" s="145" t="s">
+      <c r="F48" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="145" t="s">
+      <c r="G48" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="H48" s="166">
+      <c r="H48" s="165">
         <v>42276</v>
       </c>
-      <c r="I48" s="166">
+      <c r="I48" s="165">
         <v>42296</v>
       </c>
       <c r="J48" s="111">
         <v>1.5</v>
       </c>
-      <c r="K48" s="166">
+      <c r="K48" s="165">
         <v>42286</v>
       </c>
-      <c r="L48" s="166">
+      <c r="L48" s="165">
         <v>42299</v>
       </c>
       <c r="M48" s="111">
@@ -10375,7 +10459,7 @@
     <row r="50" spans="1:13">
       <c r="A50" s="8"/>
       <c r="B50" s="6"/>
-      <c r="D50" s="161"/>
+      <c r="D50" s="160"/>
       <c r="E50" s="7"/>
       <c r="J50" s="115"/>
       <c r="K50" s="115"/>
@@ -10391,12 +10475,6 @@
     <row r="53" spans="1:13" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
@@ -10404,6 +10482,12 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10461,10 +10545,10 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -10486,22 +10570,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="235"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -10525,54 +10609,54 @@
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="150" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="G4" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="155" t="s">
+      <c r="J4" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="155" t="s">
+      <c r="K4" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="155" t="s">
+      <c r="L4" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="155" t="s">
+      <c r="M4" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="155" t="s">
+      <c r="N4" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="155" t="s">
+      <c r="O4" s="154" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1">
-      <c r="A5" s="156">
+      <c r="A5" s="155">
         <v>1</v>
       </c>
       <c r="B5" s="85">
@@ -10582,7 +10666,7 @@
         <f>VLOOKUP(B5,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="134" t="str">
+      <c r="D5" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A5,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A5,Planificación!B$13:G$22,3,FALSE))</f>
         <v>PGPRO_Proceso de Gestión / PP_PMC</v>
       </c>
@@ -10597,22 +10681,22 @@
       <c r="G5" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="135" t="s">
+      <c r="I5" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="135" t="str">
+      <c r="J5" s="134" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K5" s="137"/>
-      <c r="L5" s="138">
+      <c r="K5" s="136"/>
+      <c r="L5" s="137">
         <f>VLOOKUP(A5,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M5" s="138">
+      <c r="M5" s="137">
         <f>VLOOKUP(A5,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
@@ -10620,7 +10704,7 @@
       <c r="O5" s="125"/>
     </row>
     <row r="6" spans="1:15" ht="42" customHeight="1">
-      <c r="A6" s="156">
+      <c r="A6" s="155">
         <f>A5+1</f>
         <v>2</v>
       </c>
@@ -10631,7 +10715,7 @@
         <f>VLOOKUP(B6,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="134" t="str">
+      <c r="D6" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A6,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A6,Planificación!B$13:G$22,3,FALSE))</f>
         <v>PPRO_Plan de Proyecto / PP_PMC</v>
       </c>
@@ -10643,25 +10727,25 @@
         <f>VLOOKUP(A6,Planificación!$B$13:$G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="G6" s="164" t="s">
+      <c r="G6" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="135" t="s">
+      <c r="I6" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="135" t="str">
+      <c r="J6" s="134" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K6" s="137"/>
-      <c r="L6" s="138">
+      <c r="K6" s="136"/>
+      <c r="L6" s="137">
         <f>VLOOKUP(A6,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M6" s="138">
+      <c r="M6" s="137">
         <f>VLOOKUP(A6,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
@@ -10669,7 +10753,7 @@
       <c r="O6" s="124"/>
     </row>
     <row r="7" spans="1:15" ht="42" customHeight="1">
-      <c r="A7" s="156">
+      <c r="A7" s="155">
         <f t="shared" ref="A7:A40" si="0">A6+1</f>
         <v>3</v>
       </c>
@@ -10680,7 +10764,7 @@
         <f>VLOOKUP(B7,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="134" t="str">
+      <c r="D7" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A7,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A7,Planificación!B$13:G$22,3,FALSE))</f>
         <v>CPRO_Cronograma de Proyecto / PP_PMC</v>
       </c>
@@ -10695,22 +10779,22 @@
       <c r="G7" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="135" t="s">
+      <c r="H7" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="135" t="str">
+      <c r="J7" s="134" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K7" s="137"/>
-      <c r="L7" s="138">
+      <c r="K7" s="136"/>
+      <c r="L7" s="137">
         <f>VLOOKUP(A7,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M7" s="138">
+      <c r="M7" s="137">
         <f>VLOOKUP(A7,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
@@ -10718,7 +10802,7 @@
       <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:15" ht="42" customHeight="1">
-      <c r="A8" s="156">
+      <c r="A8" s="155">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -10729,7 +10813,7 @@
         <f>VLOOKUP(B8,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="134" t="str">
+      <c r="D8" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A8,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A8,Planificación!B$13:G$22,3,FALSE))</f>
         <v>REGRI_Registro de Riesgos / PP_PMC</v>
       </c>
@@ -10744,22 +10828,22 @@
       <c r="G8" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="H8" s="136" t="s">
+      <c r="H8" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="136" t="s">
+      <c r="I8" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="135" t="str">
+      <c r="J8" s="134" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="138">
+      <c r="K8" s="138"/>
+      <c r="L8" s="137">
         <f>VLOOKUP(A8,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M8" s="138">
+      <c r="M8" s="137">
         <f>VLOOKUP(A8,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
@@ -10767,7 +10851,7 @@
       <c r="O8" s="104"/>
     </row>
     <row r="9" spans="1:15" ht="42" customHeight="1">
-      <c r="A9" s="156">
+      <c r="A9" s="155">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10778,7 +10862,7 @@
         <f>VLOOKUP(B9,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="134" t="str">
+      <c r="D9" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A9,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A9,Planificación!B$13:G$22,3,FALSE))</f>
         <v>ACCPRO_Acta de Cierre de Proyecto / PP_PMC</v>
       </c>
@@ -10793,22 +10877,22 @@
       <c r="G9" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="135" t="str">
+      <c r="J9" s="134" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K9" s="139"/>
-      <c r="L9" s="138">
+      <c r="K9" s="138"/>
+      <c r="L9" s="137">
         <f>VLOOKUP(A9,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42273</v>
       </c>
-      <c r="M9" s="138">
+      <c r="M9" s="137">
         <f>VLOOKUP(A9,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42271</v>
       </c>
@@ -10816,7 +10900,7 @@
       <c r="O9" s="104"/>
     </row>
     <row r="10" spans="1:15" ht="42" customHeight="1">
-      <c r="A10" s="156">
+      <c r="A10" s="155">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -10827,7 +10911,7 @@
         <f>VLOOKUP(B10,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="134" t="str">
+      <c r="D10" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A10,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A10,Planificación!B$13:G$22,3,FALSE))</f>
         <v>PGREQM_Proceso de Gestion de Requerimientos / REQM</v>
       </c>
@@ -10842,22 +10926,22 @@
       <c r="G10" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="135" t="s">
+      <c r="H10" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="135" t="s">
+      <c r="I10" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="135" t="str">
+      <c r="J10" s="134" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138">
+      <c r="K10" s="136"/>
+      <c r="L10" s="137">
         <f>VLOOKUP(A10,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M10" s="138">
+      <c r="M10" s="137">
         <f>VLOOKUP(A10,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -10865,7 +10949,7 @@
       <c r="O10" s="94"/>
     </row>
     <row r="11" spans="1:15" ht="42" customHeight="1">
-      <c r="A11" s="156">
+      <c r="A11" s="155">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -10875,7 +10959,7 @@
       <c r="C11" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="134" t="str">
+      <c r="D11" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A11,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A11,Planificación!B$13:G$22,3,FALSE))</f>
         <v>LMREQM_Lista Maestra de Requerimientos / REQM</v>
       </c>
@@ -10890,22 +10974,22 @@
       <c r="G11" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="H11" s="135" t="s">
+      <c r="H11" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="135" t="s">
+      <c r="I11" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="135" t="str">
+      <c r="J11" s="134" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K11" s="137"/>
-      <c r="L11" s="138">
+      <c r="K11" s="136"/>
+      <c r="L11" s="137">
         <f>VLOOKUP(A11,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M11" s="138">
+      <c r="M11" s="137">
         <f>VLOOKUP(A11,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -10913,7 +10997,7 @@
       <c r="O11" s="94"/>
     </row>
     <row r="12" spans="1:15" ht="42" customHeight="1">
-      <c r="A12" s="156">
+      <c r="A12" s="155">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -10923,7 +11007,7 @@
       <c r="C12" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="134" t="str">
+      <c r="D12" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A12,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A12,Planificación!B$13:G$22,3,FALSE))</f>
         <v>MTREQM_Matriz Trazabilidad de Requerimientos / REQM</v>
       </c>
@@ -10938,22 +11022,22 @@
       <c r="G12" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="135" t="s">
+      <c r="H12" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="135" t="s">
+      <c r="I12" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="135" t="str">
+      <c r="J12" s="134" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K12" s="137"/>
-      <c r="L12" s="138">
+      <c r="K12" s="136"/>
+      <c r="L12" s="137">
         <f>VLOOKUP(A12,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M12" s="138">
+      <c r="M12" s="137">
         <f>VLOOKUP(A12,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -10961,7 +11045,7 @@
       <c r="O12" s="124"/>
     </row>
     <row r="13" spans="1:15" ht="42" customHeight="1">
-      <c r="A13" s="156">
+      <c r="A13" s="155">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -10972,7 +11056,7 @@
         <f>VLOOKUP(B13,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="134" t="str">
+      <c r="D13" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A13,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A13,Planificación!B$13:G$22,3,FALSE))</f>
         <v>SOLCREQM_Solicitud de Cambios  de Requerimientos / REQM</v>
       </c>
@@ -10987,22 +11071,22 @@
       <c r="G13" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="135" t="s">
+      <c r="H13" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="135" t="s">
+      <c r="I13" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="135" t="str">
+      <c r="J13" s="134" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K13" s="137"/>
-      <c r="L13" s="138">
+      <c r="K13" s="136"/>
+      <c r="L13" s="137">
         <f>VLOOKUP(A13,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M13" s="138">
+      <c r="M13" s="137">
         <f>VLOOKUP(A13,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11010,7 +11094,7 @@
       <c r="O13" s="124"/>
     </row>
     <row r="14" spans="1:15" s="105" customFormat="1" ht="42" customHeight="1">
-      <c r="A14" s="156">
+      <c r="A14" s="155">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -11021,7 +11105,7 @@
         <f>VLOOKUP(B14,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="134" t="str">
+      <c r="D14" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A14,Planificación!B$13:G$22,4,FALSE)," / ",VLOOKUP(A14,Planificación!B$13:G$22,3,FALSE))</f>
         <v>ASCREQM_Acta de Solicitud de Cambios de Requerimientos / REQM</v>
       </c>
@@ -11036,22 +11120,22 @@
       <c r="G14" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="136" t="s">
+      <c r="I14" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="135" t="str">
+      <c r="J14" s="134" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K14" s="139"/>
-      <c r="L14" s="138">
+      <c r="K14" s="138"/>
+      <c r="L14" s="137">
         <f>VLOOKUP(A14,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M14" s="138">
+      <c r="M14" s="137">
         <f>VLOOKUP(A14,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11059,7 +11143,7 @@
       <c r="O14" s="126"/>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1">
-      <c r="A15" s="156">
+      <c r="A15" s="155">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -11070,7 +11154,7 @@
         <f>VLOOKUP(B15,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="134" t="str">
+      <c r="D15" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A15,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A15,Planificación!B$13:G$48,3,FALSE))</f>
         <v>RCREQM_Registro de Cambios a Requerimientos / REQM</v>
       </c>
@@ -11085,22 +11169,22 @@
       <c r="G15" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="H15" s="135" t="s">
+      <c r="H15" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="135" t="s">
+      <c r="I15" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="135" t="str">
+      <c r="J15" s="134" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K15" s="137"/>
-      <c r="L15" s="138">
+      <c r="K15" s="136"/>
+      <c r="L15" s="137">
         <f>VLOOKUP(A15,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M15" s="138">
+      <c r="M15" s="137">
         <f>VLOOKUP(A15,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11108,7 +11192,7 @@
       <c r="O15" s="94"/>
     </row>
     <row r="16" spans="1:15" ht="42" customHeight="1">
-      <c r="A16" s="156">
+      <c r="A16" s="155">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -11119,7 +11203,7 @@
         <f>VLOOKUP(B16,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D16" s="134" t="str">
+      <c r="D16" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A16,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A16,Planificación!B$13:G$48,3,FALSE))</f>
         <v>DANA_Documento de Analisis / REQM</v>
       </c>
@@ -11134,22 +11218,22 @@
       <c r="G16" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="135" t="s">
+      <c r="H16" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="135" t="s">
+      <c r="I16" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="135" t="str">
+      <c r="J16" s="134" t="str">
         <f>VLOOKUP(A16,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Calvo</v>
       </c>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138">
+      <c r="K16" s="136"/>
+      <c r="L16" s="137">
         <f>VLOOKUP(A16,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M16" s="138">
+      <c r="M16" s="137">
         <f>VLOOKUP(A16,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11157,7 +11241,7 @@
       <c r="O16" s="94"/>
     </row>
     <row r="17" spans="1:15" ht="42" customHeight="1">
-      <c r="A17" s="156">
+      <c r="A17" s="155">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -11168,7 +11252,7 @@
         <f>VLOOKUP(B17,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D17" s="134" t="str">
+      <c r="D17" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A17,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A17,Planificación!B$13:G$48,3,FALSE))</f>
         <v>DDIS_Documento de Diseño / REQM</v>
       </c>
@@ -11183,22 +11267,22 @@
       <c r="G17" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="135" t="s">
+      <c r="H17" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="135" t="s">
+      <c r="I17" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="135" t="str">
+      <c r="J17" s="134" t="str">
         <f>VLOOKUP(A17,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K17" s="137"/>
-      <c r="L17" s="138">
+      <c r="K17" s="136"/>
+      <c r="L17" s="137">
         <f>VLOOKUP(A17,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M17" s="138">
+      <c r="M17" s="137">
         <f>VLOOKUP(A17,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11206,7 +11290,7 @@
       <c r="O17" s="94"/>
     </row>
     <row r="18" spans="1:15" ht="42" customHeight="1">
-      <c r="A18" s="156">
+      <c r="A18" s="155">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -11217,7 +11301,7 @@
         <f>VLOOKUP(B18,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D18" s="134" t="str">
+      <c r="D18" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A18,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A18,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MTOPBODY_Manual de Usuario / REQM</v>
       </c>
@@ -11232,22 +11316,22 @@
       <c r="G18" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="135" t="s">
+      <c r="H18" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="135" t="s">
+      <c r="I18" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="135" t="str">
+      <c r="J18" s="134" t="str">
         <f>VLOOKUP(A18,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K18" s="137"/>
-      <c r="L18" s="138">
+      <c r="K18" s="136"/>
+      <c r="L18" s="137">
         <f>VLOOKUP(A18,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M18" s="138">
+      <c r="M18" s="137">
         <f>VLOOKUP(A18,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11255,7 +11339,7 @@
       <c r="O18" s="94"/>
     </row>
     <row r="19" spans="1:15" ht="42" customHeight="1">
-      <c r="A19" s="156">
+      <c r="A19" s="155">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -11266,7 +11350,7 @@
         <f>VLOOKUP(B19,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D19" s="134" t="str">
+      <c r="D19" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A19,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A19,Planificación!B$13:G$48,3,FALSE))</f>
         <v>INPRUIN_Informe de Pruebas Internas / REQM</v>
       </c>
@@ -11281,22 +11365,22 @@
       <c r="G19" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="135" t="s">
+      <c r="H19" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="135" t="s">
+      <c r="I19" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="135" t="str">
+      <c r="J19" s="134" t="str">
         <f>VLOOKUP(A19,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K19" s="137"/>
-      <c r="L19" s="138">
+      <c r="K19" s="136"/>
+      <c r="L19" s="137">
         <f>VLOOKUP(A19,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M19" s="138">
+      <c r="M19" s="137">
         <f>VLOOKUP(A19,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11304,7 +11388,7 @@
       <c r="O19" s="94"/>
     </row>
     <row r="20" spans="1:15" ht="42" customHeight="1">
-      <c r="A20" s="156">
+      <c r="A20" s="155">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -11315,7 +11399,7 @@
         <f>VLOOKUP(B20,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D20" s="134" t="str">
+      <c r="D20" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A20,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A20,Planificación!B$13:G$48,3,FALSE))</f>
         <v>INPRUEX_Informe de Pruebas Externas / REQM</v>
       </c>
@@ -11330,22 +11414,22 @@
       <c r="G20" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="135" t="s">
+      <c r="H20" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="135" t="s">
+      <c r="I20" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="135" t="str">
+      <c r="J20" s="134" t="str">
         <f>VLOOKUP(A20,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K20" s="137"/>
-      <c r="L20" s="138">
+      <c r="K20" s="136"/>
+      <c r="L20" s="137">
         <f>VLOOKUP(A20,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42298</v>
       </c>
-      <c r="M20" s="138">
+      <c r="M20" s="137">
         <f>VLOOKUP(A20,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42297</v>
       </c>
@@ -11353,7 +11437,7 @@
       <c r="O20" s="94"/>
     </row>
     <row r="21" spans="1:15" ht="42" customHeight="1">
-      <c r="A21" s="156">
+      <c r="A21" s="155">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -11364,7 +11448,7 @@
         <f>VLOOKUP(B21,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D21" s="134" t="str">
+      <c r="D21" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A21,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A21,Planificación!B$13:G$48,3,FALSE))</f>
         <v>CHKQA_CheckList de Aseguramiento de Calidad / PPQA</v>
       </c>
@@ -11379,22 +11463,22 @@
       <c r="G21" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="135" t="s">
+      <c r="H21" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="135" t="s">
+      <c r="I21" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="135" t="str">
+      <c r="J21" s="134" t="str">
         <f>VLOOKUP(A21,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K21" s="137"/>
-      <c r="L21" s="138">
+      <c r="K21" s="136"/>
+      <c r="L21" s="137">
         <f>VLOOKUP(A21,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M21" s="138">
+      <c r="M21" s="137">
         <f>VLOOKUP(A21,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11402,7 +11486,7 @@
       <c r="O21" s="94"/>
     </row>
     <row r="22" spans="1:15" ht="42" customHeight="1">
-      <c r="A22" s="156">
+      <c r="A22" s="155">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -11413,7 +11497,7 @@
         <f>VLOOKUP(B22,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D22" s="134" t="str">
+      <c r="D22" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A22,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A22,Planificación!B$13:G$48,3,FALSE))</f>
         <v>HGQA_Herramienta Gestion de Aseguramiento de Calidad / PPQA</v>
       </c>
@@ -11428,22 +11512,22 @@
       <c r="G22" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="135" t="s">
+      <c r="H22" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="135" t="s">
+      <c r="I22" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="135" t="str">
+      <c r="J22" s="134" t="str">
         <f>VLOOKUP(A22,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K22" s="137"/>
-      <c r="L22" s="138">
+      <c r="K22" s="136"/>
+      <c r="L22" s="137">
         <f>VLOOKUP(A22,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M22" s="138">
+      <c r="M22" s="137">
         <f>VLOOKUP(A22,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11451,7 +11535,7 @@
       <c r="O22" s="94"/>
     </row>
     <row r="23" spans="1:15" ht="42" customHeight="1">
-      <c r="A23" s="156">
+      <c r="A23" s="155">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -11462,7 +11546,7 @@
         <f>VLOOKUP(B23,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D23" s="134" t="str">
+      <c r="D23" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A23,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A23,Planificación!B$13:G$48,3,FALSE))</f>
         <v>PQA_Proceso de Aseguramiento de Calidad / PPQA</v>
       </c>
@@ -11477,22 +11561,22 @@
       <c r="G23" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="135" t="s">
+      <c r="H23" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I23" s="135" t="s">
+      <c r="I23" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="135" t="str">
+      <c r="J23" s="134" t="str">
         <f>VLOOKUP(A23,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K23" s="137"/>
-      <c r="L23" s="138">
+      <c r="K23" s="136"/>
+      <c r="L23" s="137">
         <f>VLOOKUP(A23,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M23" s="138">
+      <c r="M23" s="137">
         <f>VLOOKUP(A23,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11500,7 +11584,7 @@
       <c r="O23" s="94"/>
     </row>
     <row r="24" spans="1:15" ht="42" customHeight="1">
-      <c r="A24" s="156">
+      <c r="A24" s="155">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -11511,7 +11595,7 @@
         <f>VLOOKUP(B24,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D24" s="134" t="str">
+      <c r="D24" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A24,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A24,Planificación!B$13:G$48,3,FALSE))</f>
         <v>SASQA_Solicitud de Aseguramiento de Calidad / PPQA</v>
       </c>
@@ -11526,22 +11610,22 @@
       <c r="G24" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="135" t="s">
+      <c r="H24" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="135" t="s">
+      <c r="I24" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J24" s="135" t="str">
+      <c r="J24" s="134" t="str">
         <f>VLOOKUP(A24,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K24" s="137"/>
-      <c r="L24" s="138">
+      <c r="K24" s="136"/>
+      <c r="L24" s="137">
         <f>VLOOKUP(A24,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M24" s="138">
+      <c r="M24" s="137">
         <f>VLOOKUP(A24,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11549,7 +11633,7 @@
       <c r="O24" s="94"/>
     </row>
     <row r="25" spans="1:15" ht="42" customHeight="1">
-      <c r="A25" s="156">
+      <c r="A25" s="155">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -11560,7 +11644,7 @@
         <f>VLOOKUP(B25,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D25" s="134" t="str">
+      <c r="D25" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A25,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A25,Planificación!B$13:G$48,3,FALSE))</f>
         <v>INREQA_Informe de Aseguramiento de Calidad / PPQA</v>
       </c>
@@ -11575,22 +11659,22 @@
       <c r="G25" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="135" t="s">
+      <c r="H25" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="135" t="s">
+      <c r="I25" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="135" t="str">
+      <c r="J25" s="134" t="str">
         <f>VLOOKUP(A25,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K25" s="137"/>
-      <c r="L25" s="138">
+      <c r="K25" s="136"/>
+      <c r="L25" s="137">
         <f>VLOOKUP(A25,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M25" s="138">
+      <c r="M25" s="137">
         <f>VLOOKUP(A25,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11598,7 +11682,7 @@
       <c r="O25" s="94"/>
     </row>
     <row r="26" spans="1:15" ht="42" customHeight="1">
-      <c r="A26" s="156">
+      <c r="A26" s="155">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -11609,7 +11693,7 @@
         <f>VLOOKUP(B26,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D26" s="134" t="str">
+      <c r="D26" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A26,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A26,Planificación!B$13:G$48,3,FALSE))</f>
         <v>PGC_Proceso de Gestion de Configuracion / CM</v>
       </c>
@@ -11624,22 +11708,22 @@
       <c r="G26" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="135" t="s">
+      <c r="H26" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="135" t="s">
+      <c r="I26" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="135" t="str">
+      <c r="J26" s="134" t="str">
         <f>VLOOKUP(A26,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K26" s="137"/>
-      <c r="L26" s="138">
+      <c r="K26" s="136"/>
+      <c r="L26" s="137">
         <f>VLOOKUP(A26,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M26" s="138">
+      <c r="M26" s="137">
         <f>VLOOKUP(A26,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11647,7 +11731,7 @@
       <c r="O26" s="94"/>
     </row>
     <row r="27" spans="1:15" ht="42" customHeight="1">
-      <c r="A27" s="156">
+      <c r="A27" s="155">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -11658,7 +11742,7 @@
         <f>VLOOKUP(B27,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D27" s="134" t="str">
+      <c r="D27" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A27,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A27,Planificación!B$13:G$48,3,FALSE))</f>
         <v>SOLAC_Solicitud de Accesos / CM</v>
       </c>
@@ -11673,22 +11757,22 @@
       <c r="G27" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="135" t="s">
+      <c r="H27" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="135" t="s">
+      <c r="I27" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="135" t="str">
+      <c r="J27" s="134" t="str">
         <f>VLOOKUP(A27,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K27" s="137"/>
-      <c r="L27" s="138">
+      <c r="K27" s="136"/>
+      <c r="L27" s="137">
         <f>VLOOKUP(A27,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M27" s="138">
+      <c r="M27" s="137">
         <f>VLOOKUP(A27,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11696,7 +11780,7 @@
       <c r="O27" s="94"/>
     </row>
     <row r="28" spans="1:15" ht="42" customHeight="1">
-      <c r="A28" s="156">
+      <c r="A28" s="155">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -11707,7 +11791,7 @@
         <f>VLOOKUP(B28,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D28" s="134" t="str">
+      <c r="D28" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A28,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A28,Planificación!B$13:G$48,3,FALSE))</f>
         <v>REGITCONFIG_Registro de Items de Configuracion / CM</v>
       </c>
@@ -11722,22 +11806,22 @@
       <c r="G28" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="135" t="s">
+      <c r="H28" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="135" t="s">
+      <c r="I28" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="135" t="str">
+      <c r="J28" s="134" t="str">
         <f>VLOOKUP(A28,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K28" s="137"/>
-      <c r="L28" s="138">
+      <c r="K28" s="136"/>
+      <c r="L28" s="137">
         <f>VLOOKUP(A28,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M28" s="138">
+      <c r="M28" s="137">
         <f>VLOOKUP(A28,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11745,7 +11829,7 @@
       <c r="O28" s="94"/>
     </row>
     <row r="29" spans="1:15" ht="42" customHeight="1">
-      <c r="A29" s="156">
+      <c r="A29" s="155">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -11756,7 +11840,7 @@
         <f>VLOOKUP(B29,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D29" s="134" t="str">
+      <c r="D29" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A29,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A29,Planificación!B$13:G$48,3,FALSE))</f>
         <v>ICIC_Indice Cambios Items de Configuracion / CM</v>
       </c>
@@ -11771,22 +11855,22 @@
       <c r="G29" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="135" t="s">
+      <c r="H29" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="I29" s="135" t="s">
+      <c r="I29" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="135" t="str">
+      <c r="J29" s="134" t="str">
         <f>VLOOKUP(A29,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K29" s="137"/>
-      <c r="L29" s="138">
+      <c r="K29" s="136"/>
+      <c r="L29" s="137">
         <f>VLOOKUP(A29,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M29" s="138">
+      <c r="M29" s="137">
         <f>VLOOKUP(A29,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11794,7 +11878,7 @@
       <c r="O29" s="94"/>
     </row>
     <row r="30" spans="1:15" ht="42" customHeight="1">
-      <c r="A30" s="156">
+      <c r="A30" s="155">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -11805,7 +11889,7 @@
         <f>VLOOKUP(B30,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D30" s="134" t="str">
+      <c r="D30" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A30,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A30,Planificación!B$13:G$48,3,FALSE))</f>
         <v>IAUDICM_Informe de Auditoria de CM / CM</v>
       </c>
@@ -11820,22 +11904,22 @@
       <c r="G30" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="135" t="s">
+      <c r="H30" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="135" t="s">
+      <c r="I30" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="135" t="str">
+      <c r="J30" s="134" t="str">
         <f>VLOOKUP(A30,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K30" s="137"/>
-      <c r="L30" s="138">
+      <c r="K30" s="136"/>
+      <c r="L30" s="137">
         <f>VLOOKUP(A30,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M30" s="138">
+      <c r="M30" s="137">
         <f>VLOOKUP(A30,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11843,7 +11927,7 @@
       <c r="O30" s="94"/>
     </row>
     <row r="31" spans="1:15" ht="42" customHeight="1">
-      <c r="A31" s="156">
+      <c r="A31" s="155">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -11854,7 +11938,7 @@
         <f>VLOOKUP(B31,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D31" s="134" t="str">
+      <c r="D31" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A31,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A31,Planificación!B$13:G$48,3,FALSE))</f>
         <v>PROMM_Proceso de Medicion de Metrica / MA</v>
       </c>
@@ -11869,22 +11953,22 @@
       <c r="G31" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="135" t="s">
+      <c r="H31" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="135" t="s">
+      <c r="I31" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="135" t="str">
+      <c r="J31" s="134" t="str">
         <f>VLOOKUP(A31,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K31" s="137"/>
-      <c r="L31" s="138">
+      <c r="K31" s="136"/>
+      <c r="L31" s="137">
         <f>VLOOKUP(A31,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M31" s="138">
+      <c r="M31" s="137">
         <f>VLOOKUP(A31,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11892,7 +11976,7 @@
       <c r="O31" s="124"/>
     </row>
     <row r="32" spans="1:15" ht="42" customHeight="1">
-      <c r="A32" s="156">
+      <c r="A32" s="155">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -11903,7 +11987,7 @@
         <f>VLOOKUP(B32,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D32" s="134" t="str">
+      <c r="D32" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A32,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A32,Planificación!B$13:G$48,3,FALSE))</f>
         <v>TABM_Tablero de Metricas / MA</v>
       </c>
@@ -11918,22 +12002,22 @@
       <c r="G32" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H32" s="135" t="s">
+      <c r="H32" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="135" t="s">
+      <c r="I32" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J32" s="135" t="str">
+      <c r="J32" s="134" t="str">
         <f>VLOOKUP(A32,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K32" s="137"/>
-      <c r="L32" s="138">
+      <c r="K32" s="136"/>
+      <c r="L32" s="137">
         <f>VLOOKUP(A32,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M32" s="138">
+      <c r="M32" s="137">
         <f>VLOOKUP(A32,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11941,7 +12025,7 @@
       <c r="O32" s="124"/>
     </row>
     <row r="33" spans="1:15" ht="42" customHeight="1">
-      <c r="A33" s="156">
+      <c r="A33" s="155">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -11952,7 +12036,7 @@
         <f>VLOOKUP(B33,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D33" s="134" t="str">
+      <c r="D33" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A33,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A33,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MNCONQAP_Metricas de N Conformidades QA de Producto / MA</v>
       </c>
@@ -11967,22 +12051,22 @@
       <c r="G33" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H33" s="135" t="s">
+      <c r="H33" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I33" s="135" t="s">
+      <c r="I33" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="135" t="str">
+      <c r="J33" s="134" t="str">
         <f>VLOOKUP(A33,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K33" s="137"/>
-      <c r="L33" s="138">
+      <c r="K33" s="136"/>
+      <c r="L33" s="137">
         <f>VLOOKUP(A33,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M33" s="138">
+      <c r="M33" s="137">
         <f>VLOOKUP(A33,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -11990,7 +12074,7 @@
       <c r="O33" s="94"/>
     </row>
     <row r="34" spans="1:15" ht="42" customHeight="1">
-      <c r="A34" s="156">
+      <c r="A34" s="155">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -12001,7 +12085,7 @@
         <f>VLOOKUP(B34,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D34" s="134" t="str">
+      <c r="D34" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A34,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A34,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MVREQM_Metricas de Volatilidad de Requerimientos / MA</v>
       </c>
@@ -12016,22 +12100,22 @@
       <c r="G34" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H34" s="135" t="s">
+      <c r="H34" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="I34" s="135" t="s">
+      <c r="I34" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="135" t="str">
+      <c r="J34" s="134" t="str">
         <f>VLOOKUP(A34,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Curi</v>
       </c>
-      <c r="K34" s="137"/>
-      <c r="L34" s="138">
+      <c r="K34" s="136"/>
+      <c r="L34" s="137">
         <f>VLOOKUP(A34,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M34" s="138">
+      <c r="M34" s="137">
         <f>VLOOKUP(A34,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12039,7 +12123,7 @@
       <c r="O34" s="94"/>
     </row>
     <row r="35" spans="1:15" ht="42" customHeight="1">
-      <c r="A35" s="156">
+      <c r="A35" s="155">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -12050,7 +12134,7 @@
         <f>VLOOKUP(B35,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D35" s="134" t="str">
+      <c r="D35" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A35,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A35,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MICIC_Metrica de Indice de Cambios en Items de Configuracion / MA</v>
       </c>
@@ -12065,22 +12149,22 @@
       <c r="G35" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H35" s="135" t="s">
+      <c r="H35" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="135" t="s">
+      <c r="I35" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="135" t="str">
+      <c r="J35" s="134" t="str">
         <f>VLOOKUP(A35,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K35" s="137"/>
-      <c r="L35" s="138">
+      <c r="K35" s="136"/>
+      <c r="L35" s="137">
         <f>VLOOKUP(A35,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M35" s="138">
+      <c r="M35" s="137">
         <f>VLOOKUP(A35,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12088,7 +12172,7 @@
       <c r="O35" s="94"/>
     </row>
     <row r="36" spans="1:15" ht="42" customHeight="1">
-      <c r="A36" s="156">
+      <c r="A36" s="155">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -12099,7 +12183,7 @@
         <f>VLOOKUP(B36,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D36" s="134" t="str">
+      <c r="D36" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A36,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A36,Planificación!B$13:G$48,3,FALSE))</f>
         <v>MEXRI_Metrica de Exposicion al Riesgo / MA</v>
       </c>
@@ -12114,22 +12198,22 @@
       <c r="G36" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="135" t="s">
+      <c r="H36" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="135" t="s">
+      <c r="I36" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J36" s="135" t="str">
+      <c r="J36" s="134" t="str">
         <f>VLOOKUP(A36,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K36" s="137"/>
-      <c r="L36" s="138">
+      <c r="K36" s="136"/>
+      <c r="L36" s="137">
         <f>VLOOKUP(A36,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M36" s="138">
+      <c r="M36" s="137">
         <f>VLOOKUP(A36,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12137,7 +12221,7 @@
       <c r="O36" s="94"/>
     </row>
     <row r="37" spans="1:15" ht="42" customHeight="1">
-      <c r="A37" s="156">
+      <c r="A37" s="155">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -12148,7 +12232,7 @@
         <f>VLOOKUP(B37,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D37" s="134" t="str">
+      <c r="D37" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A37,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A37,Planificación!B$13:G$48,3,FALSE))</f>
         <v xml:space="preserve">AREINT_Acta de reunion Interna / </v>
       </c>
@@ -12163,22 +12247,22 @@
       <c r="G37" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="135" t="s">
+      <c r="H37" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="135" t="s">
+      <c r="I37" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J37" s="135" t="str">
+      <c r="J37" s="134" t="str">
         <f>VLOOKUP(A37,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K37" s="137"/>
-      <c r="L37" s="138">
+      <c r="K37" s="136"/>
+      <c r="L37" s="137">
         <f>VLOOKUP(A37,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M37" s="138">
+      <c r="M37" s="137">
         <f>VLOOKUP(A37,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12186,7 +12270,7 @@
       <c r="O37" s="94"/>
     </row>
     <row r="38" spans="1:15" ht="42" customHeight="1">
-      <c r="A38" s="156">
+      <c r="A38" s="155">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -12197,7 +12281,7 @@
         <f>VLOOKUP(B38,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D38" s="134" t="str">
+      <c r="D38" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A38,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A38,Planificación!B$13:G$48,3,FALSE))</f>
         <v xml:space="preserve">IAQUIN_Informe Avance Quincenal / </v>
       </c>
@@ -12212,22 +12296,22 @@
       <c r="G38" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="H38" s="135" t="s">
+      <c r="H38" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I38" s="135" t="s">
+      <c r="I38" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J38" s="135" t="str">
+      <c r="J38" s="134" t="str">
         <f>VLOOKUP(A38,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K38" s="137"/>
-      <c r="L38" s="138">
+      <c r="K38" s="136"/>
+      <c r="L38" s="137">
         <f>VLOOKUP(A38,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M38" s="138">
+      <c r="M38" s="137">
         <f>VLOOKUP(A38,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12235,7 +12319,7 @@
       <c r="O38" s="94"/>
     </row>
     <row r="39" spans="1:15" ht="42" customHeight="1">
-      <c r="A39" s="156">
+      <c r="A39" s="155">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -12246,7 +12330,7 @@
         <f>VLOOKUP(B39,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D39" s="134" t="str">
+      <c r="D39" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A39,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A39,Planificación!B$13:G$48,3,FALSE))</f>
         <v xml:space="preserve">ARQUIN_Actas de Reunion Quincenal / </v>
       </c>
@@ -12261,22 +12345,22 @@
       <c r="G39" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="H39" s="135" t="s">
+      <c r="H39" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="135" t="s">
+      <c r="I39" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J39" s="135" t="str">
+      <c r="J39" s="134" t="str">
         <f>VLOOKUP(A39,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K39" s="137"/>
-      <c r="L39" s="138">
+      <c r="K39" s="136"/>
+      <c r="L39" s="137">
         <f>VLOOKUP(A39,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M39" s="138">
+      <c r="M39" s="137">
         <f>VLOOKUP(A39,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12284,7 +12368,7 @@
       <c r="O39" s="94"/>
     </row>
     <row r="40" spans="1:15" ht="42" customHeight="1">
-      <c r="A40" s="156">
+      <c r="A40" s="155">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -12295,7 +12379,7 @@
         <f>VLOOKUP(B40,Planificación!$B$13:$E$95,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D40" s="134" t="str">
+      <c r="D40" s="133" t="str">
         <f>CONCATENATE(VLOOKUP(A40,Planificación!B$13:G$48,4,FALSE)," / ",VLOOKUP(A40,Planificación!B$13:G$48,3,FALSE))</f>
         <v xml:space="preserve">AACENTRE_Acta de Aceptacion  de Entregables / </v>
       </c>
@@ -12310,22 +12394,22 @@
       <c r="G40" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="H40" s="135" t="s">
+      <c r="H40" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="I40" s="135" t="s">
+      <c r="I40" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="135" t="str">
+      <c r="J40" s="134" t="str">
         <f>VLOOKUP(A40,Planificación!B$13:G$48,6,FALSE)</f>
         <v>Quimper</v>
       </c>
-      <c r="K40" s="137"/>
-      <c r="L40" s="138">
+      <c r="K40" s="136"/>
+      <c r="L40" s="137">
         <f>VLOOKUP(A40,Planificación!B$13:M$48,8,FALSE)</f>
         <v>42296</v>
       </c>
-      <c r="M40" s="138">
+      <c r="M40" s="137">
         <f>VLOOKUP(A40,Planificación!B$13:M$48,11,FALSE)</f>
         <v>42299</v>
       </c>
@@ -12359,10 +12443,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12376,113 +12460,118 @@
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="17.25" customHeight="1">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="222" t="s">
+      <c r="C2" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1">
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="252" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="237"/>
-      <c r="E4" s="219" t="str">
+      <c r="D4" s="252"/>
+      <c r="E4" s="239" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
         <v>Curi Basilio, Lenin Alfonso</v>
       </c>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="221"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="241"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="238" t="str">
+      <c r="C5" s="253" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="219" t="str">
+      <c r="D5" s="254"/>
+      <c r="E5" s="239" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Quimper Salazar, Anatoli</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="221"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="241"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="241"/>
-      <c r="E6" s="219" t="str">
+      <c r="D6" s="238"/>
+      <c r="E6" s="239" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Calvo Guillen, Johann   Curi Basilio, Lenin Alfonso</v>
       </c>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="221"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="F6" s="240"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="241"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="242" t="s">
+      <c r="C7" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="242"/>
-      <c r="E7" s="228">
+      <c r="D7" s="246"/>
+      <c r="E7" s="247">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>42276</v>
       </c>
-      <c r="F7" s="229"/>
-      <c r="G7" s="244" t="s">
+      <c r="F7" s="248"/>
+      <c r="G7" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="245"/>
-      <c r="I7" s="163">
+      <c r="H7" s="250"/>
+      <c r="I7" s="162">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>42327</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="242" t="s">
+      <c r="C8" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="243"/>
-      <c r="E8" s="224" t="str">
+      <c r="D8" s="251"/>
+      <c r="E8" s="242" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>OCTUBRE</v>
       </c>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="226"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="M11" s="162"/>
-    </row>
-    <row r="13" spans="1:13" ht="15">
-      <c r="C13" s="227" t="s">
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="244"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="M11" s="161"/>
+    </row>
+    <row r="13" spans="1:17" ht="15">
+      <c r="C13" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="227"/>
+      <c r="D13" s="245"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12490,46 +12579,46 @@
       <c r="I13" s="12"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="C14" s="246" t="s">
+    <row r="14" spans="1:17">
+      <c r="C14" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="C15" s="246" t="s">
+      <c r="D14" s="131">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.25" customHeight="1">
+      <c r="C15" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="C16" s="246" t="s">
+      <c r="D15" s="129">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="131">
-        <v>2</v>
+      <c r="D16" s="130">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="C17" s="246" t="s">
+      <c r="C17" s="178" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="89">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>0.66666666666666663</v>
+        <v>0.25641025641025639</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="C18" s="246" t="s">
+      <c r="C18" s="178" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="89">
         <f>1-D17</f>
-        <v>0.33333333333333337</v>
+        <v>0.74358974358974361</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -12564,79 +12653,79 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1">
-      <c r="C26" s="223" t="s">
+      <c r="C26" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="223"/>
+      <c r="D26" s="236"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="C27" s="247" t="s">
+      <c r="C27" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="248" t="s">
+      <c r="D27" s="180" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="162"/>
-      <c r="C28" s="249" t="s">
+      <c r="B28" s="161"/>
+      <c r="C28" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="133">
+      <c r="D28" s="132">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="162"/>
-      <c r="C29" s="249" t="s">
+      <c r="B29" s="161"/>
+      <c r="C29" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="133">
+      <c r="D29" s="132">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="162"/>
-      <c r="C30" s="249" t="s">
+      <c r="B30" s="161"/>
+      <c r="C30" s="181" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="133">
+      <c r="D30" s="132">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="162"/>
-      <c r="C31" s="249" t="s">
+      <c r="B31" s="161"/>
+      <c r="C31" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="133">
+      <c r="D31" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="162"/>
-      <c r="C32" s="249" t="s">
+      <c r="B32" s="161"/>
+      <c r="C32" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="133">
+      <c r="D32" s="132">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="162"/>
-      <c r="C33" s="249" t="s">
+      <c r="B33" s="161"/>
+      <c r="C33" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="133">
+      <c r="D33" s="132">
         <f>COUNTIFS('Seguimiento de NC'!G5:G40,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H40,C33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:16">
-      <c r="C34" s="251" t="s">
+      <c r="C34" s="183" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="99">
@@ -12645,15 +12734,15 @@
       </c>
     </row>
     <row r="40" spans="2:16" ht="15">
-      <c r="C40" s="223" t="s">
+      <c r="C40" s="236" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="223"/>
+      <c r="D40" s="236"/>
       <c r="P40" s="127"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="162"/>
-      <c r="C41" s="250" t="s">
+      <c r="B41" s="161"/>
+      <c r="C41" s="182" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="98">
@@ -12662,8 +12751,8 @@
       </c>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="162"/>
-      <c r="C42" s="250" t="s">
+      <c r="B42" s="161"/>
+      <c r="C42" s="182" t="s">
         <v>108</v>
       </c>
       <c r="D42" s="98">
@@ -12672,7 +12761,7 @@
       </c>
     </row>
     <row r="43" spans="2:16">
-      <c r="C43" s="251" t="s">
+      <c r="C43" s="183" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="98">
@@ -12681,22 +12770,22 @@
       </c>
     </row>
     <row r="57" spans="2:4" ht="15">
-      <c r="C57" s="223" t="s">
+      <c r="C57" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="223"/>
+      <c r="D57" s="236"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="C58" s="247" t="s">
+      <c r="C58" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="248" t="s">
+      <c r="D58" s="180" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="162"/>
-      <c r="C59" s="256" t="s">
+      <c r="B59" s="161"/>
+      <c r="C59" s="188" t="s">
         <v>94</v>
       </c>
       <c r="D59" s="128">
@@ -12705,8 +12794,8 @@
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="162"/>
-      <c r="C60" s="256" t="s">
+      <c r="B60" s="161"/>
+      <c r="C60" s="188" t="s">
         <v>95</v>
       </c>
       <c r="D60" s="98">
@@ -12715,8 +12804,8 @@
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="162"/>
-      <c r="C61" s="256" t="s">
+      <c r="B61" s="161"/>
+      <c r="C61" s="188" t="s">
         <v>96</v>
       </c>
       <c r="D61" s="98">
@@ -12725,7 +12814,7 @@
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="C62" s="251" t="s">
+      <c r="C62" s="183" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="99">
@@ -12735,6 +12824,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:Q2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -12746,11 +12840,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12770,7 +12859,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -12785,33 +12874,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="148" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="166" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="167" t="s">
         <v>160</v>
       </c>
       <c r="D3" s="90" t="s">
@@ -12829,7 +12918,7 @@
       <c r="B4" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="167" t="s">
         <v>161</v>
       </c>
       <c r="D4" s="90" t="s">
@@ -12847,7 +12936,7 @@
       <c r="B5" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="167" t="s">
         <v>162</v>
       </c>
       <c r="E5" s="90" t="s">
@@ -12862,7 +12951,7 @@
       <c r="B6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="167" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="90" t="s">
@@ -12872,8 +12961,8 @@
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="121"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="169" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="168" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="90" t="s">
